--- a/assets/resources/templates/FedRAMP-H-M-L-Li-Review-Report-Template-Rev4.xlsx
+++ b/assets/resources/templates/FedRAMP-H-M-L-Li-Review-Report-Template-Rev4.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shiva.alipour/Library/CloudStorage/GoogleDrive-shiva.alipour@theclearing.com/My Drive/_Move to Drive and Clean up/desktop_6-14-2024/_downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shiva.alipour/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC188DC4-26E7-DA46-AC12-011B5BF99DD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0667219D-2531-FD40-B624-CED32615C08F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="560" yWindow="760" windowWidth="22340" windowHeight="19880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1989,7 +1989,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="205">
+  <cellXfs count="201">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2262,6 +2262,45 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -2272,11 +2311,14 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2284,8 +2326,18 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -2312,10 +2364,30 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="24" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2358,15 +2430,24 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2375,9 +2456,6 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
@@ -2406,6 +2484,18 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2437,100 +2527,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2784,249 +2780,249 @@
   <sheetData>
     <row r="1" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="51"/>
-      <c r="B1" s="122" t="s">
+      <c r="B1" s="143" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="123"/>
-      <c r="D1" s="123"/>
-      <c r="E1" s="123"/>
-      <c r="F1" s="123"/>
-      <c r="G1" s="123"/>
-      <c r="H1" s="123"/>
+      <c r="C1" s="144"/>
+      <c r="D1" s="144"/>
+      <c r="E1" s="144"/>
+      <c r="F1" s="144"/>
+      <c r="G1" s="144"/>
+      <c r="H1" s="144"/>
     </row>
     <row r="2" spans="1:8" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="51"/>
-      <c r="B2" s="173" t="s">
+      <c r="B2" s="145" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="174"/>
-      <c r="D2" s="174"/>
-      <c r="E2" s="174"/>
-      <c r="F2" s="174"/>
-      <c r="G2" s="174"/>
-      <c r="H2" s="175" t="s">
+      <c r="C2" s="146"/>
+      <c r="D2" s="146"/>
+      <c r="E2" s="146"/>
+      <c r="F2" s="146"/>
+      <c r="G2" s="146"/>
+      <c r="H2" s="95" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="52"/>
-      <c r="B3" s="176" t="s">
+      <c r="B3" s="140" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="177"/>
-      <c r="D3" s="178" t="s">
+      <c r="C3" s="117"/>
+      <c r="D3" s="147" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="179"/>
-      <c r="F3" s="179"/>
-      <c r="G3" s="179"/>
-      <c r="H3" s="108"/>
+      <c r="E3" s="115"/>
+      <c r="F3" s="115"/>
+      <c r="G3" s="115"/>
+      <c r="H3" s="126"/>
     </row>
     <row r="4" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="52"/>
-      <c r="B4" s="176" t="s">
+      <c r="B4" s="140" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="177"/>
-      <c r="D4" s="178" t="s">
+      <c r="C4" s="117"/>
+      <c r="D4" s="147" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="179"/>
-      <c r="F4" s="179"/>
-      <c r="G4" s="180" t="s">
+      <c r="E4" s="115"/>
+      <c r="F4" s="115"/>
+      <c r="G4" s="96" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="181" t="s">
+      <c r="H4" s="97" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="52"/>
-      <c r="B5" s="176" t="s">
+      <c r="B5" s="140" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="177"/>
-      <c r="D5" s="178" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="179"/>
-      <c r="F5" s="179"/>
-      <c r="G5" s="180" t="s">
+      <c r="C5" s="117"/>
+      <c r="D5" s="147" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="115"/>
+      <c r="F5" s="115"/>
+      <c r="G5" s="96" t="s">
         <v>11</v>
       </c>
-      <c r="H5" s="181" t="s">
+      <c r="H5" s="97" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="52"/>
-      <c r="B6" s="176" t="s">
+      <c r="B6" s="140" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="177"/>
-      <c r="D6" s="182" t="s">
+      <c r="C6" s="117"/>
+      <c r="D6" s="148" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="179"/>
-      <c r="F6" s="179"/>
-      <c r="G6" s="179"/>
-      <c r="H6" s="108"/>
+      <c r="E6" s="115"/>
+      <c r="F6" s="115"/>
+      <c r="G6" s="115"/>
+      <c r="H6" s="126"/>
     </row>
     <row r="7" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="52"/>
-      <c r="B7" s="183" t="s">
+      <c r="B7" s="141" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="184"/>
-      <c r="D7" s="185" t="s">
+      <c r="C7" s="142"/>
+      <c r="D7" s="149" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="110"/>
-      <c r="F7" s="110"/>
-      <c r="G7" s="186" t="s">
+      <c r="E7" s="128"/>
+      <c r="F7" s="128"/>
+      <c r="G7" s="98" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="187" t="s">
+      <c r="H7" s="99" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="40"/>
-      <c r="B8" s="102"/>
-      <c r="C8" s="103"/>
-      <c r="D8" s="103"/>
-      <c r="E8" s="103"/>
-      <c r="F8" s="103"/>
-      <c r="G8" s="103"/>
-      <c r="H8" s="103"/>
+      <c r="B8" s="119"/>
+      <c r="C8" s="120"/>
+      <c r="D8" s="120"/>
+      <c r="E8" s="120"/>
+      <c r="F8" s="120"/>
+      <c r="G8" s="120"/>
+      <c r="H8" s="120"/>
     </row>
     <row r="9" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="52"/>
-      <c r="B9" s="170" t="s">
+      <c r="B9" s="121" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="169"/>
-      <c r="D9" s="169"/>
-      <c r="E9" s="169"/>
-      <c r="F9" s="169"/>
-      <c r="G9" s="169"/>
-      <c r="H9" s="169"/>
+      <c r="C9" s="117"/>
+      <c r="D9" s="117"/>
+      <c r="E9" s="117"/>
+      <c r="F9" s="117"/>
+      <c r="G9" s="117"/>
+      <c r="H9" s="117"/>
     </row>
     <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="2"/>
-      <c r="B10" s="104"/>
-      <c r="C10" s="105"/>
-      <c r="D10" s="105"/>
-      <c r="E10" s="105"/>
-      <c r="F10" s="105"/>
-      <c r="G10" s="105"/>
-      <c r="H10" s="106"/>
+      <c r="B10" s="122"/>
+      <c r="C10" s="123"/>
+      <c r="D10" s="123"/>
+      <c r="E10" s="123"/>
+      <c r="F10" s="123"/>
+      <c r="G10" s="123"/>
+      <c r="H10" s="124"/>
     </row>
     <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="2"/>
-      <c r="B11" s="107"/>
-      <c r="C11" s="101"/>
-      <c r="D11" s="101"/>
-      <c r="E11" s="101"/>
-      <c r="F11" s="101"/>
-      <c r="G11" s="101"/>
-      <c r="H11" s="108"/>
+      <c r="B11" s="125"/>
+      <c r="C11" s="115"/>
+      <c r="D11" s="115"/>
+      <c r="E11" s="115"/>
+      <c r="F11" s="115"/>
+      <c r="G11" s="115"/>
+      <c r="H11" s="126"/>
     </row>
     <row r="12" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="2"/>
-      <c r="B12" s="107"/>
-      <c r="C12" s="101"/>
-      <c r="D12" s="101"/>
-      <c r="E12" s="101"/>
-      <c r="F12" s="101"/>
-      <c r="G12" s="101"/>
-      <c r="H12" s="108"/>
+      <c r="B12" s="125"/>
+      <c r="C12" s="115"/>
+      <c r="D12" s="115"/>
+      <c r="E12" s="115"/>
+      <c r="F12" s="115"/>
+      <c r="G12" s="115"/>
+      <c r="H12" s="126"/>
     </row>
     <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="2"/>
-      <c r="B13" s="107"/>
-      <c r="C13" s="101"/>
-      <c r="D13" s="101"/>
-      <c r="E13" s="101"/>
-      <c r="F13" s="101"/>
-      <c r="G13" s="101"/>
-      <c r="H13" s="108"/>
+      <c r="B13" s="125"/>
+      <c r="C13" s="115"/>
+      <c r="D13" s="115"/>
+      <c r="E13" s="115"/>
+      <c r="F13" s="115"/>
+      <c r="G13" s="115"/>
+      <c r="H13" s="126"/>
     </row>
     <row r="14" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="2"/>
-      <c r="B14" s="107"/>
-      <c r="C14" s="101"/>
-      <c r="D14" s="101"/>
-      <c r="E14" s="101"/>
-      <c r="F14" s="101"/>
-      <c r="G14" s="101"/>
-      <c r="H14" s="108"/>
+      <c r="B14" s="125"/>
+      <c r="C14" s="115"/>
+      <c r="D14" s="115"/>
+      <c r="E14" s="115"/>
+      <c r="F14" s="115"/>
+      <c r="G14" s="115"/>
+      <c r="H14" s="126"/>
     </row>
     <row r="15" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="2"/>
-      <c r="B15" s="107"/>
-      <c r="C15" s="101"/>
-      <c r="D15" s="101"/>
-      <c r="E15" s="101"/>
-      <c r="F15" s="101"/>
-      <c r="G15" s="101"/>
-      <c r="H15" s="108"/>
+      <c r="B15" s="125"/>
+      <c r="C15" s="115"/>
+      <c r="D15" s="115"/>
+      <c r="E15" s="115"/>
+      <c r="F15" s="115"/>
+      <c r="G15" s="115"/>
+      <c r="H15" s="126"/>
     </row>
     <row r="16" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="2"/>
-      <c r="B16" s="107"/>
-      <c r="C16" s="101"/>
-      <c r="D16" s="101"/>
-      <c r="E16" s="101"/>
-      <c r="F16" s="101"/>
-      <c r="G16" s="101"/>
-      <c r="H16" s="108"/>
+      <c r="B16" s="125"/>
+      <c r="C16" s="115"/>
+      <c r="D16" s="115"/>
+      <c r="E16" s="115"/>
+      <c r="F16" s="115"/>
+      <c r="G16" s="115"/>
+      <c r="H16" s="126"/>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="2"/>
-      <c r="B17" s="109"/>
-      <c r="C17" s="110"/>
-      <c r="D17" s="110"/>
-      <c r="E17" s="110"/>
-      <c r="F17" s="110"/>
-      <c r="G17" s="110"/>
-      <c r="H17" s="111"/>
+      <c r="B17" s="127"/>
+      <c r="C17" s="128"/>
+      <c r="D17" s="128"/>
+      <c r="E17" s="128"/>
+      <c r="F17" s="128"/>
+      <c r="G17" s="128"/>
+      <c r="H17" s="129"/>
     </row>
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="40"/>
-      <c r="B18" s="102"/>
-      <c r="C18" s="103"/>
-      <c r="D18" s="103"/>
-      <c r="E18" s="103"/>
-      <c r="F18" s="103"/>
-      <c r="G18" s="103"/>
-      <c r="H18" s="103"/>
+      <c r="B18" s="119"/>
+      <c r="C18" s="120"/>
+      <c r="D18" s="120"/>
+      <c r="E18" s="120"/>
+      <c r="F18" s="120"/>
+      <c r="G18" s="120"/>
+      <c r="H18" s="120"/>
     </row>
     <row r="19" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="52"/>
       <c r="B19" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="112" t="s">
+      <c r="C19" s="130" t="s">
         <v>20</v>
       </c>
-      <c r="D19" s="101"/>
-      <c r="E19" s="101"/>
-      <c r="F19" s="101"/>
-      <c r="G19" s="101"/>
-      <c r="H19" s="101"/>
+      <c r="D19" s="115"/>
+      <c r="E19" s="115"/>
+      <c r="F19" s="115"/>
+      <c r="G19" s="115"/>
+      <c r="H19" s="115"/>
     </row>
     <row r="20" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="52"/>
-      <c r="B20" s="170" t="s">
+      <c r="B20" s="121" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="169"/>
-      <c r="D20" s="169"/>
-      <c r="E20" s="169"/>
-      <c r="F20" s="169"/>
-      <c r="G20" s="169"/>
-      <c r="H20" s="169"/>
+      <c r="C20" s="117"/>
+      <c r="D20" s="117"/>
+      <c r="E20" s="117"/>
+      <c r="F20" s="117"/>
+      <c r="G20" s="117"/>
+      <c r="H20" s="117"/>
     </row>
     <row r="21" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="52"/>
@@ -3420,69 +3416,69 @@
     </row>
     <row r="39" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="52"/>
-      <c r="B39" s="113" t="s">
+      <c r="B39" s="131" t="s">
         <v>71</v>
       </c>
-      <c r="C39" s="101"/>
-      <c r="D39" s="101"/>
-      <c r="E39" s="101"/>
-      <c r="F39" s="101"/>
-      <c r="G39" s="101"/>
-      <c r="H39" s="101"/>
+      <c r="C39" s="115"/>
+      <c r="D39" s="115"/>
+      <c r="E39" s="115"/>
+      <c r="F39" s="115"/>
+      <c r="G39" s="115"/>
+      <c r="H39" s="115"/>
     </row>
     <row r="40" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="2"/>
-      <c r="B40" s="114" t="s">
+      <c r="B40" s="132" t="s">
         <v>247</v>
       </c>
-      <c r="C40" s="115"/>
-      <c r="D40" s="115"/>
-      <c r="E40" s="115"/>
-      <c r="F40" s="115"/>
-      <c r="G40" s="115"/>
-      <c r="H40" s="116"/>
+      <c r="C40" s="133"/>
+      <c r="D40" s="133"/>
+      <c r="E40" s="133"/>
+      <c r="F40" s="133"/>
+      <c r="G40" s="133"/>
+      <c r="H40" s="134"/>
     </row>
     <row r="41" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="2"/>
-      <c r="B41" s="117"/>
-      <c r="C41" s="103"/>
-      <c r="D41" s="103"/>
-      <c r="E41" s="103"/>
-      <c r="F41" s="103"/>
-      <c r="G41" s="103"/>
-      <c r="H41" s="118"/>
+      <c r="B41" s="135"/>
+      <c r="C41" s="120"/>
+      <c r="D41" s="120"/>
+      <c r="E41" s="120"/>
+      <c r="F41" s="120"/>
+      <c r="G41" s="120"/>
+      <c r="H41" s="136"/>
     </row>
     <row r="42" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="2"/>
-      <c r="B42" s="119"/>
-      <c r="C42" s="120"/>
-      <c r="D42" s="120"/>
-      <c r="E42" s="120"/>
-      <c r="F42" s="120"/>
-      <c r="G42" s="120"/>
-      <c r="H42" s="121"/>
+      <c r="B42" s="137"/>
+      <c r="C42" s="138"/>
+      <c r="D42" s="138"/>
+      <c r="E42" s="138"/>
+      <c r="F42" s="138"/>
+      <c r="G42" s="138"/>
+      <c r="H42" s="139"/>
     </row>
     <row r="43" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="40"/>
-      <c r="B43" s="102"/>
-      <c r="C43" s="103"/>
-      <c r="D43" s="103"/>
-      <c r="E43" s="103"/>
-      <c r="F43" s="103"/>
-      <c r="G43" s="103"/>
-      <c r="H43" s="103"/>
+      <c r="B43" s="119"/>
+      <c r="C43" s="120"/>
+      <c r="D43" s="120"/>
+      <c r="E43" s="120"/>
+      <c r="F43" s="120"/>
+      <c r="G43" s="120"/>
+      <c r="H43" s="120"/>
     </row>
     <row r="44" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="52"/>
-      <c r="B44" s="171" t="s">
+      <c r="B44" s="116" t="s">
         <v>72</v>
       </c>
-      <c r="C44" s="169"/>
-      <c r="D44" s="169"/>
-      <c r="E44" s="169"/>
-      <c r="F44" s="169"/>
-      <c r="G44" s="169"/>
-      <c r="H44" s="169"/>
+      <c r="C44" s="117"/>
+      <c r="D44" s="117"/>
+      <c r="E44" s="117"/>
+      <c r="F44" s="117"/>
+      <c r="G44" s="117"/>
+      <c r="H44" s="117"/>
     </row>
     <row r="45" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="52"/>
@@ -3495,12 +3491,12 @@
       <c r="D45" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="E45" s="100" t="s">
+      <c r="E45" s="114" t="s">
         <v>73</v>
       </c>
-      <c r="F45" s="101"/>
-      <c r="G45" s="101"/>
-      <c r="H45" s="101"/>
+      <c r="F45" s="115"/>
+      <c r="G45" s="115"/>
+      <c r="H45" s="115"/>
     </row>
     <row r="46" spans="1:8" ht="14" x14ac:dyDescent="0.15">
       <c r="A46" s="2"/>
@@ -3513,12 +3509,12 @@
       <c r="D46" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="E46" s="94" t="s">
-        <v>74</v>
-      </c>
-      <c r="F46" s="95"/>
-      <c r="G46" s="95"/>
-      <c r="H46" s="95"/>
+      <c r="E46" s="107" t="s">
+        <v>74</v>
+      </c>
+      <c r="F46" s="108"/>
+      <c r="G46" s="108"/>
+      <c r="H46" s="108"/>
     </row>
     <row r="47" spans="1:8" ht="14" x14ac:dyDescent="0.15">
       <c r="A47" s="2"/>
@@ -3531,12 +3527,12 @@
       <c r="D47" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="E47" s="94" t="s">
-        <v>74</v>
-      </c>
-      <c r="F47" s="95"/>
-      <c r="G47" s="95"/>
-      <c r="H47" s="95"/>
+      <c r="E47" s="107" t="s">
+        <v>74</v>
+      </c>
+      <c r="F47" s="108"/>
+      <c r="G47" s="108"/>
+      <c r="H47" s="108"/>
     </row>
     <row r="48" spans="1:8" ht="42" x14ac:dyDescent="0.15">
       <c r="A48" s="57"/>
@@ -3549,12 +3545,12 @@
       <c r="D48" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="E48" s="94" t="s">
-        <v>74</v>
-      </c>
-      <c r="F48" s="95"/>
-      <c r="G48" s="95"/>
-      <c r="H48" s="95"/>
+      <c r="E48" s="107" t="s">
+        <v>74</v>
+      </c>
+      <c r="F48" s="108"/>
+      <c r="G48" s="108"/>
+      <c r="H48" s="108"/>
     </row>
     <row r="49" spans="1:8" ht="14" x14ac:dyDescent="0.15">
       <c r="A49" s="57"/>
@@ -3567,12 +3563,12 @@
       <c r="D49" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="E49" s="94" t="s">
-        <v>74</v>
-      </c>
-      <c r="F49" s="95"/>
-      <c r="G49" s="95"/>
-      <c r="H49" s="95"/>
+      <c r="E49" s="107" t="s">
+        <v>74</v>
+      </c>
+      <c r="F49" s="108"/>
+      <c r="G49" s="108"/>
+      <c r="H49" s="108"/>
     </row>
     <row r="50" spans="1:8" ht="84" x14ac:dyDescent="0.15">
       <c r="A50" s="57"/>
@@ -3585,12 +3581,12 @@
       <c r="D50" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="E50" s="94" t="s">
-        <v>74</v>
-      </c>
-      <c r="F50" s="95"/>
-      <c r="G50" s="95"/>
-      <c r="H50" s="95"/>
+      <c r="E50" s="107" t="s">
+        <v>74</v>
+      </c>
+      <c r="F50" s="108"/>
+      <c r="G50" s="108"/>
+      <c r="H50" s="108"/>
     </row>
     <row r="51" spans="1:8" ht="28" x14ac:dyDescent="0.15">
       <c r="A51" s="57"/>
@@ -3603,12 +3599,12 @@
       <c r="D51" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="E51" s="140" t="s">
+      <c r="E51" s="118" t="s">
         <v>180</v>
       </c>
-      <c r="F51" s="95"/>
-      <c r="G51" s="95"/>
-      <c r="H51" s="95"/>
+      <c r="F51" s="108"/>
+      <c r="G51" s="108"/>
+      <c r="H51" s="108"/>
     </row>
     <row r="52" spans="1:8" ht="28" x14ac:dyDescent="0.15">
       <c r="A52" s="57"/>
@@ -3621,12 +3617,12 @@
       <c r="D52" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="E52" s="94" t="s">
-        <v>74</v>
-      </c>
-      <c r="F52" s="95"/>
-      <c r="G52" s="95"/>
-      <c r="H52" s="95"/>
+      <c r="E52" s="107" t="s">
+        <v>74</v>
+      </c>
+      <c r="F52" s="108"/>
+      <c r="G52" s="108"/>
+      <c r="H52" s="108"/>
     </row>
     <row r="53" spans="1:8" ht="28" x14ac:dyDescent="0.15">
       <c r="A53" s="57"/>
@@ -3639,12 +3635,12 @@
       <c r="D53" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="E53" s="94" t="s">
-        <v>74</v>
-      </c>
-      <c r="F53" s="95"/>
-      <c r="G53" s="95"/>
-      <c r="H53" s="95"/>
+      <c r="E53" s="107" t="s">
+        <v>74</v>
+      </c>
+      <c r="F53" s="108"/>
+      <c r="G53" s="108"/>
+      <c r="H53" s="108"/>
     </row>
     <row r="54" spans="1:8" ht="14" x14ac:dyDescent="0.15">
       <c r="A54" s="57"/>
@@ -3657,48 +3653,48 @@
       <c r="D54" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="E54" s="94"/>
-      <c r="F54" s="95"/>
-      <c r="G54" s="95"/>
-      <c r="H54" s="95"/>
+      <c r="E54" s="107"/>
+      <c r="F54" s="108"/>
+      <c r="G54" s="108"/>
+      <c r="H54" s="108"/>
     </row>
     <row r="55" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="57"/>
-      <c r="B55" s="96">
-        <v>10</v>
-      </c>
-      <c r="C55" s="94" t="s">
+      <c r="B55" s="109">
+        <v>10</v>
+      </c>
+      <c r="C55" s="107" t="s">
         <v>129</v>
       </c>
-      <c r="D55" s="96" t="s">
-        <v>10</v>
-      </c>
-      <c r="E55" s="147" t="s">
+      <c r="D55" s="109" t="s">
+        <v>10</v>
+      </c>
+      <c r="E55" s="110" t="s">
         <v>258</v>
       </c>
-      <c r="F55" s="98"/>
-      <c r="G55" s="98"/>
-      <c r="H55" s="98"/>
+      <c r="F55" s="111"/>
+      <c r="G55" s="111"/>
+      <c r="H55" s="111"/>
     </row>
     <row r="56" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="40"/>
-      <c r="B56" s="95"/>
-      <c r="C56" s="95"/>
-      <c r="D56" s="95"/>
-      <c r="E56" s="98"/>
-      <c r="F56" s="98"/>
-      <c r="G56" s="98"/>
-      <c r="H56" s="98"/>
+      <c r="B56" s="108"/>
+      <c r="C56" s="108"/>
+      <c r="D56" s="108"/>
+      <c r="E56" s="111"/>
+      <c r="F56" s="111"/>
+      <c r="G56" s="111"/>
+      <c r="H56" s="111"/>
     </row>
     <row r="57" spans="1:8" ht="67" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="40"/>
-      <c r="B57" s="95"/>
-      <c r="C57" s="95"/>
-      <c r="D57" s="95"/>
-      <c r="E57" s="98"/>
-      <c r="F57" s="98"/>
-      <c r="G57" s="98"/>
-      <c r="H57" s="98"/>
+      <c r="B57" s="108"/>
+      <c r="C57" s="108"/>
+      <c r="D57" s="108"/>
+      <c r="E57" s="111"/>
+      <c r="F57" s="111"/>
+      <c r="G57" s="111"/>
+      <c r="H57" s="111"/>
     </row>
     <row r="58" spans="1:8" ht="14" x14ac:dyDescent="0.15">
       <c r="A58" s="40"/>
@@ -3711,12 +3707,12 @@
       <c r="D58" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="E58" s="95" t="s">
-        <v>74</v>
-      </c>
-      <c r="F58" s="95"/>
-      <c r="G58" s="95"/>
-      <c r="H58" s="95"/>
+      <c r="E58" s="108" t="s">
+        <v>74</v>
+      </c>
+      <c r="F58" s="108"/>
+      <c r="G58" s="108"/>
+      <c r="H58" s="108"/>
     </row>
     <row r="59" spans="1:8" ht="28" x14ac:dyDescent="0.15">
       <c r="A59" s="40"/>
@@ -3729,40 +3725,40 @@
       <c r="D59" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="E59" s="95" t="s">
-        <v>74</v>
-      </c>
-      <c r="F59" s="95"/>
-      <c r="G59" s="95"/>
-      <c r="H59" s="95"/>
+      <c r="E59" s="108" t="s">
+        <v>74</v>
+      </c>
+      <c r="F59" s="108"/>
+      <c r="G59" s="108"/>
+      <c r="H59" s="108"/>
     </row>
     <row r="60" spans="1:8" ht="129" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="57"/>
-      <c r="B60" s="96">
+      <c r="B60" s="109">
         <v>13</v>
       </c>
-      <c r="C60" s="94" t="s">
+      <c r="C60" s="107" t="s">
         <v>139</v>
       </c>
-      <c r="D60" s="96" t="s">
-        <v>10</v>
-      </c>
-      <c r="E60" s="147" t="s">
+      <c r="D60" s="109" t="s">
+        <v>10</v>
+      </c>
+      <c r="E60" s="110" t="s">
         <v>259</v>
       </c>
-      <c r="F60" s="98"/>
-      <c r="G60" s="98"/>
-      <c r="H60" s="98"/>
+      <c r="F60" s="111"/>
+      <c r="G60" s="111"/>
+      <c r="H60" s="111"/>
     </row>
     <row r="61" spans="1:8" ht="133.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="57"/>
-      <c r="B61" s="95"/>
-      <c r="C61" s="95"/>
-      <c r="D61" s="95"/>
-      <c r="E61" s="98"/>
-      <c r="F61" s="98"/>
-      <c r="G61" s="98"/>
-      <c r="H61" s="98"/>
+      <c r="B61" s="108"/>
+      <c r="C61" s="108"/>
+      <c r="D61" s="108"/>
+      <c r="E61" s="111"/>
+      <c r="F61" s="111"/>
+      <c r="G61" s="111"/>
+      <c r="H61" s="111"/>
     </row>
     <row r="62" spans="1:8" ht="14" x14ac:dyDescent="0.15">
       <c r="A62" s="57"/>
@@ -3775,78 +3771,78 @@
       <c r="D62" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="E62" s="95" t="s">
-        <v>74</v>
-      </c>
-      <c r="F62" s="95"/>
-      <c r="G62" s="95"/>
-      <c r="H62" s="95"/>
+      <c r="E62" s="108" t="s">
+        <v>74</v>
+      </c>
+      <c r="F62" s="108"/>
+      <c r="G62" s="108"/>
+      <c r="H62" s="108"/>
     </row>
     <row r="63" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="52"/>
-      <c r="B63" s="126" t="s">
+      <c r="B63" s="152" t="s">
         <v>71</v>
       </c>
-      <c r="C63" s="101"/>
-      <c r="D63" s="101"/>
-      <c r="E63" s="101"/>
-      <c r="F63" s="101"/>
-      <c r="G63" s="101"/>
-      <c r="H63" s="101"/>
+      <c r="C63" s="115"/>
+      <c r="D63" s="115"/>
+      <c r="E63" s="115"/>
+      <c r="F63" s="115"/>
+      <c r="G63" s="115"/>
+      <c r="H63" s="115"/>
     </row>
     <row r="64" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="2"/>
-      <c r="B64" s="136" t="s">
+      <c r="B64" s="162" t="s">
         <v>76</v>
       </c>
-      <c r="C64" s="105"/>
-      <c r="D64" s="105"/>
-      <c r="E64" s="105"/>
-      <c r="F64" s="105"/>
-      <c r="G64" s="105"/>
-      <c r="H64" s="106"/>
+      <c r="C64" s="123"/>
+      <c r="D64" s="123"/>
+      <c r="E64" s="123"/>
+      <c r="F64" s="123"/>
+      <c r="G64" s="123"/>
+      <c r="H64" s="124"/>
     </row>
     <row r="65" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="2"/>
-      <c r="B65" s="107"/>
-      <c r="C65" s="101"/>
-      <c r="D65" s="101"/>
-      <c r="E65" s="101"/>
-      <c r="F65" s="101"/>
-      <c r="G65" s="101"/>
-      <c r="H65" s="108"/>
+      <c r="B65" s="125"/>
+      <c r="C65" s="115"/>
+      <c r="D65" s="115"/>
+      <c r="E65" s="115"/>
+      <c r="F65" s="115"/>
+      <c r="G65" s="115"/>
+      <c r="H65" s="126"/>
     </row>
     <row r="66" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="2"/>
-      <c r="B66" s="109"/>
-      <c r="C66" s="110"/>
-      <c r="D66" s="110"/>
-      <c r="E66" s="110"/>
-      <c r="F66" s="110"/>
-      <c r="G66" s="110"/>
-      <c r="H66" s="111"/>
+      <c r="B66" s="127"/>
+      <c r="C66" s="128"/>
+      <c r="D66" s="128"/>
+      <c r="E66" s="128"/>
+      <c r="F66" s="128"/>
+      <c r="G66" s="128"/>
+      <c r="H66" s="129"/>
     </row>
     <row r="67" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A67" s="2"/>
-      <c r="B67" s="137"/>
-      <c r="C67" s="131"/>
-      <c r="D67" s="131"/>
-      <c r="E67" s="131"/>
-      <c r="F67" s="131"/>
-      <c r="G67" s="131"/>
-      <c r="H67" s="131"/>
+      <c r="B67" s="163"/>
+      <c r="C67" s="157"/>
+      <c r="D67" s="157"/>
+      <c r="E67" s="157"/>
+      <c r="F67" s="157"/>
+      <c r="G67" s="157"/>
+      <c r="H67" s="157"/>
     </row>
     <row r="68" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="52"/>
-      <c r="B68" s="171" t="s">
+      <c r="B68" s="116" t="s">
         <v>77</v>
       </c>
-      <c r="C68" s="169"/>
-      <c r="D68" s="169"/>
-      <c r="E68" s="169"/>
-      <c r="F68" s="169"/>
-      <c r="G68" s="169"/>
-      <c r="H68" s="169"/>
+      <c r="C68" s="117"/>
+      <c r="D68" s="117"/>
+      <c r="E68" s="117"/>
+      <c r="F68" s="117"/>
+      <c r="G68" s="117"/>
+      <c r="H68" s="117"/>
     </row>
     <row r="69" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="52"/>
@@ -3859,12 +3855,12 @@
       <c r="D69" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="E69" s="100" t="s">
+      <c r="E69" s="114" t="s">
         <v>73</v>
       </c>
-      <c r="F69" s="101"/>
-      <c r="G69" s="101"/>
-      <c r="H69" s="101"/>
+      <c r="F69" s="115"/>
+      <c r="G69" s="115"/>
+      <c r="H69" s="115"/>
     </row>
     <row r="70" spans="1:8" ht="14" x14ac:dyDescent="0.15">
       <c r="A70" s="2"/>
@@ -3877,10 +3873,10 @@
       <c r="D70" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="E70" s="99"/>
-      <c r="F70" s="95"/>
-      <c r="G70" s="95"/>
-      <c r="H70" s="95"/>
+      <c r="E70" s="113"/>
+      <c r="F70" s="108"/>
+      <c r="G70" s="108"/>
+      <c r="H70" s="108"/>
     </row>
     <row r="71" spans="1:8" ht="14" x14ac:dyDescent="0.15">
       <c r="A71" s="2"/>
@@ -3893,12 +3889,12 @@
       <c r="D71" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="E71" s="99" t="s">
-        <v>74</v>
-      </c>
-      <c r="F71" s="95"/>
-      <c r="G71" s="95"/>
-      <c r="H71" s="95"/>
+      <c r="E71" s="113" t="s">
+        <v>74</v>
+      </c>
+      <c r="F71" s="108"/>
+      <c r="G71" s="108"/>
+      <c r="H71" s="108"/>
     </row>
     <row r="72" spans="1:8" ht="14" x14ac:dyDescent="0.15">
       <c r="A72" s="2"/>
@@ -3911,10 +3907,10 @@
       <c r="D72" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="E72" s="99"/>
-      <c r="F72" s="95"/>
-      <c r="G72" s="95"/>
-      <c r="H72" s="95"/>
+      <c r="E72" s="113"/>
+      <c r="F72" s="108"/>
+      <c r="G72" s="108"/>
+      <c r="H72" s="108"/>
     </row>
     <row r="73" spans="1:8" ht="63" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="2"/>
@@ -3927,12 +3923,12 @@
       <c r="D73" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="E73" s="97" t="s">
+      <c r="E73" s="112" t="s">
         <v>170</v>
       </c>
-      <c r="F73" s="98"/>
-      <c r="G73" s="98"/>
-      <c r="H73" s="98"/>
+      <c r="F73" s="111"/>
+      <c r="G73" s="111"/>
+      <c r="H73" s="111"/>
     </row>
     <row r="74" spans="1:8" ht="14" x14ac:dyDescent="0.15">
       <c r="A74" s="2"/>
@@ -3945,12 +3941,12 @@
       <c r="D74" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="E74" s="99" t="s">
-        <v>74</v>
-      </c>
-      <c r="F74" s="95"/>
-      <c r="G74" s="95"/>
-      <c r="H74" s="95"/>
+      <c r="E74" s="113" t="s">
+        <v>74</v>
+      </c>
+      <c r="F74" s="108"/>
+      <c r="G74" s="108"/>
+      <c r="H74" s="108"/>
     </row>
     <row r="75" spans="1:8" ht="14" x14ac:dyDescent="0.15">
       <c r="A75" s="2"/>
@@ -3963,10 +3959,10 @@
       <c r="D75" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="E75" s="99"/>
-      <c r="F75" s="95"/>
-      <c r="G75" s="95"/>
-      <c r="H75" s="95"/>
+      <c r="E75" s="113"/>
+      <c r="F75" s="108"/>
+      <c r="G75" s="108"/>
+      <c r="H75" s="108"/>
     </row>
     <row r="76" spans="1:8" ht="14" x14ac:dyDescent="0.15">
       <c r="A76" s="2"/>
@@ -3979,12 +3975,12 @@
       <c r="D76" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="E76" s="99" t="s">
-        <v>74</v>
-      </c>
-      <c r="F76" s="95"/>
-      <c r="G76" s="95"/>
-      <c r="H76" s="95"/>
+      <c r="E76" s="113" t="s">
+        <v>74</v>
+      </c>
+      <c r="F76" s="108"/>
+      <c r="G76" s="108"/>
+      <c r="H76" s="108"/>
     </row>
     <row r="77" spans="1:8" ht="14" x14ac:dyDescent="0.15">
       <c r="A77" s="2"/>
@@ -3997,10 +3993,10 @@
       <c r="D77" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="E77" s="99"/>
-      <c r="F77" s="95"/>
-      <c r="G77" s="95"/>
-      <c r="H77" s="95"/>
+      <c r="E77" s="113"/>
+      <c r="F77" s="108"/>
+      <c r="G77" s="108"/>
+      <c r="H77" s="108"/>
     </row>
     <row r="78" spans="1:8" ht="14" x14ac:dyDescent="0.15">
       <c r="A78" s="2"/>
@@ -4013,10 +4009,10 @@
       <c r="D78" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="E78" s="99"/>
-      <c r="F78" s="95"/>
-      <c r="G78" s="95"/>
-      <c r="H78" s="95"/>
+      <c r="E78" s="113"/>
+      <c r="F78" s="108"/>
+      <c r="G78" s="108"/>
+      <c r="H78" s="108"/>
     </row>
     <row r="79" spans="1:8" ht="28" x14ac:dyDescent="0.15">
       <c r="A79" s="2"/>
@@ -4029,12 +4025,12 @@
       <c r="D79" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="E79" s="99" t="s">
-        <v>74</v>
-      </c>
-      <c r="F79" s="95"/>
-      <c r="G79" s="95"/>
-      <c r="H79" s="95"/>
+      <c r="E79" s="113" t="s">
+        <v>74</v>
+      </c>
+      <c r="F79" s="108"/>
+      <c r="G79" s="108"/>
+      <c r="H79" s="108"/>
     </row>
     <row r="80" spans="1:8" ht="14" x14ac:dyDescent="0.15">
       <c r="A80" s="2"/>
@@ -4047,12 +4043,12 @@
       <c r="D80" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="E80" s="99" t="s">
-        <v>74</v>
-      </c>
-      <c r="F80" s="95"/>
-      <c r="G80" s="95"/>
-      <c r="H80" s="95"/>
+      <c r="E80" s="113" t="s">
+        <v>74</v>
+      </c>
+      <c r="F80" s="108"/>
+      <c r="G80" s="108"/>
+      <c r="H80" s="108"/>
     </row>
     <row r="81" spans="1:8" ht="14" x14ac:dyDescent="0.15">
       <c r="A81" s="2"/>
@@ -4065,12 +4061,12 @@
       <c r="D81" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="E81" s="99" t="s">
-        <v>74</v>
-      </c>
-      <c r="F81" s="95"/>
-      <c r="G81" s="95"/>
-      <c r="H81" s="95"/>
+      <c r="E81" s="113" t="s">
+        <v>74</v>
+      </c>
+      <c r="F81" s="108"/>
+      <c r="G81" s="108"/>
+      <c r="H81" s="108"/>
     </row>
     <row r="82" spans="1:8" ht="14" x14ac:dyDescent="0.15">
       <c r="A82" s="2"/>
@@ -4083,12 +4079,12 @@
       <c r="D82" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="E82" s="99" t="s">
-        <v>74</v>
-      </c>
-      <c r="F82" s="95"/>
-      <c r="G82" s="95"/>
-      <c r="H82" s="95"/>
+      <c r="E82" s="113" t="s">
+        <v>74</v>
+      </c>
+      <c r="F82" s="108"/>
+      <c r="G82" s="108"/>
+      <c r="H82" s="108"/>
     </row>
     <row r="83" spans="1:8" ht="104.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A83" s="2"/>
@@ -4101,12 +4097,12 @@
       <c r="D83" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="E83" s="97" t="s">
+      <c r="E83" s="112" t="s">
         <v>169</v>
       </c>
-      <c r="F83" s="98"/>
-      <c r="G83" s="98"/>
-      <c r="H83" s="98"/>
+      <c r="F83" s="111"/>
+      <c r="G83" s="111"/>
+      <c r="H83" s="111"/>
     </row>
     <row r="84" spans="1:8" ht="80" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A84" s="2"/>
@@ -4119,12 +4115,12 @@
       <c r="D84" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="E84" s="99" t="s">
-        <v>74</v>
-      </c>
-      <c r="F84" s="95"/>
-      <c r="G84" s="95"/>
-      <c r="H84" s="95"/>
+      <c r="E84" s="113" t="s">
+        <v>74</v>
+      </c>
+      <c r="F84" s="108"/>
+      <c r="G84" s="108"/>
+      <c r="H84" s="108"/>
     </row>
     <row r="85" spans="1:8" ht="28" x14ac:dyDescent="0.15">
       <c r="A85" s="2"/>
@@ -4137,12 +4133,12 @@
       <c r="D85" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="E85" s="99" t="s">
-        <v>74</v>
-      </c>
-      <c r="F85" s="95"/>
-      <c r="G85" s="95"/>
-      <c r="H85" s="95"/>
+      <c r="E85" s="113" t="s">
+        <v>74</v>
+      </c>
+      <c r="F85" s="108"/>
+      <c r="G85" s="108"/>
+      <c r="H85" s="108"/>
     </row>
     <row r="86" spans="1:8" ht="28" x14ac:dyDescent="0.15">
       <c r="A86" s="2"/>
@@ -4155,10 +4151,10 @@
       <c r="D86" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="E86" s="99"/>
-      <c r="F86" s="95"/>
-      <c r="G86" s="95"/>
-      <c r="H86" s="95"/>
+      <c r="E86" s="113"/>
+      <c r="F86" s="108"/>
+      <c r="G86" s="108"/>
+      <c r="H86" s="108"/>
     </row>
     <row r="87" spans="1:8" ht="28" x14ac:dyDescent="0.15">
       <c r="A87" s="2"/>
@@ -4171,40 +4167,40 @@
       <c r="D87" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="E87" s="99" t="s">
-        <v>74</v>
-      </c>
-      <c r="F87" s="95"/>
-      <c r="G87" s="95"/>
-      <c r="H87" s="95"/>
+      <c r="E87" s="113" t="s">
+        <v>74</v>
+      </c>
+      <c r="F87" s="108"/>
+      <c r="G87" s="108"/>
+      <c r="H87" s="108"/>
     </row>
     <row r="88" spans="1:8" ht="159" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A88" s="2"/>
-      <c r="B88" s="96">
+      <c r="B88" s="109">
         <v>19</v>
       </c>
-      <c r="C88" s="94" t="s">
+      <c r="C88" s="107" t="s">
         <v>153</v>
       </c>
-      <c r="D88" s="96" t="s">
-        <v>10</v>
-      </c>
-      <c r="E88" s="97" t="s">
+      <c r="D88" s="109" t="s">
+        <v>10</v>
+      </c>
+      <c r="E88" s="112" t="s">
         <v>171</v>
       </c>
-      <c r="F88" s="98"/>
-      <c r="G88" s="98"/>
-      <c r="H88" s="98"/>
+      <c r="F88" s="111"/>
+      <c r="G88" s="111"/>
+      <c r="H88" s="111"/>
     </row>
     <row r="89" spans="1:8" ht="159" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A89" s="2"/>
-      <c r="B89" s="95"/>
-      <c r="C89" s="95"/>
-      <c r="D89" s="95"/>
-      <c r="E89" s="98"/>
-      <c r="F89" s="98"/>
-      <c r="G89" s="98"/>
-      <c r="H89" s="98"/>
+      <c r="B89" s="108"/>
+      <c r="C89" s="108"/>
+      <c r="D89" s="108"/>
+      <c r="E89" s="111"/>
+      <c r="F89" s="111"/>
+      <c r="G89" s="111"/>
+      <c r="H89" s="111"/>
     </row>
     <row r="90" spans="1:8" ht="62" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A90" s="2"/>
@@ -4217,12 +4213,12 @@
       <c r="D90" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="E90" s="97" t="s">
+      <c r="E90" s="112" t="s">
         <v>172</v>
       </c>
-      <c r="F90" s="98"/>
-      <c r="G90" s="98"/>
-      <c r="H90" s="98"/>
+      <c r="F90" s="111"/>
+      <c r="G90" s="111"/>
+      <c r="H90" s="111"/>
     </row>
     <row r="91" spans="1:8" ht="14" x14ac:dyDescent="0.15">
       <c r="A91" s="2"/>
@@ -4235,12 +4231,12 @@
       <c r="D91" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="E91" s="99" t="s">
-        <v>74</v>
-      </c>
-      <c r="F91" s="95"/>
-      <c r="G91" s="95"/>
-      <c r="H91" s="95"/>
+      <c r="E91" s="113" t="s">
+        <v>74</v>
+      </c>
+      <c r="F91" s="108"/>
+      <c r="G91" s="108"/>
+      <c r="H91" s="108"/>
     </row>
     <row r="92" spans="1:8" ht="14" x14ac:dyDescent="0.15">
       <c r="A92" s="2"/>
@@ -4253,12 +4249,12 @@
       <c r="D92" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="E92" s="135" t="s">
-        <v>74</v>
-      </c>
-      <c r="F92" s="95"/>
-      <c r="G92" s="95"/>
-      <c r="H92" s="95"/>
+      <c r="E92" s="161" t="s">
+        <v>74</v>
+      </c>
+      <c r="F92" s="108"/>
+      <c r="G92" s="108"/>
+      <c r="H92" s="108"/>
     </row>
     <row r="93" spans="1:8" ht="14" x14ac:dyDescent="0.15">
       <c r="A93" s="2"/>
@@ -4271,12 +4267,12 @@
       <c r="D93" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="E93" s="99" t="s">
-        <v>74</v>
-      </c>
-      <c r="F93" s="95"/>
-      <c r="G93" s="95"/>
-      <c r="H93" s="95"/>
+      <c r="E93" s="113" t="s">
+        <v>74</v>
+      </c>
+      <c r="F93" s="108"/>
+      <c r="G93" s="108"/>
+      <c r="H93" s="108"/>
     </row>
     <row r="94" spans="1:8" ht="14" x14ac:dyDescent="0.15">
       <c r="A94" s="2"/>
@@ -4289,10 +4285,10 @@
       <c r="D94" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="E94" s="99"/>
-      <c r="F94" s="95"/>
-      <c r="G94" s="95"/>
-      <c r="H94" s="95"/>
+      <c r="E94" s="113"/>
+      <c r="F94" s="108"/>
+      <c r="G94" s="108"/>
+      <c r="H94" s="108"/>
     </row>
     <row r="95" spans="1:8" ht="14" x14ac:dyDescent="0.15">
       <c r="A95" s="2"/>
@@ -4305,12 +4301,12 @@
       <c r="D95" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="E95" s="99" t="s">
-        <v>74</v>
-      </c>
-      <c r="F95" s="95"/>
-      <c r="G95" s="95"/>
-      <c r="H95" s="95"/>
+      <c r="E95" s="113" t="s">
+        <v>74</v>
+      </c>
+      <c r="F95" s="108"/>
+      <c r="G95" s="108"/>
+      <c r="H95" s="108"/>
     </row>
     <row r="96" spans="1:8" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A96" s="2"/>
@@ -4323,12 +4319,12 @@
       <c r="D96" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="E96" s="135" t="s">
-        <v>74</v>
-      </c>
-      <c r="F96" s="95"/>
-      <c r="G96" s="95"/>
-      <c r="H96" s="95"/>
+      <c r="E96" s="161" t="s">
+        <v>74</v>
+      </c>
+      <c r="F96" s="108"/>
+      <c r="G96" s="108"/>
+      <c r="H96" s="108"/>
     </row>
     <row r="97" spans="1:8" ht="110" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A97" s="2"/>
@@ -4341,12 +4337,12 @@
       <c r="D97" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="E97" s="97" t="s">
+      <c r="E97" s="112" t="s">
         <v>173</v>
       </c>
-      <c r="F97" s="98"/>
-      <c r="G97" s="98"/>
-      <c r="H97" s="98"/>
+      <c r="F97" s="111"/>
+      <c r="G97" s="111"/>
+      <c r="H97" s="111"/>
     </row>
     <row r="98" spans="1:8" ht="14" x14ac:dyDescent="0.15">
       <c r="A98" s="2"/>
@@ -4359,12 +4355,12 @@
       <c r="D98" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="E98" s="99" t="s">
-        <v>74</v>
-      </c>
-      <c r="F98" s="95"/>
-      <c r="G98" s="95"/>
-      <c r="H98" s="95"/>
+      <c r="E98" s="113" t="s">
+        <v>74</v>
+      </c>
+      <c r="F98" s="108"/>
+      <c r="G98" s="108"/>
+      <c r="H98" s="108"/>
     </row>
     <row r="99" spans="1:8" ht="14" x14ac:dyDescent="0.15">
       <c r="A99" s="2"/>
@@ -4377,12 +4373,12 @@
       <c r="D99" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="E99" s="99" t="s">
-        <v>74</v>
-      </c>
-      <c r="F99" s="95"/>
-      <c r="G99" s="95"/>
-      <c r="H99" s="95"/>
+      <c r="E99" s="113" t="s">
+        <v>74</v>
+      </c>
+      <c r="F99" s="108"/>
+      <c r="G99" s="108"/>
+      <c r="H99" s="108"/>
     </row>
     <row r="100" spans="1:8" ht="14" x14ac:dyDescent="0.15">
       <c r="A100" s="2"/>
@@ -4395,10 +4391,10 @@
       <c r="D100" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="E100" s="95"/>
-      <c r="F100" s="95"/>
-      <c r="G100" s="95"/>
-      <c r="H100" s="95"/>
+      <c r="E100" s="108"/>
+      <c r="F100" s="108"/>
+      <c r="G100" s="108"/>
+      <c r="H100" s="108"/>
     </row>
     <row r="101" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A101" s="2"/>
@@ -4411,104 +4407,104 @@
       <c r="D101" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="E101" s="97" t="s">
+      <c r="E101" s="112" t="s">
         <v>174</v>
       </c>
-      <c r="F101" s="98"/>
-      <c r="G101" s="98"/>
-      <c r="H101" s="98"/>
+      <c r="F101" s="111"/>
+      <c r="G101" s="111"/>
+      <c r="H101" s="111"/>
     </row>
     <row r="102" spans="1:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A102" s="2"/>
-      <c r="B102" s="96">
+      <c r="B102" s="109">
         <v>32</v>
       </c>
-      <c r="C102" s="94" t="s">
+      <c r="C102" s="107" t="s">
         <v>141</v>
       </c>
-      <c r="D102" s="96" t="s">
-        <v>10</v>
-      </c>
-      <c r="E102" s="99"/>
-      <c r="F102" s="95"/>
-      <c r="G102" s="95"/>
-      <c r="H102" s="95"/>
+      <c r="D102" s="109" t="s">
+        <v>10</v>
+      </c>
+      <c r="E102" s="113"/>
+      <c r="F102" s="108"/>
+      <c r="G102" s="108"/>
+      <c r="H102" s="108"/>
     </row>
     <row r="103" spans="1:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A103" s="2"/>
-      <c r="B103" s="95"/>
-      <c r="C103" s="95"/>
-      <c r="D103" s="95"/>
-      <c r="E103" s="95"/>
-      <c r="F103" s="95"/>
-      <c r="G103" s="95"/>
-      <c r="H103" s="95"/>
+      <c r="B103" s="108"/>
+      <c r="C103" s="108"/>
+      <c r="D103" s="108"/>
+      <c r="E103" s="108"/>
+      <c r="F103" s="108"/>
+      <c r="G103" s="108"/>
+      <c r="H103" s="108"/>
     </row>
     <row r="104" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A104" s="52"/>
-      <c r="B104" s="126" t="s">
+      <c r="B104" s="152" t="s">
         <v>71</v>
       </c>
-      <c r="C104" s="101"/>
-      <c r="D104" s="101"/>
-      <c r="E104" s="101"/>
-      <c r="F104" s="101"/>
-      <c r="G104" s="101"/>
-      <c r="H104" s="101"/>
+      <c r="C104" s="115"/>
+      <c r="D104" s="115"/>
+      <c r="E104" s="115"/>
+      <c r="F104" s="115"/>
+      <c r="G104" s="115"/>
+      <c r="H104" s="115"/>
     </row>
     <row r="105" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A105" s="2"/>
-      <c r="B105" s="104" t="s">
+      <c r="B105" s="122" t="s">
         <v>81</v>
       </c>
-      <c r="C105" s="105"/>
-      <c r="D105" s="105"/>
-      <c r="E105" s="105"/>
-      <c r="F105" s="105"/>
-      <c r="G105" s="105"/>
-      <c r="H105" s="106"/>
+      <c r="C105" s="123"/>
+      <c r="D105" s="123"/>
+      <c r="E105" s="123"/>
+      <c r="F105" s="123"/>
+      <c r="G105" s="123"/>
+      <c r="H105" s="124"/>
     </row>
     <row r="106" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A106" s="2"/>
-      <c r="B106" s="107"/>
-      <c r="C106" s="101"/>
-      <c r="D106" s="101"/>
-      <c r="E106" s="101"/>
-      <c r="F106" s="101"/>
-      <c r="G106" s="101"/>
-      <c r="H106" s="108"/>
+      <c r="B106" s="125"/>
+      <c r="C106" s="115"/>
+      <c r="D106" s="115"/>
+      <c r="E106" s="115"/>
+      <c r="F106" s="115"/>
+      <c r="G106" s="115"/>
+      <c r="H106" s="126"/>
     </row>
     <row r="107" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A107" s="2"/>
-      <c r="B107" s="109"/>
-      <c r="C107" s="110"/>
-      <c r="D107" s="110"/>
-      <c r="E107" s="110"/>
-      <c r="F107" s="110"/>
-      <c r="G107" s="110"/>
-      <c r="H107" s="111"/>
+      <c r="B107" s="127"/>
+      <c r="C107" s="128"/>
+      <c r="D107" s="128"/>
+      <c r="E107" s="128"/>
+      <c r="F107" s="128"/>
+      <c r="G107" s="128"/>
+      <c r="H107" s="129"/>
     </row>
     <row r="108" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A108" s="2"/>
-      <c r="B108" s="134"/>
-      <c r="C108" s="131"/>
-      <c r="D108" s="131"/>
-      <c r="E108" s="131"/>
-      <c r="F108" s="131"/>
-      <c r="G108" s="131"/>
-      <c r="H108" s="131"/>
+      <c r="B108" s="160"/>
+      <c r="C108" s="157"/>
+      <c r="D108" s="157"/>
+      <c r="E108" s="157"/>
+      <c r="F108" s="157"/>
+      <c r="G108" s="157"/>
+      <c r="H108" s="157"/>
     </row>
     <row r="109" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A109" s="52"/>
-      <c r="B109" s="171" t="s">
+      <c r="B109" s="116" t="s">
         <v>82</v>
       </c>
-      <c r="C109" s="169"/>
-      <c r="D109" s="169"/>
-      <c r="E109" s="169"/>
-      <c r="F109" s="169"/>
-      <c r="G109" s="169"/>
-      <c r="H109" s="169"/>
+      <c r="C109" s="117"/>
+      <c r="D109" s="117"/>
+      <c r="E109" s="117"/>
+      <c r="F109" s="117"/>
+      <c r="G109" s="117"/>
+      <c r="H109" s="117"/>
     </row>
     <row r="110" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A110" s="52"/>
@@ -4521,12 +4517,12 @@
       <c r="D110" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="E110" s="100" t="s">
+      <c r="E110" s="114" t="s">
         <v>73</v>
       </c>
-      <c r="F110" s="101"/>
-      <c r="G110" s="101"/>
-      <c r="H110" s="101"/>
+      <c r="F110" s="115"/>
+      <c r="G110" s="115"/>
+      <c r="H110" s="115"/>
     </row>
     <row r="111" spans="1:8" ht="42" x14ac:dyDescent="0.15">
       <c r="A111" s="2"/>
@@ -4539,12 +4535,12 @@
       <c r="D111" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="E111" s="124" t="s">
-        <v>74</v>
-      </c>
-      <c r="F111" s="125"/>
-      <c r="G111" s="125"/>
-      <c r="H111" s="125"/>
+      <c r="E111" s="150" t="s">
+        <v>74</v>
+      </c>
+      <c r="F111" s="151"/>
+      <c r="G111" s="151"/>
+      <c r="H111" s="151"/>
     </row>
     <row r="112" spans="1:8" ht="42" x14ac:dyDescent="0.15">
       <c r="A112" s="2"/>
@@ -4557,12 +4553,12 @@
       <c r="D112" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="E112" s="124" t="s">
-        <v>74</v>
-      </c>
-      <c r="F112" s="125"/>
-      <c r="G112" s="125"/>
-      <c r="H112" s="125"/>
+      <c r="E112" s="150" t="s">
+        <v>74</v>
+      </c>
+      <c r="F112" s="151"/>
+      <c r="G112" s="151"/>
+      <c r="H112" s="151"/>
     </row>
     <row r="113" spans="1:8" ht="42" x14ac:dyDescent="0.15">
       <c r="A113" s="2"/>
@@ -4575,12 +4571,12 @@
       <c r="D113" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="E113" s="124" t="s">
-        <v>74</v>
-      </c>
-      <c r="F113" s="125"/>
-      <c r="G113" s="125"/>
-      <c r="H113" s="125"/>
+      <c r="E113" s="150" t="s">
+        <v>74</v>
+      </c>
+      <c r="F113" s="151"/>
+      <c r="G113" s="151"/>
+      <c r="H113" s="151"/>
     </row>
     <row r="114" spans="1:8" ht="56" x14ac:dyDescent="0.15">
       <c r="A114" s="2"/>
@@ -4593,12 +4589,12 @@
       <c r="D114" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="E114" s="124" t="s">
-        <v>74</v>
-      </c>
-      <c r="F114" s="125"/>
-      <c r="G114" s="125"/>
-      <c r="H114" s="125"/>
+      <c r="E114" s="150" t="s">
+        <v>74</v>
+      </c>
+      <c r="F114" s="151"/>
+      <c r="G114" s="151"/>
+      <c r="H114" s="151"/>
     </row>
     <row r="115" spans="1:8" ht="42" x14ac:dyDescent="0.15">
       <c r="A115" s="2"/>
@@ -4611,12 +4607,12 @@
       <c r="D115" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="E115" s="132" t="s">
-        <v>74</v>
-      </c>
-      <c r="F115" s="125"/>
-      <c r="G115" s="125"/>
-      <c r="H115" s="125"/>
+      <c r="E115" s="158" t="s">
+        <v>74</v>
+      </c>
+      <c r="F115" s="151"/>
+      <c r="G115" s="151"/>
+      <c r="H115" s="151"/>
     </row>
     <row r="116" spans="1:8" ht="56" x14ac:dyDescent="0.15">
       <c r="A116" s="2"/>
@@ -4629,76 +4625,76 @@
       <c r="D116" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="E116" s="124" t="s">
-        <v>74</v>
-      </c>
-      <c r="F116" s="125"/>
-      <c r="G116" s="125"/>
-      <c r="H116" s="125"/>
+      <c r="E116" s="150" t="s">
+        <v>74</v>
+      </c>
+      <c r="F116" s="151"/>
+      <c r="G116" s="151"/>
+      <c r="H116" s="151"/>
     </row>
     <row r="117" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A117" s="52"/>
-      <c r="B117" s="126" t="s">
+      <c r="B117" s="152" t="s">
         <v>71</v>
       </c>
-      <c r="C117" s="101"/>
-      <c r="D117" s="101"/>
-      <c r="E117" s="101"/>
-      <c r="F117" s="101"/>
-      <c r="G117" s="101"/>
-      <c r="H117" s="101"/>
+      <c r="C117" s="115"/>
+      <c r="D117" s="115"/>
+      <c r="E117" s="115"/>
+      <c r="F117" s="115"/>
+      <c r="G117" s="115"/>
+      <c r="H117" s="115"/>
     </row>
     <row r="118" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A118" s="2"/>
-      <c r="B118" s="133"/>
-      <c r="C118" s="105"/>
-      <c r="D118" s="105"/>
-      <c r="E118" s="105"/>
-      <c r="F118" s="105"/>
-      <c r="G118" s="105"/>
-      <c r="H118" s="106"/>
+      <c r="B118" s="159"/>
+      <c r="C118" s="123"/>
+      <c r="D118" s="123"/>
+      <c r="E118" s="123"/>
+      <c r="F118" s="123"/>
+      <c r="G118" s="123"/>
+      <c r="H118" s="124"/>
     </row>
     <row r="119" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A119" s="2"/>
-      <c r="B119" s="107"/>
-      <c r="C119" s="101"/>
-      <c r="D119" s="101"/>
-      <c r="E119" s="101"/>
-      <c r="F119" s="101"/>
-      <c r="G119" s="101"/>
-      <c r="H119" s="108"/>
+      <c r="B119" s="125"/>
+      <c r="C119" s="115"/>
+      <c r="D119" s="115"/>
+      <c r="E119" s="115"/>
+      <c r="F119" s="115"/>
+      <c r="G119" s="115"/>
+      <c r="H119" s="126"/>
     </row>
     <row r="120" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A120" s="2"/>
-      <c r="B120" s="109"/>
-      <c r="C120" s="110"/>
-      <c r="D120" s="110"/>
-      <c r="E120" s="110"/>
-      <c r="F120" s="110"/>
-      <c r="G120" s="110"/>
-      <c r="H120" s="111"/>
+      <c r="B120" s="127"/>
+      <c r="C120" s="128"/>
+      <c r="D120" s="128"/>
+      <c r="E120" s="128"/>
+      <c r="F120" s="128"/>
+      <c r="G120" s="128"/>
+      <c r="H120" s="129"/>
     </row>
     <row r="121" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A121" s="59"/>
-      <c r="B121" s="130"/>
-      <c r="C121" s="131"/>
-      <c r="D121" s="131"/>
-      <c r="E121" s="131"/>
-      <c r="F121" s="131"/>
-      <c r="G121" s="131"/>
-      <c r="H121" s="131"/>
+      <c r="B121" s="156"/>
+      <c r="C121" s="157"/>
+      <c r="D121" s="157"/>
+      <c r="E121" s="157"/>
+      <c r="F121" s="157"/>
+      <c r="G121" s="157"/>
+      <c r="H121" s="157"/>
     </row>
     <row r="122" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A122" s="52"/>
-      <c r="B122" s="171" t="s">
+      <c r="B122" s="116" t="s">
         <v>89</v>
       </c>
-      <c r="C122" s="169"/>
-      <c r="D122" s="169"/>
-      <c r="E122" s="169"/>
-      <c r="F122" s="169"/>
-      <c r="G122" s="169"/>
-      <c r="H122" s="169"/>
+      <c r="C122" s="117"/>
+      <c r="D122" s="117"/>
+      <c r="E122" s="117"/>
+      <c r="F122" s="117"/>
+      <c r="G122" s="117"/>
+      <c r="H122" s="117"/>
     </row>
     <row r="123" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A123" s="52"/>
@@ -4711,12 +4707,12 @@
       <c r="D123" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="E123" s="100" t="s">
+      <c r="E123" s="114" t="s">
         <v>73</v>
       </c>
-      <c r="F123" s="101"/>
-      <c r="G123" s="101"/>
-      <c r="H123" s="101"/>
+      <c r="F123" s="115"/>
+      <c r="G123" s="115"/>
+      <c r="H123" s="115"/>
     </row>
     <row r="124" spans="1:8" ht="42" x14ac:dyDescent="0.15">
       <c r="A124" s="57"/>
@@ -4729,12 +4725,12 @@
       <c r="D124" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="E124" s="129" t="s">
-        <v>74</v>
-      </c>
-      <c r="F124" s="125"/>
-      <c r="G124" s="125"/>
-      <c r="H124" s="125"/>
+      <c r="E124" s="155" t="s">
+        <v>74</v>
+      </c>
+      <c r="F124" s="151"/>
+      <c r="G124" s="151"/>
+      <c r="H124" s="151"/>
     </row>
     <row r="125" spans="1:8" ht="42" x14ac:dyDescent="0.15">
       <c r="A125" s="57"/>
@@ -4747,12 +4743,12 @@
       <c r="D125" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="E125" s="129" t="s">
-        <v>74</v>
-      </c>
-      <c r="F125" s="125"/>
-      <c r="G125" s="125"/>
-      <c r="H125" s="125"/>
+      <c r="E125" s="155" t="s">
+        <v>74</v>
+      </c>
+      <c r="F125" s="151"/>
+      <c r="G125" s="151"/>
+      <c r="H125" s="151"/>
     </row>
     <row r="126" spans="1:8" ht="56" x14ac:dyDescent="0.15">
       <c r="A126" s="57"/>
@@ -4765,12 +4761,12 @@
       <c r="D126" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="E126" s="129" t="s">
-        <v>74</v>
-      </c>
-      <c r="F126" s="125"/>
-      <c r="G126" s="125"/>
-      <c r="H126" s="125"/>
+      <c r="E126" s="155" t="s">
+        <v>74</v>
+      </c>
+      <c r="F126" s="151"/>
+      <c r="G126" s="151"/>
+      <c r="H126" s="151"/>
     </row>
     <row r="127" spans="1:8" ht="56" x14ac:dyDescent="0.15">
       <c r="A127" s="57"/>
@@ -4783,12 +4779,12 @@
       <c r="D127" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="E127" s="129" t="s">
-        <v>74</v>
-      </c>
-      <c r="F127" s="125"/>
-      <c r="G127" s="125"/>
-      <c r="H127" s="125"/>
+      <c r="E127" s="155" t="s">
+        <v>74</v>
+      </c>
+      <c r="F127" s="151"/>
+      <c r="G127" s="151"/>
+      <c r="H127" s="151"/>
     </row>
     <row r="128" spans="1:8" ht="70" x14ac:dyDescent="0.15">
       <c r="A128" s="2"/>
@@ -4801,12 +4797,12 @@
       <c r="D128" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="E128" s="129" t="s">
-        <v>74</v>
-      </c>
-      <c r="F128" s="125"/>
-      <c r="G128" s="125"/>
-      <c r="H128" s="125"/>
+      <c r="E128" s="155" t="s">
+        <v>74</v>
+      </c>
+      <c r="F128" s="151"/>
+      <c r="G128" s="151"/>
+      <c r="H128" s="151"/>
     </row>
     <row r="129" spans="1:8" ht="42" x14ac:dyDescent="0.15">
       <c r="A129" s="57"/>
@@ -4819,12 +4815,12 @@
       <c r="D129" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="E129" s="129" t="s">
-        <v>74</v>
-      </c>
-      <c r="F129" s="125"/>
-      <c r="G129" s="125"/>
-      <c r="H129" s="125"/>
+      <c r="E129" s="155" t="s">
+        <v>74</v>
+      </c>
+      <c r="F129" s="151"/>
+      <c r="G129" s="151"/>
+      <c r="H129" s="151"/>
     </row>
     <row r="130" spans="1:8" ht="56" x14ac:dyDescent="0.15">
       <c r="A130" s="57"/>
@@ -4837,12 +4833,12 @@
       <c r="D130" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="E130" s="129" t="s">
-        <v>74</v>
-      </c>
-      <c r="F130" s="125"/>
-      <c r="G130" s="125"/>
-      <c r="H130" s="125"/>
+      <c r="E130" s="155" t="s">
+        <v>74</v>
+      </c>
+      <c r="F130" s="151"/>
+      <c r="G130" s="151"/>
+      <c r="H130" s="151"/>
     </row>
     <row r="131" spans="1:8" ht="42" x14ac:dyDescent="0.15">
       <c r="A131" s="57"/>
@@ -4855,12 +4851,12 @@
       <c r="D131" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="E131" s="129" t="s">
-        <v>74</v>
-      </c>
-      <c r="F131" s="125"/>
-      <c r="G131" s="125"/>
-      <c r="H131" s="125"/>
+      <c r="E131" s="155" t="s">
+        <v>74</v>
+      </c>
+      <c r="F131" s="151"/>
+      <c r="G131" s="151"/>
+      <c r="H131" s="151"/>
     </row>
     <row r="132" spans="1:8" ht="56" x14ac:dyDescent="0.15">
       <c r="A132" s="57"/>
@@ -4873,12 +4869,12 @@
       <c r="D132" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="E132" s="129" t="s">
-        <v>74</v>
-      </c>
-      <c r="F132" s="125"/>
-      <c r="G132" s="125"/>
-      <c r="H132" s="125"/>
+      <c r="E132" s="155" t="s">
+        <v>74</v>
+      </c>
+      <c r="F132" s="151"/>
+      <c r="G132" s="151"/>
+      <c r="H132" s="151"/>
     </row>
     <row r="133" spans="1:8" ht="56" x14ac:dyDescent="0.15">
       <c r="A133" s="57"/>
@@ -4891,12 +4887,12 @@
       <c r="D133" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="E133" s="129" t="s">
-        <v>74</v>
-      </c>
-      <c r="F133" s="125"/>
-      <c r="G133" s="125"/>
-      <c r="H133" s="125"/>
+      <c r="E133" s="155" t="s">
+        <v>74</v>
+      </c>
+      <c r="F133" s="151"/>
+      <c r="G133" s="151"/>
+      <c r="H133" s="151"/>
     </row>
     <row r="134" spans="1:8" ht="56" x14ac:dyDescent="0.15">
       <c r="A134" s="57"/>
@@ -4909,12 +4905,12 @@
       <c r="D134" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="E134" s="129" t="s">
-        <v>74</v>
-      </c>
-      <c r="F134" s="125"/>
-      <c r="G134" s="125"/>
-      <c r="H134" s="125"/>
+      <c r="E134" s="155" t="s">
+        <v>74</v>
+      </c>
+      <c r="F134" s="151"/>
+      <c r="G134" s="151"/>
+      <c r="H134" s="151"/>
     </row>
     <row r="135" spans="1:8" ht="42" x14ac:dyDescent="0.15">
       <c r="A135" s="57"/>
@@ -4927,12 +4923,12 @@
       <c r="D135" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="E135" s="129" t="s">
-        <v>74</v>
-      </c>
-      <c r="F135" s="125"/>
-      <c r="G135" s="125"/>
-      <c r="H135" s="125"/>
+      <c r="E135" s="155" t="s">
+        <v>74</v>
+      </c>
+      <c r="F135" s="151"/>
+      <c r="G135" s="151"/>
+      <c r="H135" s="151"/>
     </row>
     <row r="136" spans="1:8" ht="157" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A136" s="57"/>
@@ -4945,78 +4941,78 @@
       <c r="D136" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="E136" s="129" t="s">
+      <c r="E136" s="155" t="s">
         <v>251</v>
       </c>
-      <c r="F136" s="125"/>
-      <c r="G136" s="125"/>
-      <c r="H136" s="125"/>
+      <c r="F136" s="151"/>
+      <c r="G136" s="151"/>
+      <c r="H136" s="151"/>
     </row>
     <row r="137" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A137" s="52"/>
-      <c r="B137" s="126" t="s">
+      <c r="B137" s="152" t="s">
         <v>71</v>
       </c>
-      <c r="C137" s="101"/>
-      <c r="D137" s="101"/>
-      <c r="E137" s="101"/>
-      <c r="F137" s="101"/>
-      <c r="G137" s="101"/>
-      <c r="H137" s="101"/>
+      <c r="C137" s="115"/>
+      <c r="D137" s="115"/>
+      <c r="E137" s="115"/>
+      <c r="F137" s="115"/>
+      <c r="G137" s="115"/>
+      <c r="H137" s="115"/>
     </row>
     <row r="138" spans="1:8" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A138" s="2"/>
-      <c r="B138" s="104" t="s">
+      <c r="B138" s="122" t="s">
         <v>103</v>
       </c>
-      <c r="C138" s="105"/>
-      <c r="D138" s="105"/>
-      <c r="E138" s="105"/>
-      <c r="F138" s="105"/>
-      <c r="G138" s="105"/>
-      <c r="H138" s="106"/>
+      <c r="C138" s="123"/>
+      <c r="D138" s="123"/>
+      <c r="E138" s="123"/>
+      <c r="F138" s="123"/>
+      <c r="G138" s="123"/>
+      <c r="H138" s="124"/>
     </row>
     <row r="139" spans="1:8" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A139" s="2"/>
-      <c r="B139" s="107"/>
-      <c r="C139" s="101"/>
-      <c r="D139" s="101"/>
-      <c r="E139" s="101"/>
-      <c r="F139" s="101"/>
-      <c r="G139" s="101"/>
-      <c r="H139" s="108"/>
+      <c r="B139" s="125"/>
+      <c r="C139" s="115"/>
+      <c r="D139" s="115"/>
+      <c r="E139" s="115"/>
+      <c r="F139" s="115"/>
+      <c r="G139" s="115"/>
+      <c r="H139" s="126"/>
     </row>
     <row r="140" spans="1:8" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A140" s="2"/>
-      <c r="B140" s="109"/>
-      <c r="C140" s="110"/>
-      <c r="D140" s="110"/>
-      <c r="E140" s="110"/>
-      <c r="F140" s="110"/>
-      <c r="G140" s="110"/>
-      <c r="H140" s="111"/>
+      <c r="B140" s="127"/>
+      <c r="C140" s="128"/>
+      <c r="D140" s="128"/>
+      <c r="E140" s="128"/>
+      <c r="F140" s="128"/>
+      <c r="G140" s="128"/>
+      <c r="H140" s="129"/>
     </row>
     <row r="141" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A141" s="2"/>
-      <c r="B141" s="102"/>
-      <c r="C141" s="103"/>
-      <c r="D141" s="103"/>
-      <c r="E141" s="103"/>
-      <c r="F141" s="103"/>
-      <c r="G141" s="103"/>
-      <c r="H141" s="103"/>
+      <c r="B141" s="119"/>
+      <c r="C141" s="120"/>
+      <c r="D141" s="120"/>
+      <c r="E141" s="120"/>
+      <c r="F141" s="120"/>
+      <c r="G141" s="120"/>
+      <c r="H141" s="120"/>
     </row>
     <row r="142" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A142" s="52"/>
-      <c r="B142" s="171" t="s">
+      <c r="B142" s="116" t="s">
         <v>104</v>
       </c>
-      <c r="C142" s="169"/>
-      <c r="D142" s="169"/>
-      <c r="E142" s="169"/>
-      <c r="F142" s="169"/>
-      <c r="G142" s="169"/>
-      <c r="H142" s="169"/>
+      <c r="C142" s="117"/>
+      <c r="D142" s="117"/>
+      <c r="E142" s="117"/>
+      <c r="F142" s="117"/>
+      <c r="G142" s="117"/>
+      <c r="H142" s="117"/>
     </row>
     <row r="143" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A143" s="52"/>
@@ -5029,12 +5025,12 @@
       <c r="D143" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="E143" s="100" t="s">
+      <c r="E143" s="114" t="s">
         <v>73</v>
       </c>
-      <c r="F143" s="101"/>
-      <c r="G143" s="101"/>
-      <c r="H143" s="101"/>
+      <c r="F143" s="115"/>
+      <c r="G143" s="115"/>
+      <c r="H143" s="115"/>
     </row>
     <row r="144" spans="1:8" ht="42" x14ac:dyDescent="0.15">
       <c r="A144" s="57"/>
@@ -5047,12 +5043,12 @@
       <c r="D144" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="E144" s="124" t="s">
-        <v>74</v>
-      </c>
-      <c r="F144" s="125"/>
-      <c r="G144" s="125"/>
-      <c r="H144" s="125"/>
+      <c r="E144" s="150" t="s">
+        <v>74</v>
+      </c>
+      <c r="F144" s="151"/>
+      <c r="G144" s="151"/>
+      <c r="H144" s="151"/>
     </row>
     <row r="145" spans="1:8" ht="42" x14ac:dyDescent="0.15">
       <c r="A145" s="57"/>
@@ -5065,12 +5061,12 @@
       <c r="D145" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="E145" s="124" t="s">
-        <v>74</v>
-      </c>
-      <c r="F145" s="125"/>
-      <c r="G145" s="125"/>
-      <c r="H145" s="125"/>
+      <c r="E145" s="150" t="s">
+        <v>74</v>
+      </c>
+      <c r="F145" s="151"/>
+      <c r="G145" s="151"/>
+      <c r="H145" s="151"/>
     </row>
     <row r="146" spans="1:8" ht="56" x14ac:dyDescent="0.15">
       <c r="A146" s="57"/>
@@ -5083,12 +5079,12 @@
       <c r="D146" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="E146" s="124" t="s">
-        <v>74</v>
-      </c>
-      <c r="F146" s="125"/>
-      <c r="G146" s="125"/>
-      <c r="H146" s="125"/>
+      <c r="E146" s="150" t="s">
+        <v>74</v>
+      </c>
+      <c r="F146" s="151"/>
+      <c r="G146" s="151"/>
+      <c r="H146" s="151"/>
     </row>
     <row r="147" spans="1:8" ht="56" x14ac:dyDescent="0.15">
       <c r="A147" s="57"/>
@@ -5101,12 +5097,12 @@
       <c r="D147" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="E147" s="124" t="s">
-        <v>74</v>
-      </c>
-      <c r="F147" s="125"/>
-      <c r="G147" s="125"/>
-      <c r="H147" s="125"/>
+      <c r="E147" s="150" t="s">
+        <v>74</v>
+      </c>
+      <c r="F147" s="151"/>
+      <c r="G147" s="151"/>
+      <c r="H147" s="151"/>
     </row>
     <row r="148" spans="1:8" ht="59" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A148" s="2"/>
@@ -5119,12 +5115,12 @@
       <c r="D148" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="E148" s="124" t="s">
+      <c r="E148" s="150" t="s">
         <v>252</v>
       </c>
-      <c r="F148" s="125"/>
-      <c r="G148" s="125"/>
-      <c r="H148" s="125"/>
+      <c r="F148" s="151"/>
+      <c r="G148" s="151"/>
+      <c r="H148" s="151"/>
     </row>
     <row r="149" spans="1:8" ht="70" x14ac:dyDescent="0.15">
       <c r="A149" s="2"/>
@@ -5137,68 +5133,68 @@
       <c r="D149" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="E149" s="124" t="s">
-        <v>74</v>
-      </c>
-      <c r="F149" s="125"/>
-      <c r="G149" s="125"/>
-      <c r="H149" s="125"/>
+      <c r="E149" s="150" t="s">
+        <v>74</v>
+      </c>
+      <c r="F149" s="151"/>
+      <c r="G149" s="151"/>
+      <c r="H149" s="151"/>
     </row>
     <row r="150" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A150" s="52"/>
-      <c r="B150" s="126" t="s">
+      <c r="B150" s="152" t="s">
         <v>71</v>
       </c>
-      <c r="C150" s="101"/>
-      <c r="D150" s="101"/>
-      <c r="E150" s="101"/>
-      <c r="F150" s="101"/>
-      <c r="G150" s="101"/>
-      <c r="H150" s="101"/>
+      <c r="C150" s="115"/>
+      <c r="D150" s="115"/>
+      <c r="E150" s="115"/>
+      <c r="F150" s="115"/>
+      <c r="G150" s="115"/>
+      <c r="H150" s="115"/>
     </row>
     <row r="151" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A151" s="2"/>
-      <c r="B151" s="127" t="s">
+      <c r="B151" s="153" t="s">
         <v>111</v>
       </c>
-      <c r="C151" s="105"/>
-      <c r="D151" s="105"/>
-      <c r="E151" s="105"/>
-      <c r="F151" s="105"/>
-      <c r="G151" s="105"/>
-      <c r="H151" s="106"/>
+      <c r="C151" s="123"/>
+      <c r="D151" s="123"/>
+      <c r="E151" s="123"/>
+      <c r="F151" s="123"/>
+      <c r="G151" s="123"/>
+      <c r="H151" s="124"/>
     </row>
     <row r="152" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A152" s="2"/>
-      <c r="B152" s="107"/>
-      <c r="C152" s="101"/>
-      <c r="D152" s="101"/>
-      <c r="E152" s="101"/>
-      <c r="F152" s="101"/>
-      <c r="G152" s="101"/>
-      <c r="H152" s="108"/>
+      <c r="B152" s="125"/>
+      <c r="C152" s="115"/>
+      <c r="D152" s="115"/>
+      <c r="E152" s="115"/>
+      <c r="F152" s="115"/>
+      <c r="G152" s="115"/>
+      <c r="H152" s="126"/>
     </row>
     <row r="153" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A153" s="2"/>
-      <c r="B153" s="109"/>
-      <c r="C153" s="110"/>
-      <c r="D153" s="110"/>
-      <c r="E153" s="110"/>
-      <c r="F153" s="110"/>
-      <c r="G153" s="110"/>
-      <c r="H153" s="111"/>
+      <c r="B153" s="127"/>
+      <c r="C153" s="128"/>
+      <c r="D153" s="128"/>
+      <c r="E153" s="128"/>
+      <c r="F153" s="128"/>
+      <c r="G153" s="128"/>
+      <c r="H153" s="129"/>
     </row>
     <row r="154" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A154" s="59"/>
-      <c r="B154" s="128" t="s">
+      <c r="B154" s="154" t="s">
         <v>112</v>
       </c>
-      <c r="C154" s="101"/>
-      <c r="D154" s="101"/>
-      <c r="E154" s="101"/>
-      <c r="F154" s="101"/>
-      <c r="G154" s="101"/>
-      <c r="H154" s="101"/>
+      <c r="C154" s="115"/>
+      <c r="D154" s="115"/>
+      <c r="E154" s="115"/>
+      <c r="F154" s="115"/>
+      <c r="G154" s="115"/>
+      <c r="H154" s="115"/>
     </row>
   </sheetData>
   <mergeCells count="129">
@@ -5369,249 +5365,249 @@
   <sheetData>
     <row r="1" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1"/>
-      <c r="B1" s="143" t="s">
+      <c r="B1" s="170" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="123"/>
-      <c r="D1" s="123"/>
-      <c r="E1" s="123"/>
-      <c r="F1" s="123"/>
-      <c r="G1" s="123"/>
-      <c r="H1" s="123"/>
+      <c r="C1" s="144"/>
+      <c r="D1" s="144"/>
+      <c r="E1" s="144"/>
+      <c r="F1" s="144"/>
+      <c r="G1" s="144"/>
+      <c r="H1" s="144"/>
     </row>
     <row r="2" spans="1:8" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1"/>
-      <c r="B2" s="188" t="s">
+      <c r="B2" s="171" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="174"/>
-      <c r="D2" s="174"/>
-      <c r="E2" s="174"/>
-      <c r="F2" s="174"/>
-      <c r="G2" s="174"/>
-      <c r="H2" s="175" t="s">
+      <c r="C2" s="146"/>
+      <c r="D2" s="146"/>
+      <c r="E2" s="146"/>
+      <c r="F2" s="146"/>
+      <c r="G2" s="146"/>
+      <c r="H2" s="95" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1"/>
-      <c r="B3" s="189" t="s">
+      <c r="B3" s="168" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="177"/>
-      <c r="D3" s="178" t="s">
+      <c r="C3" s="117"/>
+      <c r="D3" s="147" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="179"/>
-      <c r="F3" s="179"/>
-      <c r="G3" s="179"/>
-      <c r="H3" s="108"/>
+      <c r="E3" s="115"/>
+      <c r="F3" s="115"/>
+      <c r="G3" s="115"/>
+      <c r="H3" s="126"/>
     </row>
     <row r="4" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1"/>
-      <c r="B4" s="189" t="s">
+      <c r="B4" s="168" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="177"/>
-      <c r="D4" s="182" t="s">
+      <c r="C4" s="117"/>
+      <c r="D4" s="148" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="179"/>
-      <c r="F4" s="179"/>
-      <c r="G4" s="190" t="s">
+      <c r="E4" s="115"/>
+      <c r="F4" s="115"/>
+      <c r="G4" s="100" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="191" t="s">
+      <c r="H4" s="101" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1"/>
-      <c r="B5" s="189" t="s">
+      <c r="B5" s="168" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="177"/>
-      <c r="D5" s="182" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="179"/>
-      <c r="F5" s="179"/>
-      <c r="G5" s="190" t="s">
+      <c r="C5" s="117"/>
+      <c r="D5" s="148" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="115"/>
+      <c r="F5" s="115"/>
+      <c r="G5" s="100" t="s">
         <v>11</v>
       </c>
-      <c r="H5" s="191" t="s">
+      <c r="H5" s="101" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1"/>
-      <c r="B6" s="189" t="s">
+      <c r="B6" s="168" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="177"/>
-      <c r="D6" s="182" t="s">
+      <c r="C6" s="117"/>
+      <c r="D6" s="148" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="179"/>
-      <c r="F6" s="179"/>
-      <c r="G6" s="179"/>
-      <c r="H6" s="108"/>
+      <c r="E6" s="115"/>
+      <c r="F6" s="115"/>
+      <c r="G6" s="115"/>
+      <c r="H6" s="126"/>
     </row>
     <row r="7" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1"/>
-      <c r="B7" s="192" t="s">
+      <c r="B7" s="169" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="184"/>
-      <c r="D7" s="193" t="s">
+      <c r="C7" s="142"/>
+      <c r="D7" s="172" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="110"/>
-      <c r="F7" s="110"/>
-      <c r="G7" s="194" t="s">
+      <c r="E7" s="128"/>
+      <c r="F7" s="128"/>
+      <c r="G7" s="102" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="195" t="s">
+      <c r="H7" s="103" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="40"/>
-      <c r="B8" s="141"/>
-      <c r="C8" s="131"/>
-      <c r="D8" s="131"/>
-      <c r="E8" s="131"/>
-      <c r="F8" s="131"/>
-      <c r="G8" s="131"/>
-      <c r="H8" s="131"/>
+      <c r="B8" s="166"/>
+      <c r="C8" s="157"/>
+      <c r="D8" s="157"/>
+      <c r="E8" s="157"/>
+      <c r="F8" s="157"/>
+      <c r="G8" s="157"/>
+      <c r="H8" s="157"/>
     </row>
     <row r="9" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="52"/>
-      <c r="B9" s="171" t="s">
+      <c r="B9" s="116" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="169"/>
-      <c r="D9" s="169"/>
-      <c r="E9" s="169"/>
-      <c r="F9" s="169"/>
-      <c r="G9" s="169"/>
-      <c r="H9" s="169"/>
+      <c r="C9" s="117"/>
+      <c r="D9" s="117"/>
+      <c r="E9" s="117"/>
+      <c r="F9" s="117"/>
+      <c r="G9" s="117"/>
+      <c r="H9" s="117"/>
     </row>
     <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="2"/>
-      <c r="B10" s="104"/>
-      <c r="C10" s="105"/>
-      <c r="D10" s="105"/>
-      <c r="E10" s="105"/>
-      <c r="F10" s="105"/>
-      <c r="G10" s="105"/>
-      <c r="H10" s="106"/>
+      <c r="B10" s="122"/>
+      <c r="C10" s="123"/>
+      <c r="D10" s="123"/>
+      <c r="E10" s="123"/>
+      <c r="F10" s="123"/>
+      <c r="G10" s="123"/>
+      <c r="H10" s="124"/>
     </row>
     <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="2"/>
-      <c r="B11" s="107"/>
-      <c r="C11" s="101"/>
-      <c r="D11" s="101"/>
-      <c r="E11" s="101"/>
-      <c r="F11" s="101"/>
-      <c r="G11" s="101"/>
-      <c r="H11" s="108"/>
+      <c r="B11" s="125"/>
+      <c r="C11" s="115"/>
+      <c r="D11" s="115"/>
+      <c r="E11" s="115"/>
+      <c r="F11" s="115"/>
+      <c r="G11" s="115"/>
+      <c r="H11" s="126"/>
     </row>
     <row r="12" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="2"/>
-      <c r="B12" s="107"/>
-      <c r="C12" s="101"/>
-      <c r="D12" s="101"/>
-      <c r="E12" s="101"/>
-      <c r="F12" s="101"/>
-      <c r="G12" s="101"/>
-      <c r="H12" s="108"/>
+      <c r="B12" s="125"/>
+      <c r="C12" s="115"/>
+      <c r="D12" s="115"/>
+      <c r="E12" s="115"/>
+      <c r="F12" s="115"/>
+      <c r="G12" s="115"/>
+      <c r="H12" s="126"/>
     </row>
     <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="2"/>
-      <c r="B13" s="107"/>
-      <c r="C13" s="101"/>
-      <c r="D13" s="101"/>
-      <c r="E13" s="101"/>
-      <c r="F13" s="101"/>
-      <c r="G13" s="101"/>
-      <c r="H13" s="108"/>
+      <c r="B13" s="125"/>
+      <c r="C13" s="115"/>
+      <c r="D13" s="115"/>
+      <c r="E13" s="115"/>
+      <c r="F13" s="115"/>
+      <c r="G13" s="115"/>
+      <c r="H13" s="126"/>
     </row>
     <row r="14" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="2"/>
-      <c r="B14" s="107"/>
-      <c r="C14" s="101"/>
-      <c r="D14" s="101"/>
-      <c r="E14" s="101"/>
-      <c r="F14" s="101"/>
-      <c r="G14" s="101"/>
-      <c r="H14" s="108"/>
+      <c r="B14" s="125"/>
+      <c r="C14" s="115"/>
+      <c r="D14" s="115"/>
+      <c r="E14" s="115"/>
+      <c r="F14" s="115"/>
+      <c r="G14" s="115"/>
+      <c r="H14" s="126"/>
     </row>
     <row r="15" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="2"/>
-      <c r="B15" s="107"/>
-      <c r="C15" s="101"/>
-      <c r="D15" s="101"/>
-      <c r="E15" s="101"/>
-      <c r="F15" s="101"/>
-      <c r="G15" s="101"/>
-      <c r="H15" s="108"/>
+      <c r="B15" s="125"/>
+      <c r="C15" s="115"/>
+      <c r="D15" s="115"/>
+      <c r="E15" s="115"/>
+      <c r="F15" s="115"/>
+      <c r="G15" s="115"/>
+      <c r="H15" s="126"/>
     </row>
     <row r="16" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="2"/>
-      <c r="B16" s="107"/>
-      <c r="C16" s="101"/>
-      <c r="D16" s="101"/>
-      <c r="E16" s="101"/>
-      <c r="F16" s="101"/>
-      <c r="G16" s="101"/>
-      <c r="H16" s="108"/>
+      <c r="B16" s="125"/>
+      <c r="C16" s="115"/>
+      <c r="D16" s="115"/>
+      <c r="E16" s="115"/>
+      <c r="F16" s="115"/>
+      <c r="G16" s="115"/>
+      <c r="H16" s="126"/>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="2"/>
-      <c r="B17" s="109"/>
-      <c r="C17" s="110"/>
-      <c r="D17" s="110"/>
-      <c r="E17" s="110"/>
-      <c r="F17" s="110"/>
-      <c r="G17" s="110"/>
-      <c r="H17" s="111"/>
+      <c r="B17" s="127"/>
+      <c r="C17" s="128"/>
+      <c r="D17" s="128"/>
+      <c r="E17" s="128"/>
+      <c r="F17" s="128"/>
+      <c r="G17" s="128"/>
+      <c r="H17" s="129"/>
     </row>
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="40"/>
-      <c r="B18" s="102"/>
-      <c r="C18" s="103"/>
-      <c r="D18" s="103"/>
-      <c r="E18" s="103"/>
-      <c r="F18" s="103"/>
-      <c r="G18" s="103"/>
-      <c r="H18" s="103"/>
+      <c r="B18" s="119"/>
+      <c r="C18" s="120"/>
+      <c r="D18" s="120"/>
+      <c r="E18" s="120"/>
+      <c r="F18" s="120"/>
+      <c r="G18" s="120"/>
+      <c r="H18" s="120"/>
     </row>
     <row r="19" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="52"/>
       <c r="B19" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="142" t="s">
+      <c r="C19" s="167" t="s">
         <v>20</v>
       </c>
-      <c r="D19" s="101"/>
-      <c r="E19" s="101"/>
-      <c r="F19" s="101"/>
-      <c r="G19" s="101"/>
-      <c r="H19" s="101"/>
+      <c r="D19" s="115"/>
+      <c r="E19" s="115"/>
+      <c r="F19" s="115"/>
+      <c r="G19" s="115"/>
+      <c r="H19" s="115"/>
     </row>
     <row r="20" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="52"/>
-      <c r="B20" s="171" t="s">
+      <c r="B20" s="116" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="169"/>
-      <c r="D20" s="169"/>
-      <c r="E20" s="169"/>
-      <c r="F20" s="169"/>
-      <c r="G20" s="169"/>
-      <c r="H20" s="169"/>
+      <c r="C20" s="117"/>
+      <c r="D20" s="117"/>
+      <c r="E20" s="117"/>
+      <c r="F20" s="117"/>
+      <c r="G20" s="117"/>
+      <c r="H20" s="117"/>
     </row>
     <row r="21" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="52"/>
@@ -6005,68 +6001,68 @@
     </row>
     <row r="39" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="52"/>
-      <c r="B39" s="126" t="s">
+      <c r="B39" s="152" t="s">
         <v>71</v>
       </c>
-      <c r="C39" s="101"/>
-      <c r="D39" s="101"/>
-      <c r="E39" s="101"/>
-      <c r="F39" s="101"/>
-      <c r="G39" s="101"/>
-      <c r="H39" s="101"/>
+      <c r="C39" s="115"/>
+      <c r="D39" s="115"/>
+      <c r="E39" s="115"/>
+      <c r="F39" s="115"/>
+      <c r="G39" s="115"/>
+      <c r="H39" s="115"/>
     </row>
     <row r="40" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="40"/>
-      <c r="B40" s="114" t="s">
+      <c r="B40" s="132" t="s">
         <v>253</v>
       </c>
-      <c r="C40" s="115"/>
-      <c r="D40" s="115"/>
-      <c r="E40" s="115"/>
-      <c r="F40" s="115"/>
-      <c r="G40" s="115"/>
-      <c r="H40" s="116"/>
+      <c r="C40" s="133"/>
+      <c r="D40" s="133"/>
+      <c r="E40" s="133"/>
+      <c r="F40" s="133"/>
+      <c r="G40" s="133"/>
+      <c r="H40" s="134"/>
     </row>
     <row r="41" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="40"/>
-      <c r="B41" s="117"/>
-      <c r="C41" s="103"/>
-      <c r="D41" s="103"/>
-      <c r="E41" s="103"/>
-      <c r="F41" s="103"/>
-      <c r="G41" s="103"/>
-      <c r="H41" s="118"/>
+      <c r="B41" s="135"/>
+      <c r="C41" s="120"/>
+      <c r="D41" s="120"/>
+      <c r="E41" s="120"/>
+      <c r="F41" s="120"/>
+      <c r="G41" s="120"/>
+      <c r="H41" s="136"/>
     </row>
     <row r="42" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="40"/>
-      <c r="B42" s="119"/>
-      <c r="C42" s="120"/>
-      <c r="D42" s="120"/>
-      <c r="E42" s="120"/>
-      <c r="F42" s="120"/>
-      <c r="G42" s="120"/>
-      <c r="H42" s="121"/>
+      <c r="B42" s="137"/>
+      <c r="C42" s="138"/>
+      <c r="D42" s="138"/>
+      <c r="E42" s="138"/>
+      <c r="F42" s="138"/>
+      <c r="G42" s="138"/>
+      <c r="H42" s="139"/>
     </row>
     <row r="43" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B43" s="137"/>
-      <c r="C43" s="131"/>
-      <c r="D43" s="131"/>
-      <c r="E43" s="131"/>
-      <c r="F43" s="131"/>
-      <c r="G43" s="131"/>
-      <c r="H43" s="131"/>
+      <c r="B43" s="163"/>
+      <c r="C43" s="157"/>
+      <c r="D43" s="157"/>
+      <c r="E43" s="157"/>
+      <c r="F43" s="157"/>
+      <c r="G43" s="157"/>
+      <c r="H43" s="157"/>
     </row>
     <row r="44" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="52"/>
-      <c r="B44" s="171" t="s">
+      <c r="B44" s="116" t="s">
         <v>72</v>
       </c>
-      <c r="C44" s="169"/>
-      <c r="D44" s="169"/>
-      <c r="E44" s="169"/>
-      <c r="F44" s="169"/>
-      <c r="G44" s="169"/>
-      <c r="H44" s="169"/>
+      <c r="C44" s="117"/>
+      <c r="D44" s="117"/>
+      <c r="E44" s="117"/>
+      <c r="F44" s="117"/>
+      <c r="G44" s="117"/>
+      <c r="H44" s="117"/>
     </row>
     <row r="45" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="52"/>
@@ -6079,12 +6075,12 @@
       <c r="D45" s="60" t="s">
         <v>24</v>
       </c>
-      <c r="E45" s="138" t="s">
+      <c r="E45" s="164" t="s">
         <v>73</v>
       </c>
-      <c r="F45" s="139"/>
-      <c r="G45" s="139"/>
-      <c r="H45" s="139"/>
+      <c r="F45" s="165"/>
+      <c r="G45" s="165"/>
+      <c r="H45" s="165"/>
     </row>
     <row r="46" spans="1:8" ht="14" x14ac:dyDescent="0.15">
       <c r="A46" s="40"/>
@@ -6097,12 +6093,12 @@
       <c r="D46" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="E46" s="94" t="s">
-        <v>74</v>
-      </c>
-      <c r="F46" s="95"/>
-      <c r="G46" s="95"/>
-      <c r="H46" s="95"/>
+      <c r="E46" s="107" t="s">
+        <v>74</v>
+      </c>
+      <c r="F46" s="108"/>
+      <c r="G46" s="108"/>
+      <c r="H46" s="108"/>
     </row>
     <row r="47" spans="1:8" ht="14" x14ac:dyDescent="0.15">
       <c r="A47" s="40"/>
@@ -6115,12 +6111,12 @@
       <c r="D47" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="E47" s="94" t="s">
-        <v>74</v>
-      </c>
-      <c r="F47" s="95"/>
-      <c r="G47" s="95"/>
-      <c r="H47" s="95"/>
+      <c r="E47" s="107" t="s">
+        <v>74</v>
+      </c>
+      <c r="F47" s="108"/>
+      <c r="G47" s="108"/>
+      <c r="H47" s="108"/>
     </row>
     <row r="48" spans="1:8" ht="42" x14ac:dyDescent="0.15">
       <c r="A48" s="40"/>
@@ -6133,12 +6129,12 @@
       <c r="D48" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="E48" s="94" t="s">
-        <v>74</v>
-      </c>
-      <c r="F48" s="95"/>
-      <c r="G48" s="95"/>
-      <c r="H48" s="95"/>
+      <c r="E48" s="107" t="s">
+        <v>74</v>
+      </c>
+      <c r="F48" s="108"/>
+      <c r="G48" s="108"/>
+      <c r="H48" s="108"/>
     </row>
     <row r="49" spans="1:8" ht="14" x14ac:dyDescent="0.15">
       <c r="A49" s="40"/>
@@ -6151,12 +6147,12 @@
       <c r="D49" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="E49" s="94" t="s">
-        <v>74</v>
-      </c>
-      <c r="F49" s="95"/>
-      <c r="G49" s="95"/>
-      <c r="H49" s="95"/>
+      <c r="E49" s="107" t="s">
+        <v>74</v>
+      </c>
+      <c r="F49" s="108"/>
+      <c r="G49" s="108"/>
+      <c r="H49" s="108"/>
     </row>
     <row r="50" spans="1:8" ht="84" x14ac:dyDescent="0.15">
       <c r="A50" s="40"/>
@@ -6169,12 +6165,12 @@
       <c r="D50" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="E50" s="94" t="s">
-        <v>74</v>
-      </c>
-      <c r="F50" s="95"/>
-      <c r="G50" s="95"/>
-      <c r="H50" s="95"/>
+      <c r="E50" s="107" t="s">
+        <v>74</v>
+      </c>
+      <c r="F50" s="108"/>
+      <c r="G50" s="108"/>
+      <c r="H50" s="108"/>
     </row>
     <row r="51" spans="1:8" ht="52" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="40"/>
@@ -6187,12 +6183,12 @@
       <c r="D51" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="E51" s="140" t="s">
+      <c r="E51" s="118" t="s">
         <v>180</v>
       </c>
-      <c r="F51" s="95"/>
-      <c r="G51" s="95"/>
-      <c r="H51" s="95"/>
+      <c r="F51" s="108"/>
+      <c r="G51" s="108"/>
+      <c r="H51" s="108"/>
     </row>
     <row r="52" spans="1:8" ht="28" x14ac:dyDescent="0.15">
       <c r="A52" s="40"/>
@@ -6205,12 +6201,12 @@
       <c r="D52" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="E52" s="94" t="s">
-        <v>74</v>
-      </c>
-      <c r="F52" s="95"/>
-      <c r="G52" s="95"/>
-      <c r="H52" s="95"/>
+      <c r="E52" s="107" t="s">
+        <v>74</v>
+      </c>
+      <c r="F52" s="108"/>
+      <c r="G52" s="108"/>
+      <c r="H52" s="108"/>
     </row>
     <row r="53" spans="1:8" ht="28" x14ac:dyDescent="0.15">
       <c r="A53" s="40"/>
@@ -6223,12 +6219,12 @@
       <c r="D53" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="E53" s="94" t="s">
-        <v>74</v>
-      </c>
-      <c r="F53" s="95"/>
-      <c r="G53" s="95"/>
-      <c r="H53" s="95"/>
+      <c r="E53" s="107" t="s">
+        <v>74</v>
+      </c>
+      <c r="F53" s="108"/>
+      <c r="G53" s="108"/>
+      <c r="H53" s="108"/>
     </row>
     <row r="54" spans="1:8" ht="14" x14ac:dyDescent="0.15">
       <c r="A54" s="40"/>
@@ -6241,48 +6237,48 @@
       <c r="D54" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="E54" s="94"/>
-      <c r="F54" s="95"/>
-      <c r="G54" s="95"/>
-      <c r="H54" s="95"/>
+      <c r="E54" s="107"/>
+      <c r="F54" s="108"/>
+      <c r="G54" s="108"/>
+      <c r="H54" s="108"/>
     </row>
     <row r="55" spans="1:8" ht="72.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="40"/>
-      <c r="B55" s="96">
-        <v>10</v>
-      </c>
-      <c r="C55" s="94" t="s">
+      <c r="B55" s="109">
+        <v>10</v>
+      </c>
+      <c r="C55" s="107" t="s">
         <v>129</v>
       </c>
-      <c r="D55" s="96" t="s">
-        <v>10</v>
-      </c>
-      <c r="E55" s="147" t="s">
+      <c r="D55" s="109" t="s">
+        <v>10</v>
+      </c>
+      <c r="E55" s="110" t="s">
         <v>258</v>
       </c>
-      <c r="F55" s="98"/>
-      <c r="G55" s="98"/>
-      <c r="H55" s="98"/>
+      <c r="F55" s="111"/>
+      <c r="G55" s="111"/>
+      <c r="H55" s="111"/>
     </row>
     <row r="56" spans="1:8" ht="72.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="40"/>
-      <c r="B56" s="95"/>
-      <c r="C56" s="95"/>
-      <c r="D56" s="95"/>
-      <c r="E56" s="98"/>
-      <c r="F56" s="98"/>
-      <c r="G56" s="98"/>
-      <c r="H56" s="98"/>
+      <c r="B56" s="108"/>
+      <c r="C56" s="108"/>
+      <c r="D56" s="108"/>
+      <c r="E56" s="111"/>
+      <c r="F56" s="111"/>
+      <c r="G56" s="111"/>
+      <c r="H56" s="111"/>
     </row>
     <row r="57" spans="1:8" ht="75.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="40"/>
-      <c r="B57" s="95"/>
-      <c r="C57" s="95"/>
-      <c r="D57" s="95"/>
-      <c r="E57" s="98"/>
-      <c r="F57" s="98"/>
-      <c r="G57" s="98"/>
-      <c r="H57" s="98"/>
+      <c r="B57" s="108"/>
+      <c r="C57" s="108"/>
+      <c r="D57" s="108"/>
+      <c r="E57" s="111"/>
+      <c r="F57" s="111"/>
+      <c r="G57" s="111"/>
+      <c r="H57" s="111"/>
     </row>
     <row r="58" spans="1:8" ht="14" x14ac:dyDescent="0.15">
       <c r="A58" s="40"/>
@@ -6295,12 +6291,12 @@
       <c r="D58" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="E58" s="95" t="s">
-        <v>74</v>
-      </c>
-      <c r="F58" s="95"/>
-      <c r="G58" s="95"/>
-      <c r="H58" s="95"/>
+      <c r="E58" s="108" t="s">
+        <v>74</v>
+      </c>
+      <c r="F58" s="108"/>
+      <c r="G58" s="108"/>
+      <c r="H58" s="108"/>
     </row>
     <row r="59" spans="1:8" ht="28" x14ac:dyDescent="0.15">
       <c r="A59" s="40"/>
@@ -6313,40 +6309,40 @@
       <c r="D59" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="E59" s="95" t="s">
-        <v>74</v>
-      </c>
-      <c r="F59" s="95"/>
-      <c r="G59" s="95"/>
-      <c r="H59" s="95"/>
+      <c r="E59" s="108" t="s">
+        <v>74</v>
+      </c>
+      <c r="F59" s="108"/>
+      <c r="G59" s="108"/>
+      <c r="H59" s="108"/>
     </row>
     <row r="60" spans="1:8" ht="124.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="40"/>
-      <c r="B60" s="96">
+      <c r="B60" s="109">
         <v>13</v>
       </c>
-      <c r="C60" s="94" t="s">
+      <c r="C60" s="107" t="s">
         <v>176</v>
       </c>
-      <c r="D60" s="96" t="s">
-        <v>10</v>
-      </c>
-      <c r="E60" s="147" t="s">
+      <c r="D60" s="109" t="s">
+        <v>10</v>
+      </c>
+      <c r="E60" s="110" t="s">
         <v>259</v>
       </c>
-      <c r="F60" s="98"/>
-      <c r="G60" s="98"/>
-      <c r="H60" s="98"/>
+      <c r="F60" s="111"/>
+      <c r="G60" s="111"/>
+      <c r="H60" s="111"/>
     </row>
     <row r="61" spans="1:8" ht="138" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="40"/>
-      <c r="B61" s="95"/>
-      <c r="C61" s="95"/>
-      <c r="D61" s="95"/>
-      <c r="E61" s="98"/>
-      <c r="F61" s="98"/>
-      <c r="G61" s="98"/>
-      <c r="H61" s="98"/>
+      <c r="B61" s="108"/>
+      <c r="C61" s="108"/>
+      <c r="D61" s="108"/>
+      <c r="E61" s="111"/>
+      <c r="F61" s="111"/>
+      <c r="G61" s="111"/>
+      <c r="H61" s="111"/>
     </row>
     <row r="62" spans="1:8" ht="14" x14ac:dyDescent="0.15">
       <c r="A62" s="40"/>
@@ -6359,75 +6355,75 @@
       <c r="D62" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="E62" s="94" t="s">
-        <v>74</v>
-      </c>
-      <c r="F62" s="95"/>
-      <c r="G62" s="95"/>
-      <c r="H62" s="95"/>
+      <c r="E62" s="107" t="s">
+        <v>74</v>
+      </c>
+      <c r="F62" s="108"/>
+      <c r="G62" s="108"/>
+      <c r="H62" s="108"/>
     </row>
     <row r="63" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="52"/>
-      <c r="B63" s="126" t="s">
+      <c r="B63" s="152" t="s">
         <v>71</v>
       </c>
-      <c r="C63" s="101"/>
-      <c r="D63" s="101"/>
-      <c r="E63" s="101"/>
-      <c r="F63" s="101"/>
-      <c r="G63" s="101"/>
-      <c r="H63" s="101"/>
+      <c r="C63" s="115"/>
+      <c r="D63" s="115"/>
+      <c r="E63" s="115"/>
+      <c r="F63" s="115"/>
+      <c r="G63" s="115"/>
+      <c r="H63" s="115"/>
     </row>
     <row r="64" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A64" s="40"/>
-      <c r="B64" s="104"/>
-      <c r="C64" s="105"/>
-      <c r="D64" s="105"/>
-      <c r="E64" s="105"/>
-      <c r="F64" s="105"/>
-      <c r="G64" s="105"/>
-      <c r="H64" s="106"/>
+      <c r="B64" s="122"/>
+      <c r="C64" s="123"/>
+      <c r="D64" s="123"/>
+      <c r="E64" s="123"/>
+      <c r="F64" s="123"/>
+      <c r="G64" s="123"/>
+      <c r="H64" s="124"/>
     </row>
     <row r="65" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A65" s="40"/>
-      <c r="B65" s="107"/>
-      <c r="C65" s="101"/>
-      <c r="D65" s="101"/>
-      <c r="E65" s="101"/>
-      <c r="F65" s="101"/>
-      <c r="G65" s="101"/>
-      <c r="H65" s="108"/>
+      <c r="B65" s="125"/>
+      <c r="C65" s="115"/>
+      <c r="D65" s="115"/>
+      <c r="E65" s="115"/>
+      <c r="F65" s="115"/>
+      <c r="G65" s="115"/>
+      <c r="H65" s="126"/>
     </row>
     <row r="66" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A66" s="40"/>
-      <c r="B66" s="109"/>
-      <c r="C66" s="110"/>
-      <c r="D66" s="110"/>
-      <c r="E66" s="110"/>
-      <c r="F66" s="110"/>
-      <c r="G66" s="110"/>
-      <c r="H66" s="111"/>
+      <c r="B66" s="127"/>
+      <c r="C66" s="128"/>
+      <c r="D66" s="128"/>
+      <c r="E66" s="128"/>
+      <c r="F66" s="128"/>
+      <c r="G66" s="128"/>
+      <c r="H66" s="129"/>
     </row>
     <row r="67" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="B67" s="137"/>
-      <c r="C67" s="131"/>
-      <c r="D67" s="131"/>
-      <c r="E67" s="131"/>
-      <c r="F67" s="131"/>
-      <c r="G67" s="131"/>
-      <c r="H67" s="131"/>
+      <c r="B67" s="163"/>
+      <c r="C67" s="157"/>
+      <c r="D67" s="157"/>
+      <c r="E67" s="157"/>
+      <c r="F67" s="157"/>
+      <c r="G67" s="157"/>
+      <c r="H67" s="157"/>
     </row>
     <row r="68" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="52"/>
-      <c r="B68" s="171" t="s">
+      <c r="B68" s="116" t="s">
         <v>114</v>
       </c>
-      <c r="C68" s="169"/>
-      <c r="D68" s="169"/>
-      <c r="E68" s="169"/>
-      <c r="F68" s="169"/>
-      <c r="G68" s="169"/>
-      <c r="H68" s="169"/>
+      <c r="C68" s="117"/>
+      <c r="D68" s="117"/>
+      <c r="E68" s="117"/>
+      <c r="F68" s="117"/>
+      <c r="G68" s="117"/>
+      <c r="H68" s="117"/>
     </row>
     <row r="69" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="52"/>
@@ -6440,12 +6436,12 @@
       <c r="D69" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="E69" s="100" t="s">
+      <c r="E69" s="114" t="s">
         <v>73</v>
       </c>
-      <c r="F69" s="101"/>
-      <c r="G69" s="101"/>
-      <c r="H69" s="101"/>
+      <c r="F69" s="115"/>
+      <c r="G69" s="115"/>
+      <c r="H69" s="115"/>
     </row>
     <row r="70" spans="1:8" ht="14" x14ac:dyDescent="0.15">
       <c r="A70" s="40"/>
@@ -6458,12 +6454,12 @@
       <c r="D70" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="E70" s="94" t="s">
-        <v>74</v>
-      </c>
-      <c r="F70" s="125"/>
-      <c r="G70" s="125"/>
-      <c r="H70" s="125"/>
+      <c r="E70" s="107" t="s">
+        <v>74</v>
+      </c>
+      <c r="F70" s="151"/>
+      <c r="G70" s="151"/>
+      <c r="H70" s="151"/>
     </row>
     <row r="71" spans="1:8" ht="14" x14ac:dyDescent="0.15">
       <c r="A71" s="40"/>
@@ -6476,12 +6472,12 @@
       <c r="D71" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="E71" s="94" t="s">
-        <v>74</v>
-      </c>
-      <c r="F71" s="125"/>
-      <c r="G71" s="125"/>
-      <c r="H71" s="125"/>
+      <c r="E71" s="107" t="s">
+        <v>74</v>
+      </c>
+      <c r="F71" s="151"/>
+      <c r="G71" s="151"/>
+      <c r="H71" s="151"/>
     </row>
     <row r="72" spans="1:8" ht="14" x14ac:dyDescent="0.15">
       <c r="A72" s="40"/>
@@ -6494,12 +6490,12 @@
       <c r="D72" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="E72" s="94" t="s">
-        <v>74</v>
-      </c>
-      <c r="F72" s="125"/>
-      <c r="G72" s="125"/>
-      <c r="H72" s="125"/>
+      <c r="E72" s="107" t="s">
+        <v>74</v>
+      </c>
+      <c r="F72" s="151"/>
+      <c r="G72" s="151"/>
+      <c r="H72" s="151"/>
     </row>
     <row r="73" spans="1:8" ht="14" x14ac:dyDescent="0.15">
       <c r="A73" s="40"/>
@@ -6512,12 +6508,12 @@
       <c r="D73" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="E73" s="94" t="s">
-        <v>74</v>
-      </c>
-      <c r="F73" s="125"/>
-      <c r="G73" s="125"/>
-      <c r="H73" s="125"/>
+      <c r="E73" s="107" t="s">
+        <v>74</v>
+      </c>
+      <c r="F73" s="151"/>
+      <c r="G73" s="151"/>
+      <c r="H73" s="151"/>
     </row>
     <row r="74" spans="1:8" ht="14" x14ac:dyDescent="0.15">
       <c r="A74" s="40"/>
@@ -6530,12 +6526,12 @@
       <c r="D74" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="E74" s="94" t="s">
-        <v>74</v>
-      </c>
-      <c r="F74" s="125"/>
-      <c r="G74" s="125"/>
-      <c r="H74" s="125"/>
+      <c r="E74" s="107" t="s">
+        <v>74</v>
+      </c>
+      <c r="F74" s="151"/>
+      <c r="G74" s="151"/>
+      <c r="H74" s="151"/>
     </row>
     <row r="75" spans="1:8" ht="14" x14ac:dyDescent="0.15">
       <c r="A75" s="40"/>
@@ -6548,12 +6544,12 @@
       <c r="D75" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="E75" s="94" t="s">
-        <v>74</v>
-      </c>
-      <c r="F75" s="125"/>
-      <c r="G75" s="125"/>
-      <c r="H75" s="125"/>
+      <c r="E75" s="107" t="s">
+        <v>74</v>
+      </c>
+      <c r="F75" s="151"/>
+      <c r="G75" s="151"/>
+      <c r="H75" s="151"/>
     </row>
     <row r="76" spans="1:8" ht="14" x14ac:dyDescent="0.15">
       <c r="A76" s="40"/>
@@ -6566,12 +6562,12 @@
       <c r="D76" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="E76" s="94" t="s">
-        <v>74</v>
-      </c>
-      <c r="F76" s="125"/>
-      <c r="G76" s="125"/>
-      <c r="H76" s="125"/>
+      <c r="E76" s="107" t="s">
+        <v>74</v>
+      </c>
+      <c r="F76" s="151"/>
+      <c r="G76" s="151"/>
+      <c r="H76" s="151"/>
     </row>
     <row r="77" spans="1:8" ht="28" x14ac:dyDescent="0.15">
       <c r="A77" s="40"/>
@@ -6584,12 +6580,12 @@
       <c r="D77" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="E77" s="94" t="s">
-        <v>74</v>
-      </c>
-      <c r="F77" s="125"/>
-      <c r="G77" s="125"/>
-      <c r="H77" s="125"/>
+      <c r="E77" s="107" t="s">
+        <v>74</v>
+      </c>
+      <c r="F77" s="151"/>
+      <c r="G77" s="151"/>
+      <c r="H77" s="151"/>
     </row>
     <row r="78" spans="1:8" ht="14" x14ac:dyDescent="0.15">
       <c r="A78" s="40"/>
@@ -6602,12 +6598,12 @@
       <c r="D78" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="E78" s="94" t="s">
-        <v>74</v>
-      </c>
-      <c r="F78" s="125"/>
-      <c r="G78" s="125"/>
-      <c r="H78" s="125"/>
+      <c r="E78" s="107" t="s">
+        <v>74</v>
+      </c>
+      <c r="F78" s="151"/>
+      <c r="G78" s="151"/>
+      <c r="H78" s="151"/>
     </row>
     <row r="79" spans="1:8" ht="14" x14ac:dyDescent="0.15">
       <c r="A79" s="40"/>
@@ -6620,12 +6616,12 @@
       <c r="D79" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="E79" s="94" t="s">
-        <v>74</v>
-      </c>
-      <c r="F79" s="125"/>
-      <c r="G79" s="125"/>
-      <c r="H79" s="125"/>
+      <c r="E79" s="107" t="s">
+        <v>74</v>
+      </c>
+      <c r="F79" s="151"/>
+      <c r="G79" s="151"/>
+      <c r="H79" s="151"/>
     </row>
     <row r="80" spans="1:8" ht="14" x14ac:dyDescent="0.15">
       <c r="A80" s="40"/>
@@ -6638,10 +6634,10 @@
       <c r="D80" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="E80" s="95"/>
-      <c r="F80" s="125"/>
-      <c r="G80" s="125"/>
-      <c r="H80" s="125"/>
+      <c r="E80" s="108"/>
+      <c r="F80" s="151"/>
+      <c r="G80" s="151"/>
+      <c r="H80" s="151"/>
     </row>
     <row r="81" spans="1:8" ht="84" x14ac:dyDescent="0.15">
       <c r="A81" s="40"/>
@@ -6654,12 +6650,12 @@
       <c r="D81" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="E81" s="97" t="s">
+      <c r="E81" s="112" t="s">
         <v>169</v>
       </c>
-      <c r="F81" s="145"/>
-      <c r="G81" s="145"/>
-      <c r="H81" s="145"/>
+      <c r="F81" s="174"/>
+      <c r="G81" s="174"/>
+      <c r="H81" s="174"/>
     </row>
     <row r="82" spans="1:8" ht="96" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="40"/>
@@ -6672,40 +6668,40 @@
       <c r="D82" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="E82" s="94" t="s">
-        <v>74</v>
-      </c>
-      <c r="F82" s="125"/>
-      <c r="G82" s="125"/>
-      <c r="H82" s="125"/>
+      <c r="E82" s="107" t="s">
+        <v>74</v>
+      </c>
+      <c r="F82" s="151"/>
+      <c r="G82" s="151"/>
+      <c r="H82" s="151"/>
     </row>
     <row r="83" spans="1:8" ht="166.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A83" s="40"/>
-      <c r="B83" s="96">
+      <c r="B83" s="109">
         <v>14</v>
       </c>
-      <c r="C83" s="94" t="s">
+      <c r="C83" s="107" t="s">
         <v>153</v>
       </c>
-      <c r="D83" s="96" t="s">
-        <v>10</v>
-      </c>
-      <c r="E83" s="97" t="s">
+      <c r="D83" s="109" t="s">
+        <v>10</v>
+      </c>
+      <c r="E83" s="112" t="s">
         <v>185</v>
       </c>
-      <c r="F83" s="145"/>
-      <c r="G83" s="145"/>
-      <c r="H83" s="145"/>
+      <c r="F83" s="174"/>
+      <c r="G83" s="174"/>
+      <c r="H83" s="174"/>
     </row>
     <row r="84" spans="1:8" ht="149.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A84" s="40"/>
-      <c r="B84" s="95"/>
-      <c r="C84" s="95"/>
-      <c r="D84" s="95"/>
-      <c r="E84" s="98"/>
-      <c r="F84" s="145"/>
-      <c r="G84" s="145"/>
-      <c r="H84" s="145"/>
+      <c r="B84" s="108"/>
+      <c r="C84" s="108"/>
+      <c r="D84" s="108"/>
+      <c r="E84" s="111"/>
+      <c r="F84" s="174"/>
+      <c r="G84" s="174"/>
+      <c r="H84" s="174"/>
     </row>
     <row r="85" spans="1:8" ht="14" x14ac:dyDescent="0.15">
       <c r="A85" s="40"/>
@@ -6718,12 +6714,12 @@
       <c r="D85" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="E85" s="94" t="s">
-        <v>74</v>
-      </c>
-      <c r="F85" s="125"/>
-      <c r="G85" s="125"/>
-      <c r="H85" s="125"/>
+      <c r="E85" s="107" t="s">
+        <v>74</v>
+      </c>
+      <c r="F85" s="151"/>
+      <c r="G85" s="151"/>
+      <c r="H85" s="151"/>
     </row>
     <row r="86" spans="1:8" ht="14" x14ac:dyDescent="0.15">
       <c r="A86" s="40"/>
@@ -6736,10 +6732,10 @@
       <c r="D86" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="E86" s="94"/>
-      <c r="F86" s="125"/>
-      <c r="G86" s="125"/>
-      <c r="H86" s="125"/>
+      <c r="E86" s="107"/>
+      <c r="F86" s="151"/>
+      <c r="G86" s="151"/>
+      <c r="H86" s="151"/>
     </row>
     <row r="87" spans="1:8" ht="84" x14ac:dyDescent="0.15">
       <c r="A87" s="40"/>
@@ -6752,12 +6748,12 @@
       <c r="D87" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="E87" s="94" t="s">
-        <v>74</v>
-      </c>
-      <c r="F87" s="125"/>
-      <c r="G87" s="125"/>
-      <c r="H87" s="125"/>
+      <c r="E87" s="107" t="s">
+        <v>74</v>
+      </c>
+      <c r="F87" s="151"/>
+      <c r="G87" s="151"/>
+      <c r="H87" s="151"/>
     </row>
     <row r="88" spans="1:8" ht="93" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A88" s="40"/>
@@ -6770,12 +6766,12 @@
       <c r="D88" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="E88" s="97" t="s">
+      <c r="E88" s="112" t="s">
         <v>173</v>
       </c>
-      <c r="F88" s="145"/>
-      <c r="G88" s="145"/>
-      <c r="H88" s="145"/>
+      <c r="F88" s="174"/>
+      <c r="G88" s="174"/>
+      <c r="H88" s="174"/>
     </row>
     <row r="89" spans="1:8" ht="28" x14ac:dyDescent="0.15">
       <c r="A89" s="40"/>
@@ -6788,12 +6784,12 @@
       <c r="D89" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="E89" s="94" t="s">
-        <v>74</v>
-      </c>
-      <c r="F89" s="125"/>
-      <c r="G89" s="125"/>
-      <c r="H89" s="125"/>
+      <c r="E89" s="107" t="s">
+        <v>74</v>
+      </c>
+      <c r="F89" s="151"/>
+      <c r="G89" s="151"/>
+      <c r="H89" s="151"/>
     </row>
     <row r="90" spans="1:8" ht="14" x14ac:dyDescent="0.15">
       <c r="A90" s="40"/>
@@ -6806,12 +6802,12 @@
       <c r="D90" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="E90" s="94" t="s">
-        <v>74</v>
-      </c>
-      <c r="F90" s="125"/>
-      <c r="G90" s="125"/>
-      <c r="H90" s="125"/>
+      <c r="E90" s="107" t="s">
+        <v>74</v>
+      </c>
+      <c r="F90" s="151"/>
+      <c r="G90" s="151"/>
+      <c r="H90" s="151"/>
     </row>
     <row r="91" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A91" s="40"/>
@@ -6824,77 +6820,77 @@
       <c r="D91" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="E91" s="97" t="s">
+      <c r="E91" s="112" t="s">
         <v>174</v>
       </c>
-      <c r="F91" s="145"/>
-      <c r="G91" s="145"/>
-      <c r="H91" s="145"/>
+      <c r="F91" s="174"/>
+      <c r="G91" s="174"/>
+      <c r="H91" s="174"/>
     </row>
     <row r="92" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A92" s="52"/>
-      <c r="B92" s="144" t="s">
+      <c r="B92" s="173" t="s">
         <v>71</v>
       </c>
-      <c r="C92" s="101"/>
-      <c r="D92" s="101"/>
-      <c r="E92" s="101"/>
-      <c r="F92" s="101"/>
-      <c r="G92" s="101"/>
-      <c r="H92" s="101"/>
+      <c r="C92" s="115"/>
+      <c r="D92" s="115"/>
+      <c r="E92" s="115"/>
+      <c r="F92" s="115"/>
+      <c r="G92" s="115"/>
+      <c r="H92" s="115"/>
     </row>
     <row r="93" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A93" s="40"/>
-      <c r="B93" s="104" t="s">
+      <c r="B93" s="122" t="s">
         <v>81</v>
       </c>
-      <c r="C93" s="105"/>
-      <c r="D93" s="105"/>
-      <c r="E93" s="105"/>
-      <c r="F93" s="105"/>
-      <c r="G93" s="105"/>
-      <c r="H93" s="106"/>
+      <c r="C93" s="123"/>
+      <c r="D93" s="123"/>
+      <c r="E93" s="123"/>
+      <c r="F93" s="123"/>
+      <c r="G93" s="123"/>
+      <c r="H93" s="124"/>
     </row>
     <row r="94" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A94" s="40"/>
-      <c r="B94" s="107"/>
-      <c r="C94" s="101"/>
-      <c r="D94" s="101"/>
-      <c r="E94" s="101"/>
-      <c r="F94" s="101"/>
-      <c r="G94" s="101"/>
-      <c r="H94" s="108"/>
+      <c r="B94" s="125"/>
+      <c r="C94" s="115"/>
+      <c r="D94" s="115"/>
+      <c r="E94" s="115"/>
+      <c r="F94" s="115"/>
+      <c r="G94" s="115"/>
+      <c r="H94" s="126"/>
     </row>
     <row r="95" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A95" s="40"/>
-      <c r="B95" s="109"/>
-      <c r="C95" s="110"/>
-      <c r="D95" s="110"/>
-      <c r="E95" s="110"/>
-      <c r="F95" s="110"/>
-      <c r="G95" s="110"/>
-      <c r="H95" s="111"/>
+      <c r="B95" s="127"/>
+      <c r="C95" s="128"/>
+      <c r="D95" s="128"/>
+      <c r="E95" s="128"/>
+      <c r="F95" s="128"/>
+      <c r="G95" s="128"/>
+      <c r="H95" s="129"/>
     </row>
     <row r="96" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="B96" s="137"/>
-      <c r="C96" s="131"/>
-      <c r="D96" s="131"/>
-      <c r="E96" s="131"/>
-      <c r="F96" s="131"/>
-      <c r="G96" s="131"/>
-      <c r="H96" s="131"/>
+      <c r="B96" s="163"/>
+      <c r="C96" s="157"/>
+      <c r="D96" s="157"/>
+      <c r="E96" s="157"/>
+      <c r="F96" s="157"/>
+      <c r="G96" s="157"/>
+      <c r="H96" s="157"/>
     </row>
     <row r="97" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A97" s="52"/>
-      <c r="B97" s="171" t="s">
+      <c r="B97" s="116" t="s">
         <v>82</v>
       </c>
-      <c r="C97" s="169"/>
-      <c r="D97" s="169"/>
-      <c r="E97" s="169"/>
-      <c r="F97" s="169"/>
-      <c r="G97" s="169"/>
-      <c r="H97" s="169"/>
+      <c r="C97" s="117"/>
+      <c r="D97" s="117"/>
+      <c r="E97" s="117"/>
+      <c r="F97" s="117"/>
+      <c r="G97" s="117"/>
+      <c r="H97" s="117"/>
     </row>
     <row r="98" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A98" s="52"/>
@@ -6907,12 +6903,12 @@
       <c r="D98" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="E98" s="100" t="s">
+      <c r="E98" s="114" t="s">
         <v>73</v>
       </c>
-      <c r="F98" s="101"/>
-      <c r="G98" s="101"/>
-      <c r="H98" s="101"/>
+      <c r="F98" s="115"/>
+      <c r="G98" s="115"/>
+      <c r="H98" s="115"/>
     </row>
     <row r="99" spans="1:8" ht="14" x14ac:dyDescent="0.15">
       <c r="A99" s="40"/>
@@ -6925,12 +6921,12 @@
       <c r="D99" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="E99" s="94" t="s">
-        <v>74</v>
-      </c>
-      <c r="F99" s="95"/>
-      <c r="G99" s="95"/>
-      <c r="H99" s="95"/>
+      <c r="E99" s="107" t="s">
+        <v>74</v>
+      </c>
+      <c r="F99" s="108"/>
+      <c r="G99" s="108"/>
+      <c r="H99" s="108"/>
     </row>
     <row r="100" spans="1:8" ht="14" x14ac:dyDescent="0.15">
       <c r="A100" s="40"/>
@@ -6943,12 +6939,12 @@
       <c r="D100" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="E100" s="94" t="s">
-        <v>74</v>
-      </c>
-      <c r="F100" s="95"/>
-      <c r="G100" s="95"/>
-      <c r="H100" s="95"/>
+      <c r="E100" s="107" t="s">
+        <v>74</v>
+      </c>
+      <c r="F100" s="108"/>
+      <c r="G100" s="108"/>
+      <c r="H100" s="108"/>
     </row>
     <row r="101" spans="1:8" ht="14" x14ac:dyDescent="0.15">
       <c r="A101" s="40"/>
@@ -6961,12 +6957,12 @@
       <c r="D101" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="E101" s="94" t="s">
-        <v>74</v>
-      </c>
-      <c r="F101" s="95"/>
-      <c r="G101" s="95"/>
-      <c r="H101" s="95"/>
+      <c r="E101" s="107" t="s">
+        <v>74</v>
+      </c>
+      <c r="F101" s="108"/>
+      <c r="G101" s="108"/>
+      <c r="H101" s="108"/>
     </row>
     <row r="102" spans="1:8" ht="28" x14ac:dyDescent="0.15">
       <c r="A102" s="40"/>
@@ -6979,12 +6975,12 @@
       <c r="D102" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="E102" s="94" t="s">
-        <v>74</v>
-      </c>
-      <c r="F102" s="95"/>
-      <c r="G102" s="95"/>
-      <c r="H102" s="95"/>
+      <c r="E102" s="107" t="s">
+        <v>74</v>
+      </c>
+      <c r="F102" s="108"/>
+      <c r="G102" s="108"/>
+      <c r="H102" s="108"/>
     </row>
     <row r="103" spans="1:8" ht="14" x14ac:dyDescent="0.15">
       <c r="A103" s="40"/>
@@ -6997,12 +6993,12 @@
       <c r="D103" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="E103" s="140" t="s">
-        <v>74</v>
-      </c>
-      <c r="F103" s="95"/>
-      <c r="G103" s="95"/>
-      <c r="H103" s="95"/>
+      <c r="E103" s="118" t="s">
+        <v>74</v>
+      </c>
+      <c r="F103" s="108"/>
+      <c r="G103" s="108"/>
+      <c r="H103" s="108"/>
     </row>
     <row r="104" spans="1:8" ht="28" x14ac:dyDescent="0.15">
       <c r="A104" s="40"/>
@@ -7015,75 +7011,75 @@
       <c r="D104" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="E104" s="94" t="s">
-        <v>74</v>
-      </c>
-      <c r="F104" s="95"/>
-      <c r="G104" s="95"/>
-      <c r="H104" s="95"/>
+      <c r="E104" s="107" t="s">
+        <v>74</v>
+      </c>
+      <c r="F104" s="108"/>
+      <c r="G104" s="108"/>
+      <c r="H104" s="108"/>
     </row>
     <row r="105" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A105" s="52"/>
-      <c r="B105" s="144" t="s">
+      <c r="B105" s="173" t="s">
         <v>71</v>
       </c>
-      <c r="C105" s="101"/>
-      <c r="D105" s="101"/>
-      <c r="E105" s="101"/>
-      <c r="F105" s="101"/>
-      <c r="G105" s="101"/>
-      <c r="H105" s="101"/>
+      <c r="C105" s="115"/>
+      <c r="D105" s="115"/>
+      <c r="E105" s="115"/>
+      <c r="F105" s="115"/>
+      <c r="G105" s="115"/>
+      <c r="H105" s="115"/>
     </row>
     <row r="106" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A106" s="40"/>
-      <c r="B106" s="136"/>
-      <c r="C106" s="105"/>
-      <c r="D106" s="105"/>
-      <c r="E106" s="105"/>
-      <c r="F106" s="105"/>
-      <c r="G106" s="105"/>
-      <c r="H106" s="106"/>
+      <c r="B106" s="162"/>
+      <c r="C106" s="123"/>
+      <c r="D106" s="123"/>
+      <c r="E106" s="123"/>
+      <c r="F106" s="123"/>
+      <c r="G106" s="123"/>
+      <c r="H106" s="124"/>
     </row>
     <row r="107" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A107" s="40"/>
-      <c r="B107" s="107"/>
-      <c r="C107" s="101"/>
-      <c r="D107" s="101"/>
-      <c r="E107" s="101"/>
-      <c r="F107" s="101"/>
-      <c r="G107" s="101"/>
-      <c r="H107" s="108"/>
+      <c r="B107" s="125"/>
+      <c r="C107" s="115"/>
+      <c r="D107" s="115"/>
+      <c r="E107" s="115"/>
+      <c r="F107" s="115"/>
+      <c r="G107" s="115"/>
+      <c r="H107" s="126"/>
     </row>
     <row r="108" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A108" s="40"/>
-      <c r="B108" s="109"/>
-      <c r="C108" s="110"/>
-      <c r="D108" s="110"/>
-      <c r="E108" s="110"/>
-      <c r="F108" s="110"/>
-      <c r="G108" s="110"/>
-      <c r="H108" s="111"/>
+      <c r="B108" s="127"/>
+      <c r="C108" s="128"/>
+      <c r="D108" s="128"/>
+      <c r="E108" s="128"/>
+      <c r="F108" s="128"/>
+      <c r="G108" s="128"/>
+      <c r="H108" s="129"/>
     </row>
     <row r="109" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="B109" s="137"/>
-      <c r="C109" s="131"/>
-      <c r="D109" s="131"/>
-      <c r="E109" s="131"/>
-      <c r="F109" s="131"/>
-      <c r="G109" s="131"/>
-      <c r="H109" s="131"/>
+      <c r="B109" s="163"/>
+      <c r="C109" s="157"/>
+      <c r="D109" s="157"/>
+      <c r="E109" s="157"/>
+      <c r="F109" s="157"/>
+      <c r="G109" s="157"/>
+      <c r="H109" s="157"/>
     </row>
     <row r="110" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A110" s="52"/>
-      <c r="B110" s="171" t="s">
+      <c r="B110" s="116" t="s">
         <v>89</v>
       </c>
-      <c r="C110" s="169"/>
-      <c r="D110" s="169"/>
-      <c r="E110" s="169"/>
-      <c r="F110" s="169"/>
-      <c r="G110" s="169"/>
-      <c r="H110" s="169"/>
+      <c r="C110" s="117"/>
+      <c r="D110" s="117"/>
+      <c r="E110" s="117"/>
+      <c r="F110" s="117"/>
+      <c r="G110" s="117"/>
+      <c r="H110" s="117"/>
     </row>
     <row r="111" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A111" s="52"/>
@@ -7096,12 +7092,12 @@
       <c r="D111" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="E111" s="100" t="s">
+      <c r="E111" s="114" t="s">
         <v>73</v>
       </c>
-      <c r="F111" s="101"/>
-      <c r="G111" s="101"/>
-      <c r="H111" s="101"/>
+      <c r="F111" s="115"/>
+      <c r="G111" s="115"/>
+      <c r="H111" s="115"/>
     </row>
     <row r="112" spans="1:8" ht="14" x14ac:dyDescent="0.15">
       <c r="A112" s="40"/>
@@ -7114,12 +7110,12 @@
       <c r="D112" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="E112" s="94" t="s">
-        <v>74</v>
-      </c>
-      <c r="F112" s="95"/>
-      <c r="G112" s="95"/>
-      <c r="H112" s="95"/>
+      <c r="E112" s="107" t="s">
+        <v>74</v>
+      </c>
+      <c r="F112" s="108"/>
+      <c r="G112" s="108"/>
+      <c r="H112" s="108"/>
     </row>
     <row r="113" spans="1:8" ht="14" x14ac:dyDescent="0.15">
       <c r="A113" s="40"/>
@@ -7132,12 +7128,12 @@
       <c r="D113" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="E113" s="94" t="s">
-        <v>74</v>
-      </c>
-      <c r="F113" s="95"/>
-      <c r="G113" s="95"/>
-      <c r="H113" s="95"/>
+      <c r="E113" s="107" t="s">
+        <v>74</v>
+      </c>
+      <c r="F113" s="108"/>
+      <c r="G113" s="108"/>
+      <c r="H113" s="108"/>
     </row>
     <row r="114" spans="1:8" ht="28" x14ac:dyDescent="0.15">
       <c r="A114" s="40"/>
@@ -7150,12 +7146,12 @@
       <c r="D114" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="E114" s="94" t="s">
-        <v>74</v>
-      </c>
-      <c r="F114" s="95"/>
-      <c r="G114" s="95"/>
-      <c r="H114" s="95"/>
+      <c r="E114" s="107" t="s">
+        <v>74</v>
+      </c>
+      <c r="F114" s="108"/>
+      <c r="G114" s="108"/>
+      <c r="H114" s="108"/>
     </row>
     <row r="115" spans="1:8" ht="28" x14ac:dyDescent="0.15">
       <c r="A115" s="40"/>
@@ -7168,12 +7164,12 @@
       <c r="D115" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="E115" s="94" t="s">
-        <v>74</v>
-      </c>
-      <c r="F115" s="95"/>
-      <c r="G115" s="95"/>
-      <c r="H115" s="95"/>
+      <c r="E115" s="107" t="s">
+        <v>74</v>
+      </c>
+      <c r="F115" s="108"/>
+      <c r="G115" s="108"/>
+      <c r="H115" s="108"/>
     </row>
     <row r="116" spans="1:8" ht="42" x14ac:dyDescent="0.15">
       <c r="A116" s="40"/>
@@ -7186,12 +7182,12 @@
       <c r="D116" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="E116" s="94" t="s">
-        <v>74</v>
-      </c>
-      <c r="F116" s="95"/>
-      <c r="G116" s="95"/>
-      <c r="H116" s="95"/>
+      <c r="E116" s="107" t="s">
+        <v>74</v>
+      </c>
+      <c r="F116" s="108"/>
+      <c r="G116" s="108"/>
+      <c r="H116" s="108"/>
     </row>
     <row r="117" spans="1:8" ht="14" x14ac:dyDescent="0.15">
       <c r="A117" s="40"/>
@@ -7204,12 +7200,12 @@
       <c r="D117" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="E117" s="94" t="s">
-        <v>74</v>
-      </c>
-      <c r="F117" s="95"/>
-      <c r="G117" s="95"/>
-      <c r="H117" s="95"/>
+      <c r="E117" s="107" t="s">
+        <v>74</v>
+      </c>
+      <c r="F117" s="108"/>
+      <c r="G117" s="108"/>
+      <c r="H117" s="108"/>
     </row>
     <row r="118" spans="1:8" ht="28" x14ac:dyDescent="0.15">
       <c r="A118" s="40"/>
@@ -7222,12 +7218,12 @@
       <c r="D118" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="E118" s="94" t="s">
-        <v>74</v>
-      </c>
-      <c r="F118" s="95"/>
-      <c r="G118" s="95"/>
-      <c r="H118" s="95"/>
+      <c r="E118" s="107" t="s">
+        <v>74</v>
+      </c>
+      <c r="F118" s="108"/>
+      <c r="G118" s="108"/>
+      <c r="H118" s="108"/>
     </row>
     <row r="119" spans="1:8" ht="14" x14ac:dyDescent="0.15">
       <c r="A119" s="40"/>
@@ -7240,12 +7236,12 @@
       <c r="D119" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="E119" s="94" t="s">
-        <v>74</v>
-      </c>
-      <c r="F119" s="95"/>
-      <c r="G119" s="95"/>
-      <c r="H119" s="95"/>
+      <c r="E119" s="107" t="s">
+        <v>74</v>
+      </c>
+      <c r="F119" s="108"/>
+      <c r="G119" s="108"/>
+      <c r="H119" s="108"/>
     </row>
     <row r="120" spans="1:8" ht="28" x14ac:dyDescent="0.15">
       <c r="A120" s="40"/>
@@ -7258,12 +7254,12 @@
       <c r="D120" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="E120" s="94" t="s">
-        <v>74</v>
-      </c>
-      <c r="F120" s="95"/>
-      <c r="G120" s="95"/>
-      <c r="H120" s="95"/>
+      <c r="E120" s="107" t="s">
+        <v>74</v>
+      </c>
+      <c r="F120" s="108"/>
+      <c r="G120" s="108"/>
+      <c r="H120" s="108"/>
     </row>
     <row r="121" spans="1:8" ht="28" x14ac:dyDescent="0.15">
       <c r="A121" s="40"/>
@@ -7276,12 +7272,12 @@
       <c r="D121" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="E121" s="94" t="s">
-        <v>74</v>
-      </c>
-      <c r="F121" s="95"/>
-      <c r="G121" s="95"/>
-      <c r="H121" s="95"/>
+      <c r="E121" s="107" t="s">
+        <v>74</v>
+      </c>
+      <c r="F121" s="108"/>
+      <c r="G121" s="108"/>
+      <c r="H121" s="108"/>
     </row>
     <row r="122" spans="1:8" ht="28" x14ac:dyDescent="0.15">
       <c r="A122" s="40"/>
@@ -7294,12 +7290,12 @@
       <c r="D122" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="E122" s="94" t="s">
-        <v>74</v>
-      </c>
-      <c r="F122" s="95"/>
-      <c r="G122" s="95"/>
-      <c r="H122" s="95"/>
+      <c r="E122" s="107" t="s">
+        <v>74</v>
+      </c>
+      <c r="F122" s="108"/>
+      <c r="G122" s="108"/>
+      <c r="H122" s="108"/>
     </row>
     <row r="123" spans="1:8" ht="14" x14ac:dyDescent="0.15">
       <c r="A123" s="40"/>
@@ -7312,12 +7308,12 @@
       <c r="D123" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="E123" s="94" t="s">
-        <v>74</v>
-      </c>
-      <c r="F123" s="95"/>
-      <c r="G123" s="95"/>
-      <c r="H123" s="95"/>
+      <c r="E123" s="107" t="s">
+        <v>74</v>
+      </c>
+      <c r="F123" s="108"/>
+      <c r="G123" s="108"/>
+      <c r="H123" s="108"/>
     </row>
     <row r="124" spans="1:8" ht="174" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A124" s="40"/>
@@ -7330,77 +7326,77 @@
       <c r="D124" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="E124" s="94" t="s">
+      <c r="E124" s="107" t="s">
         <v>254</v>
       </c>
-      <c r="F124" s="95"/>
-      <c r="G124" s="95"/>
-      <c r="H124" s="95"/>
+      <c r="F124" s="108"/>
+      <c r="G124" s="108"/>
+      <c r="H124" s="108"/>
     </row>
     <row r="125" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A125" s="52"/>
-      <c r="B125" s="126" t="s">
+      <c r="B125" s="152" t="s">
         <v>71</v>
       </c>
-      <c r="C125" s="101"/>
-      <c r="D125" s="101"/>
-      <c r="E125" s="101"/>
-      <c r="F125" s="101"/>
-      <c r="G125" s="101"/>
-      <c r="H125" s="101"/>
+      <c r="C125" s="115"/>
+      <c r="D125" s="115"/>
+      <c r="E125" s="115"/>
+      <c r="F125" s="115"/>
+      <c r="G125" s="115"/>
+      <c r="H125" s="115"/>
     </row>
     <row r="126" spans="1:8" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A126" s="40"/>
-      <c r="B126" s="104" t="s">
+      <c r="B126" s="122" t="s">
         <v>205</v>
       </c>
-      <c r="C126" s="105"/>
-      <c r="D126" s="105"/>
-      <c r="E126" s="105"/>
-      <c r="F126" s="105"/>
-      <c r="G126" s="105"/>
-      <c r="H126" s="106"/>
+      <c r="C126" s="123"/>
+      <c r="D126" s="123"/>
+      <c r="E126" s="123"/>
+      <c r="F126" s="123"/>
+      <c r="G126" s="123"/>
+      <c r="H126" s="124"/>
     </row>
     <row r="127" spans="1:8" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A127" s="40"/>
-      <c r="B127" s="107"/>
-      <c r="C127" s="101"/>
-      <c r="D127" s="101"/>
-      <c r="E127" s="101"/>
-      <c r="F127" s="101"/>
-      <c r="G127" s="101"/>
-      <c r="H127" s="108"/>
+      <c r="B127" s="125"/>
+      <c r="C127" s="115"/>
+      <c r="D127" s="115"/>
+      <c r="E127" s="115"/>
+      <c r="F127" s="115"/>
+      <c r="G127" s="115"/>
+      <c r="H127" s="126"/>
     </row>
     <row r="128" spans="1:8" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A128" s="40"/>
-      <c r="B128" s="109"/>
-      <c r="C128" s="110"/>
-      <c r="D128" s="110"/>
-      <c r="E128" s="110"/>
-      <c r="F128" s="110"/>
-      <c r="G128" s="110"/>
-      <c r="H128" s="111"/>
+      <c r="B128" s="127"/>
+      <c r="C128" s="128"/>
+      <c r="D128" s="128"/>
+      <c r="E128" s="128"/>
+      <c r="F128" s="128"/>
+      <c r="G128" s="128"/>
+      <c r="H128" s="129"/>
     </row>
     <row r="129" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="B129" s="137"/>
-      <c r="C129" s="131"/>
-      <c r="D129" s="131"/>
-      <c r="E129" s="131"/>
-      <c r="F129" s="131"/>
-      <c r="G129" s="131"/>
-      <c r="H129" s="131"/>
+      <c r="B129" s="163"/>
+      <c r="C129" s="157"/>
+      <c r="D129" s="157"/>
+      <c r="E129" s="157"/>
+      <c r="F129" s="157"/>
+      <c r="G129" s="157"/>
+      <c r="H129" s="157"/>
     </row>
     <row r="130" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A130" s="52"/>
-      <c r="B130" s="171" t="s">
+      <c r="B130" s="116" t="s">
         <v>104</v>
       </c>
-      <c r="C130" s="169"/>
-      <c r="D130" s="169"/>
-      <c r="E130" s="169"/>
-      <c r="F130" s="169"/>
-      <c r="G130" s="169"/>
-      <c r="H130" s="169"/>
+      <c r="C130" s="117"/>
+      <c r="D130" s="117"/>
+      <c r="E130" s="117"/>
+      <c r="F130" s="117"/>
+      <c r="G130" s="117"/>
+      <c r="H130" s="117"/>
     </row>
     <row r="131" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A131" s="52"/>
@@ -7413,12 +7409,12 @@
       <c r="D131" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="E131" s="100" t="s">
+      <c r="E131" s="114" t="s">
         <v>73</v>
       </c>
-      <c r="F131" s="101"/>
-      <c r="G131" s="101"/>
-      <c r="H131" s="101"/>
+      <c r="F131" s="115"/>
+      <c r="G131" s="115"/>
+      <c r="H131" s="115"/>
     </row>
     <row r="132" spans="1:8" ht="14" x14ac:dyDescent="0.15">
       <c r="A132" s="40"/>
@@ -7431,12 +7427,12 @@
       <c r="D132" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="E132" s="94" t="s">
-        <v>74</v>
-      </c>
-      <c r="F132" s="95"/>
-      <c r="G132" s="95"/>
-      <c r="H132" s="95"/>
+      <c r="E132" s="107" t="s">
+        <v>74</v>
+      </c>
+      <c r="F132" s="108"/>
+      <c r="G132" s="108"/>
+      <c r="H132" s="108"/>
     </row>
     <row r="133" spans="1:8" ht="14" x14ac:dyDescent="0.15">
       <c r="A133" s="40"/>
@@ -7449,12 +7445,12 @@
       <c r="D133" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="E133" s="94" t="s">
-        <v>74</v>
-      </c>
-      <c r="F133" s="95"/>
-      <c r="G133" s="95"/>
-      <c r="H133" s="95"/>
+      <c r="E133" s="107" t="s">
+        <v>74</v>
+      </c>
+      <c r="F133" s="108"/>
+      <c r="G133" s="108"/>
+      <c r="H133" s="108"/>
     </row>
     <row r="134" spans="1:8" ht="28" x14ac:dyDescent="0.15">
       <c r="A134" s="40"/>
@@ -7467,12 +7463,12 @@
       <c r="D134" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="E134" s="94" t="s">
-        <v>74</v>
-      </c>
-      <c r="F134" s="95"/>
-      <c r="G134" s="95"/>
-      <c r="H134" s="95"/>
+      <c r="E134" s="107" t="s">
+        <v>74</v>
+      </c>
+      <c r="F134" s="108"/>
+      <c r="G134" s="108"/>
+      <c r="H134" s="108"/>
     </row>
     <row r="135" spans="1:8" ht="28" x14ac:dyDescent="0.15">
       <c r="A135" s="40"/>
@@ -7485,12 +7481,12 @@
       <c r="D135" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="E135" s="94" t="s">
-        <v>74</v>
-      </c>
-      <c r="F135" s="95"/>
-      <c r="G135" s="95"/>
-      <c r="H135" s="95"/>
+      <c r="E135" s="107" t="s">
+        <v>74</v>
+      </c>
+      <c r="F135" s="108"/>
+      <c r="G135" s="108"/>
+      <c r="H135" s="108"/>
     </row>
     <row r="136" spans="1:8" ht="89" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A136" s="40"/>
@@ -7503,12 +7499,12 @@
       <c r="D136" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="E136" s="99" t="s">
+      <c r="E136" s="113" t="s">
         <v>206</v>
       </c>
-      <c r="F136" s="95"/>
-      <c r="G136" s="95"/>
-      <c r="H136" s="95"/>
+      <c r="F136" s="108"/>
+      <c r="G136" s="108"/>
+      <c r="H136" s="108"/>
     </row>
     <row r="137" spans="1:8" ht="42" x14ac:dyDescent="0.15">
       <c r="A137" s="40"/>
@@ -7521,67 +7517,67 @@
       <c r="D137" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="E137" s="94" t="s">
-        <v>74</v>
-      </c>
-      <c r="F137" s="95"/>
-      <c r="G137" s="95"/>
-      <c r="H137" s="95"/>
+      <c r="E137" s="107" t="s">
+        <v>74</v>
+      </c>
+      <c r="F137" s="108"/>
+      <c r="G137" s="108"/>
+      <c r="H137" s="108"/>
     </row>
     <row r="138" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A138" s="52"/>
-      <c r="B138" s="126" t="s">
+      <c r="B138" s="152" t="s">
         <v>71</v>
       </c>
-      <c r="C138" s="101"/>
-      <c r="D138" s="101"/>
-      <c r="E138" s="101"/>
-      <c r="F138" s="101"/>
-      <c r="G138" s="101"/>
-      <c r="H138" s="101"/>
+      <c r="C138" s="115"/>
+      <c r="D138" s="115"/>
+      <c r="E138" s="115"/>
+      <c r="F138" s="115"/>
+      <c r="G138" s="115"/>
+      <c r="H138" s="115"/>
     </row>
     <row r="139" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A139" s="40"/>
-      <c r="B139" s="104" t="s">
+      <c r="B139" s="122" t="s">
         <v>115</v>
       </c>
-      <c r="C139" s="105"/>
-      <c r="D139" s="105"/>
-      <c r="E139" s="105"/>
-      <c r="F139" s="105"/>
-      <c r="G139" s="105"/>
-      <c r="H139" s="106"/>
+      <c r="C139" s="123"/>
+      <c r="D139" s="123"/>
+      <c r="E139" s="123"/>
+      <c r="F139" s="123"/>
+      <c r="G139" s="123"/>
+      <c r="H139" s="124"/>
     </row>
     <row r="140" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A140" s="40"/>
-      <c r="B140" s="107"/>
-      <c r="C140" s="101"/>
-      <c r="D140" s="101"/>
-      <c r="E140" s="101"/>
-      <c r="F140" s="101"/>
-      <c r="G140" s="101"/>
-      <c r="H140" s="108"/>
+      <c r="B140" s="125"/>
+      <c r="C140" s="115"/>
+      <c r="D140" s="115"/>
+      <c r="E140" s="115"/>
+      <c r="F140" s="115"/>
+      <c r="G140" s="115"/>
+      <c r="H140" s="126"/>
     </row>
     <row r="141" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A141" s="40"/>
-      <c r="B141" s="109"/>
-      <c r="C141" s="110"/>
-      <c r="D141" s="110"/>
-      <c r="E141" s="110"/>
-      <c r="F141" s="110"/>
-      <c r="G141" s="110"/>
-      <c r="H141" s="111"/>
+      <c r="B141" s="127"/>
+      <c r="C141" s="128"/>
+      <c r="D141" s="128"/>
+      <c r="E141" s="128"/>
+      <c r="F141" s="128"/>
+      <c r="G141" s="128"/>
+      <c r="H141" s="129"/>
     </row>
     <row r="142" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="B142" s="128" t="s">
+      <c r="B142" s="154" t="s">
         <v>116</v>
       </c>
-      <c r="C142" s="101"/>
-      <c r="D142" s="101"/>
-      <c r="E142" s="101"/>
-      <c r="F142" s="101"/>
-      <c r="G142" s="101"/>
-      <c r="H142" s="101"/>
+      <c r="C142" s="115"/>
+      <c r="D142" s="115"/>
+      <c r="E142" s="115"/>
+      <c r="F142" s="115"/>
+      <c r="G142" s="115"/>
+      <c r="H142" s="115"/>
     </row>
   </sheetData>
   <mergeCells count="115">
@@ -7735,249 +7731,249 @@
   <sheetData>
     <row r="1" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="63"/>
-      <c r="B1" s="143" t="s">
+      <c r="B1" s="170" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="123"/>
-      <c r="D1" s="123"/>
-      <c r="E1" s="123"/>
-      <c r="F1" s="123"/>
-      <c r="G1" s="123"/>
-      <c r="H1" s="123"/>
+      <c r="C1" s="144"/>
+      <c r="D1" s="144"/>
+      <c r="E1" s="144"/>
+      <c r="F1" s="144"/>
+      <c r="G1" s="144"/>
+      <c r="H1" s="144"/>
     </row>
     <row r="2" spans="1:8" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="64"/>
-      <c r="B2" s="188" t="s">
+      <c r="B2" s="171" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="174"/>
-      <c r="D2" s="174"/>
-      <c r="E2" s="174"/>
-      <c r="F2" s="174"/>
-      <c r="G2" s="174"/>
-      <c r="H2" s="175" t="s">
+      <c r="C2" s="146"/>
+      <c r="D2" s="146"/>
+      <c r="E2" s="146"/>
+      <c r="F2" s="146"/>
+      <c r="G2" s="146"/>
+      <c r="H2" s="95" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="64"/>
-      <c r="B3" s="176" t="s">
+      <c r="B3" s="140" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="177"/>
-      <c r="D3" s="178" t="s">
+      <c r="C3" s="117"/>
+      <c r="D3" s="147" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="179"/>
-      <c r="F3" s="179"/>
-      <c r="G3" s="179"/>
-      <c r="H3" s="108"/>
+      <c r="E3" s="115"/>
+      <c r="F3" s="115"/>
+      <c r="G3" s="115"/>
+      <c r="H3" s="126"/>
     </row>
     <row r="4" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="64"/>
-      <c r="B4" s="176" t="s">
+      <c r="B4" s="140" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="177"/>
-      <c r="D4" s="178" t="s">
+      <c r="C4" s="117"/>
+      <c r="D4" s="147" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="179"/>
-      <c r="F4" s="179"/>
-      <c r="G4" s="180" t="s">
+      <c r="E4" s="115"/>
+      <c r="F4" s="115"/>
+      <c r="G4" s="96" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="181" t="s">
+      <c r="H4" s="97" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="64"/>
-      <c r="B5" s="176" t="s">
+      <c r="B5" s="140" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="177"/>
-      <c r="D5" s="178" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="179"/>
-      <c r="F5" s="179"/>
-      <c r="G5" s="180" t="s">
+      <c r="C5" s="117"/>
+      <c r="D5" s="147" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="115"/>
+      <c r="F5" s="115"/>
+      <c r="G5" s="96" t="s">
         <v>11</v>
       </c>
-      <c r="H5" s="181" t="s">
+      <c r="H5" s="97" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="64"/>
-      <c r="B6" s="176" t="s">
+      <c r="B6" s="140" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="177"/>
-      <c r="D6" s="182" t="s">
+      <c r="C6" s="117"/>
+      <c r="D6" s="148" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="179"/>
-      <c r="F6" s="179"/>
-      <c r="G6" s="179"/>
-      <c r="H6" s="108"/>
+      <c r="E6" s="115"/>
+      <c r="F6" s="115"/>
+      <c r="G6" s="115"/>
+      <c r="H6" s="126"/>
     </row>
     <row r="7" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="64"/>
-      <c r="B7" s="183" t="s">
+      <c r="B7" s="141" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="184"/>
-      <c r="D7" s="185" t="s">
+      <c r="C7" s="142"/>
+      <c r="D7" s="149" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="110"/>
-      <c r="F7" s="110"/>
-      <c r="G7" s="196" t="s">
+      <c r="E7" s="128"/>
+      <c r="F7" s="128"/>
+      <c r="G7" s="104" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="187" t="s">
+      <c r="H7" s="99" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="40"/>
-      <c r="B8" s="141"/>
-      <c r="C8" s="131"/>
-      <c r="D8" s="131"/>
-      <c r="E8" s="131"/>
-      <c r="F8" s="131"/>
-      <c r="G8" s="131"/>
-      <c r="H8" s="131"/>
+      <c r="B8" s="166"/>
+      <c r="C8" s="157"/>
+      <c r="D8" s="157"/>
+      <c r="E8" s="157"/>
+      <c r="F8" s="157"/>
+      <c r="G8" s="157"/>
+      <c r="H8" s="157"/>
     </row>
     <row r="9" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="65"/>
-      <c r="B9" s="171" t="s">
+      <c r="B9" s="116" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="169"/>
-      <c r="D9" s="169"/>
-      <c r="E9" s="169"/>
-      <c r="F9" s="169"/>
-      <c r="G9" s="169"/>
-      <c r="H9" s="169"/>
+      <c r="C9" s="117"/>
+      <c r="D9" s="117"/>
+      <c r="E9" s="117"/>
+      <c r="F9" s="117"/>
+      <c r="G9" s="117"/>
+      <c r="H9" s="117"/>
     </row>
     <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="66"/>
-      <c r="B10" s="149"/>
-      <c r="C10" s="150"/>
-      <c r="D10" s="150"/>
-      <c r="E10" s="150"/>
-      <c r="F10" s="150"/>
-      <c r="G10" s="150"/>
-      <c r="H10" s="116"/>
+      <c r="B10" s="177"/>
+      <c r="C10" s="178"/>
+      <c r="D10" s="178"/>
+      <c r="E10" s="178"/>
+      <c r="F10" s="178"/>
+      <c r="G10" s="178"/>
+      <c r="H10" s="134"/>
     </row>
     <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="66"/>
-      <c r="B11" s="117"/>
-      <c r="C11" s="103"/>
-      <c r="D11" s="103"/>
-      <c r="E11" s="103"/>
-      <c r="F11" s="103"/>
-      <c r="G11" s="103"/>
-      <c r="H11" s="118"/>
+      <c r="B11" s="135"/>
+      <c r="C11" s="120"/>
+      <c r="D11" s="120"/>
+      <c r="E11" s="120"/>
+      <c r="F11" s="120"/>
+      <c r="G11" s="120"/>
+      <c r="H11" s="136"/>
     </row>
     <row r="12" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="66"/>
-      <c r="B12" s="117"/>
-      <c r="C12" s="103"/>
-      <c r="D12" s="103"/>
-      <c r="E12" s="103"/>
-      <c r="F12" s="103"/>
-      <c r="G12" s="103"/>
-      <c r="H12" s="118"/>
+      <c r="B12" s="135"/>
+      <c r="C12" s="120"/>
+      <c r="D12" s="120"/>
+      <c r="E12" s="120"/>
+      <c r="F12" s="120"/>
+      <c r="G12" s="120"/>
+      <c r="H12" s="136"/>
     </row>
     <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="66"/>
-      <c r="B13" s="117"/>
-      <c r="C13" s="103"/>
-      <c r="D13" s="103"/>
-      <c r="E13" s="103"/>
-      <c r="F13" s="103"/>
-      <c r="G13" s="103"/>
-      <c r="H13" s="118"/>
+      <c r="B13" s="135"/>
+      <c r="C13" s="120"/>
+      <c r="D13" s="120"/>
+      <c r="E13" s="120"/>
+      <c r="F13" s="120"/>
+      <c r="G13" s="120"/>
+      <c r="H13" s="136"/>
     </row>
     <row r="14" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="66"/>
-      <c r="B14" s="117"/>
-      <c r="C14" s="103"/>
-      <c r="D14" s="103"/>
-      <c r="E14" s="103"/>
-      <c r="F14" s="103"/>
-      <c r="G14" s="103"/>
-      <c r="H14" s="118"/>
+      <c r="B14" s="135"/>
+      <c r="C14" s="120"/>
+      <c r="D14" s="120"/>
+      <c r="E14" s="120"/>
+      <c r="F14" s="120"/>
+      <c r="G14" s="120"/>
+      <c r="H14" s="136"/>
     </row>
     <row r="15" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="66"/>
-      <c r="B15" s="117"/>
-      <c r="C15" s="103"/>
-      <c r="D15" s="103"/>
-      <c r="E15" s="103"/>
-      <c r="F15" s="103"/>
-      <c r="G15" s="103"/>
-      <c r="H15" s="118"/>
+      <c r="B15" s="135"/>
+      <c r="C15" s="120"/>
+      <c r="D15" s="120"/>
+      <c r="E15" s="120"/>
+      <c r="F15" s="120"/>
+      <c r="G15" s="120"/>
+      <c r="H15" s="136"/>
     </row>
     <row r="16" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="66"/>
-      <c r="B16" s="117"/>
-      <c r="C16" s="103"/>
-      <c r="D16" s="103"/>
-      <c r="E16" s="103"/>
-      <c r="F16" s="103"/>
-      <c r="G16" s="103"/>
-      <c r="H16" s="118"/>
+      <c r="B16" s="135"/>
+      <c r="C16" s="120"/>
+      <c r="D16" s="120"/>
+      <c r="E16" s="120"/>
+      <c r="F16" s="120"/>
+      <c r="G16" s="120"/>
+      <c r="H16" s="136"/>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="66"/>
-      <c r="B17" s="119"/>
-      <c r="C17" s="120"/>
-      <c r="D17" s="120"/>
-      <c r="E17" s="120"/>
-      <c r="F17" s="120"/>
-      <c r="G17" s="120"/>
-      <c r="H17" s="121"/>
+      <c r="B17" s="137"/>
+      <c r="C17" s="138"/>
+      <c r="D17" s="138"/>
+      <c r="E17" s="138"/>
+      <c r="F17" s="138"/>
+      <c r="G17" s="138"/>
+      <c r="H17" s="139"/>
     </row>
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="40"/>
-      <c r="B18" s="102"/>
-      <c r="C18" s="131"/>
-      <c r="D18" s="131"/>
-      <c r="E18" s="131"/>
-      <c r="F18" s="131"/>
-      <c r="G18" s="131"/>
-      <c r="H18" s="131"/>
+      <c r="B18" s="119"/>
+      <c r="C18" s="157"/>
+      <c r="D18" s="157"/>
+      <c r="E18" s="157"/>
+      <c r="F18" s="157"/>
+      <c r="G18" s="157"/>
+      <c r="H18" s="157"/>
     </row>
     <row r="19" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="67"/>
       <c r="B19" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="112" t="s">
+      <c r="C19" s="130" t="s">
         <v>20</v>
       </c>
-      <c r="D19" s="101"/>
-      <c r="E19" s="101"/>
-      <c r="F19" s="101"/>
-      <c r="G19" s="101"/>
-      <c r="H19" s="101"/>
+      <c r="D19" s="115"/>
+      <c r="E19" s="115"/>
+      <c r="F19" s="115"/>
+      <c r="G19" s="115"/>
+      <c r="H19" s="115"/>
     </row>
     <row r="20" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="65"/>
-      <c r="B20" s="171" t="s">
+      <c r="B20" s="116" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="169"/>
-      <c r="D20" s="169"/>
-      <c r="E20" s="169"/>
-      <c r="F20" s="169"/>
-      <c r="G20" s="169"/>
-      <c r="H20" s="169"/>
+      <c r="C20" s="117"/>
+      <c r="D20" s="117"/>
+      <c r="E20" s="117"/>
+      <c r="F20" s="117"/>
+      <c r="G20" s="117"/>
+      <c r="H20" s="117"/>
     </row>
     <row r="21" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="68"/>
@@ -8371,69 +8367,69 @@
     </row>
     <row r="39" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="72"/>
-      <c r="B39" s="151" t="s">
+      <c r="B39" s="179" t="s">
         <v>71</v>
       </c>
-      <c r="C39" s="123"/>
-      <c r="D39" s="123"/>
-      <c r="E39" s="123"/>
-      <c r="F39" s="123"/>
-      <c r="G39" s="123"/>
-      <c r="H39" s="123"/>
+      <c r="C39" s="144"/>
+      <c r="D39" s="144"/>
+      <c r="E39" s="144"/>
+      <c r="F39" s="144"/>
+      <c r="G39" s="144"/>
+      <c r="H39" s="144"/>
     </row>
     <row r="40" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="59"/>
-      <c r="B40" s="104" t="s">
+      <c r="B40" s="122" t="s">
         <v>255</v>
       </c>
-      <c r="C40" s="105"/>
-      <c r="D40" s="105"/>
-      <c r="E40" s="105"/>
-      <c r="F40" s="105"/>
-      <c r="G40" s="105"/>
-      <c r="H40" s="106"/>
+      <c r="C40" s="123"/>
+      <c r="D40" s="123"/>
+      <c r="E40" s="123"/>
+      <c r="F40" s="123"/>
+      <c r="G40" s="123"/>
+      <c r="H40" s="124"/>
     </row>
     <row r="41" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="59"/>
-      <c r="B41" s="107"/>
-      <c r="C41" s="101"/>
-      <c r="D41" s="101"/>
-      <c r="E41" s="101"/>
-      <c r="F41" s="101"/>
-      <c r="G41" s="101"/>
-      <c r="H41" s="108"/>
+      <c r="B41" s="125"/>
+      <c r="C41" s="115"/>
+      <c r="D41" s="115"/>
+      <c r="E41" s="115"/>
+      <c r="F41" s="115"/>
+      <c r="G41" s="115"/>
+      <c r="H41" s="126"/>
     </row>
     <row r="42" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="59"/>
-      <c r="B42" s="109"/>
-      <c r="C42" s="110"/>
-      <c r="D42" s="110"/>
-      <c r="E42" s="110"/>
-      <c r="F42" s="110"/>
-      <c r="G42" s="110"/>
-      <c r="H42" s="111"/>
+      <c r="B42" s="127"/>
+      <c r="C42" s="128"/>
+      <c r="D42" s="128"/>
+      <c r="E42" s="128"/>
+      <c r="F42" s="128"/>
+      <c r="G42" s="128"/>
+      <c r="H42" s="129"/>
     </row>
     <row r="43" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="40"/>
-      <c r="B43" s="102"/>
-      <c r="C43" s="131"/>
-      <c r="D43" s="131"/>
-      <c r="E43" s="131"/>
-      <c r="F43" s="131"/>
-      <c r="G43" s="131"/>
-      <c r="H43" s="131"/>
+      <c r="B43" s="119"/>
+      <c r="C43" s="157"/>
+      <c r="D43" s="157"/>
+      <c r="E43" s="157"/>
+      <c r="F43" s="157"/>
+      <c r="G43" s="157"/>
+      <c r="H43" s="157"/>
     </row>
     <row r="44" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="65"/>
-      <c r="B44" s="171" t="s">
+      <c r="B44" s="116" t="s">
         <v>72</v>
       </c>
-      <c r="C44" s="169"/>
-      <c r="D44" s="169"/>
-      <c r="E44" s="169"/>
-      <c r="F44" s="169"/>
-      <c r="G44" s="169"/>
-      <c r="H44" s="169"/>
+      <c r="C44" s="117"/>
+      <c r="D44" s="117"/>
+      <c r="E44" s="117"/>
+      <c r="F44" s="117"/>
+      <c r="G44" s="117"/>
+      <c r="H44" s="117"/>
     </row>
     <row r="45" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="73"/>
@@ -8446,12 +8442,12 @@
       <c r="D45" s="75" t="s">
         <v>24</v>
       </c>
-      <c r="E45" s="152" t="s">
+      <c r="E45" s="180" t="s">
         <v>73</v>
       </c>
-      <c r="F45" s="131"/>
-      <c r="G45" s="131"/>
-      <c r="H45" s="131"/>
+      <c r="F45" s="157"/>
+      <c r="G45" s="157"/>
+      <c r="H45" s="157"/>
     </row>
     <row r="46" spans="1:8" ht="14" x14ac:dyDescent="0.15">
       <c r="A46" s="57"/>
@@ -8464,12 +8460,12 @@
       <c r="D46" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="E46" s="94" t="s">
-        <v>74</v>
-      </c>
-      <c r="F46" s="95"/>
-      <c r="G46" s="95"/>
-      <c r="H46" s="95"/>
+      <c r="E46" s="107" t="s">
+        <v>74</v>
+      </c>
+      <c r="F46" s="108"/>
+      <c r="G46" s="108"/>
+      <c r="H46" s="108"/>
     </row>
     <row r="47" spans="1:8" ht="14" x14ac:dyDescent="0.15">
       <c r="A47" s="57"/>
@@ -8482,12 +8478,12 @@
       <c r="D47" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="E47" s="94" t="s">
-        <v>74</v>
-      </c>
-      <c r="F47" s="95"/>
-      <c r="G47" s="95"/>
-      <c r="H47" s="95"/>
+      <c r="E47" s="107" t="s">
+        <v>74</v>
+      </c>
+      <c r="F47" s="108"/>
+      <c r="G47" s="108"/>
+      <c r="H47" s="108"/>
     </row>
     <row r="48" spans="1:8" ht="42" x14ac:dyDescent="0.15">
       <c r="A48" s="57"/>
@@ -8500,12 +8496,12 @@
       <c r="D48" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="E48" s="94" t="s">
-        <v>74</v>
-      </c>
-      <c r="F48" s="95"/>
-      <c r="G48" s="95"/>
-      <c r="H48" s="95"/>
+      <c r="E48" s="107" t="s">
+        <v>74</v>
+      </c>
+      <c r="F48" s="108"/>
+      <c r="G48" s="108"/>
+      <c r="H48" s="108"/>
     </row>
     <row r="49" spans="1:8" ht="14" x14ac:dyDescent="0.15">
       <c r="A49" s="57"/>
@@ -8518,12 +8514,12 @@
       <c r="D49" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="E49" s="94" t="s">
-        <v>74</v>
-      </c>
-      <c r="F49" s="95"/>
-      <c r="G49" s="95"/>
-      <c r="H49" s="95"/>
+      <c r="E49" s="107" t="s">
+        <v>74</v>
+      </c>
+      <c r="F49" s="108"/>
+      <c r="G49" s="108"/>
+      <c r="H49" s="108"/>
     </row>
     <row r="50" spans="1:8" ht="84" x14ac:dyDescent="0.15">
       <c r="A50" s="57"/>
@@ -8536,12 +8532,12 @@
       <c r="D50" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="E50" s="94" t="s">
-        <v>74</v>
-      </c>
-      <c r="F50" s="95"/>
-      <c r="G50" s="95"/>
-      <c r="H50" s="95"/>
+      <c r="E50" s="107" t="s">
+        <v>74</v>
+      </c>
+      <c r="F50" s="108"/>
+      <c r="G50" s="108"/>
+      <c r="H50" s="108"/>
     </row>
     <row r="51" spans="1:8" ht="28" x14ac:dyDescent="0.15">
       <c r="A51" s="57"/>
@@ -8554,12 +8550,12 @@
       <c r="D51" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="E51" s="140" t="s">
+      <c r="E51" s="118" t="s">
         <v>180</v>
       </c>
-      <c r="F51" s="95"/>
-      <c r="G51" s="95"/>
-      <c r="H51" s="95"/>
+      <c r="F51" s="108"/>
+      <c r="G51" s="108"/>
+      <c r="H51" s="108"/>
     </row>
     <row r="52" spans="1:8" ht="28" x14ac:dyDescent="0.15">
       <c r="A52" s="57"/>
@@ -8572,12 +8568,12 @@
       <c r="D52" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="E52" s="94" t="s">
-        <v>74</v>
-      </c>
-      <c r="F52" s="95"/>
-      <c r="G52" s="95"/>
-      <c r="H52" s="95"/>
+      <c r="E52" s="107" t="s">
+        <v>74</v>
+      </c>
+      <c r="F52" s="108"/>
+      <c r="G52" s="108"/>
+      <c r="H52" s="108"/>
     </row>
     <row r="53" spans="1:8" ht="28" x14ac:dyDescent="0.15">
       <c r="A53" s="57"/>
@@ -8590,12 +8586,12 @@
       <c r="D53" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="E53" s="94" t="s">
-        <v>74</v>
-      </c>
-      <c r="F53" s="95"/>
-      <c r="G53" s="95"/>
-      <c r="H53" s="95"/>
+      <c r="E53" s="107" t="s">
+        <v>74</v>
+      </c>
+      <c r="F53" s="108"/>
+      <c r="G53" s="108"/>
+      <c r="H53" s="108"/>
     </row>
     <row r="54" spans="1:8" ht="14" x14ac:dyDescent="0.15">
       <c r="A54" s="57"/>
@@ -8608,48 +8604,48 @@
       <c r="D54" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="E54" s="94"/>
-      <c r="F54" s="95"/>
-      <c r="G54" s="95"/>
-      <c r="H54" s="95"/>
+      <c r="E54" s="107"/>
+      <c r="F54" s="108"/>
+      <c r="G54" s="108"/>
+      <c r="H54" s="108"/>
     </row>
     <row r="55" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="57"/>
-      <c r="B55" s="96">
-        <v>10</v>
-      </c>
-      <c r="C55" s="94" t="s">
+      <c r="B55" s="109">
+        <v>10</v>
+      </c>
+      <c r="C55" s="107" t="s">
         <v>129</v>
       </c>
-      <c r="D55" s="96" t="s">
-        <v>10</v>
-      </c>
-      <c r="E55" s="147" t="s">
+      <c r="D55" s="109" t="s">
+        <v>10</v>
+      </c>
+      <c r="E55" s="110" t="s">
         <v>258</v>
       </c>
-      <c r="F55" s="98"/>
-      <c r="G55" s="98"/>
-      <c r="H55" s="98"/>
+      <c r="F55" s="111"/>
+      <c r="G55" s="111"/>
+      <c r="H55" s="111"/>
     </row>
     <row r="56" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="57"/>
-      <c r="B56" s="95"/>
-      <c r="C56" s="95"/>
-      <c r="D56" s="95"/>
-      <c r="E56" s="98"/>
-      <c r="F56" s="98"/>
-      <c r="G56" s="98"/>
-      <c r="H56" s="98"/>
+      <c r="B56" s="108"/>
+      <c r="C56" s="108"/>
+      <c r="D56" s="108"/>
+      <c r="E56" s="111"/>
+      <c r="F56" s="111"/>
+      <c r="G56" s="111"/>
+      <c r="H56" s="111"/>
     </row>
     <row r="57" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="57"/>
-      <c r="B57" s="95"/>
-      <c r="C57" s="95"/>
-      <c r="D57" s="95"/>
-      <c r="E57" s="98"/>
-      <c r="F57" s="98"/>
-      <c r="G57" s="98"/>
-      <c r="H57" s="98"/>
+      <c r="B57" s="108"/>
+      <c r="C57" s="108"/>
+      <c r="D57" s="108"/>
+      <c r="E57" s="111"/>
+      <c r="F57" s="111"/>
+      <c r="G57" s="111"/>
+      <c r="H57" s="111"/>
     </row>
     <row r="58" spans="1:8" ht="14" x14ac:dyDescent="0.15">
       <c r="A58" s="58"/>
@@ -8662,12 +8658,12 @@
       <c r="D58" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="E58" s="95" t="s">
-        <v>74</v>
-      </c>
-      <c r="F58" s="95"/>
-      <c r="G58" s="95"/>
-      <c r="H58" s="95"/>
+      <c r="E58" s="108" t="s">
+        <v>74</v>
+      </c>
+      <c r="F58" s="108"/>
+      <c r="G58" s="108"/>
+      <c r="H58" s="108"/>
     </row>
     <row r="59" spans="1:8" ht="28" x14ac:dyDescent="0.15">
       <c r="A59" s="58"/>
@@ -8680,40 +8676,40 @@
       <c r="D59" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="E59" s="95" t="s">
-        <v>74</v>
-      </c>
-      <c r="F59" s="95"/>
-      <c r="G59" s="95"/>
-      <c r="H59" s="95"/>
+      <c r="E59" s="108" t="s">
+        <v>74</v>
+      </c>
+      <c r="F59" s="108"/>
+      <c r="G59" s="108"/>
+      <c r="H59" s="108"/>
     </row>
     <row r="60" spans="1:8" ht="114" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="57"/>
-      <c r="B60" s="96">
+      <c r="B60" s="109">
         <v>13</v>
       </c>
-      <c r="C60" s="94" t="s">
+      <c r="C60" s="107" t="s">
         <v>176</v>
       </c>
-      <c r="D60" s="96" t="s">
-        <v>10</v>
-      </c>
-      <c r="E60" s="147" t="s">
+      <c r="D60" s="109" t="s">
+        <v>10</v>
+      </c>
+      <c r="E60" s="110" t="s">
         <v>259</v>
       </c>
-      <c r="F60" s="98"/>
-      <c r="G60" s="98"/>
-      <c r="H60" s="98"/>
+      <c r="F60" s="111"/>
+      <c r="G60" s="111"/>
+      <c r="H60" s="111"/>
     </row>
     <row r="61" spans="1:8" ht="147" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="57"/>
-      <c r="B61" s="95"/>
-      <c r="C61" s="95"/>
-      <c r="D61" s="95"/>
-      <c r="E61" s="98"/>
-      <c r="F61" s="98"/>
-      <c r="G61" s="98"/>
-      <c r="H61" s="98"/>
+      <c r="B61" s="108"/>
+      <c r="C61" s="108"/>
+      <c r="D61" s="108"/>
+      <c r="E61" s="111"/>
+      <c r="F61" s="111"/>
+      <c r="G61" s="111"/>
+      <c r="H61" s="111"/>
     </row>
     <row r="62" spans="1:8" ht="14" x14ac:dyDescent="0.15">
       <c r="A62" s="57"/>
@@ -8726,78 +8722,78 @@
       <c r="D62" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="E62" s="95" t="s">
-        <v>74</v>
-      </c>
-      <c r="F62" s="95"/>
-      <c r="G62" s="95"/>
-      <c r="H62" s="95"/>
+      <c r="E62" s="108" t="s">
+        <v>74</v>
+      </c>
+      <c r="F62" s="108"/>
+      <c r="G62" s="108"/>
+      <c r="H62" s="108"/>
     </row>
     <row r="63" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="72"/>
-      <c r="B63" s="153" t="s">
+      <c r="B63" s="181" t="s">
         <v>71</v>
       </c>
-      <c r="C63" s="131"/>
-      <c r="D63" s="131"/>
-      <c r="E63" s="131"/>
-      <c r="F63" s="131"/>
-      <c r="G63" s="131"/>
-      <c r="H63" s="131"/>
+      <c r="C63" s="157"/>
+      <c r="D63" s="157"/>
+      <c r="E63" s="157"/>
+      <c r="F63" s="157"/>
+      <c r="G63" s="157"/>
+      <c r="H63" s="157"/>
     </row>
     <row r="64" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="76"/>
-      <c r="B64" s="154" t="s">
-        <v>74</v>
-      </c>
-      <c r="C64" s="105"/>
-      <c r="D64" s="105"/>
-      <c r="E64" s="105"/>
-      <c r="F64" s="105"/>
-      <c r="G64" s="105"/>
-      <c r="H64" s="106"/>
+      <c r="B64" s="182" t="s">
+        <v>74</v>
+      </c>
+      <c r="C64" s="123"/>
+      <c r="D64" s="123"/>
+      <c r="E64" s="123"/>
+      <c r="F64" s="123"/>
+      <c r="G64" s="123"/>
+      <c r="H64" s="124"/>
     </row>
     <row r="65" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="76"/>
-      <c r="B65" s="107"/>
-      <c r="C65" s="101"/>
-      <c r="D65" s="101"/>
-      <c r="E65" s="101"/>
-      <c r="F65" s="101"/>
-      <c r="G65" s="101"/>
-      <c r="H65" s="108"/>
+      <c r="B65" s="125"/>
+      <c r="C65" s="115"/>
+      <c r="D65" s="115"/>
+      <c r="E65" s="115"/>
+      <c r="F65" s="115"/>
+      <c r="G65" s="115"/>
+      <c r="H65" s="126"/>
     </row>
     <row r="66" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="76"/>
-      <c r="B66" s="109"/>
-      <c r="C66" s="110"/>
-      <c r="D66" s="110"/>
-      <c r="E66" s="110"/>
-      <c r="F66" s="110"/>
-      <c r="G66" s="110"/>
-      <c r="H66" s="111"/>
+      <c r="B66" s="127"/>
+      <c r="C66" s="128"/>
+      <c r="D66" s="128"/>
+      <c r="E66" s="128"/>
+      <c r="F66" s="128"/>
+      <c r="G66" s="128"/>
+      <c r="H66" s="129"/>
     </row>
     <row r="67" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="40"/>
-      <c r="B67" s="102"/>
-      <c r="C67" s="131"/>
-      <c r="D67" s="131"/>
-      <c r="E67" s="131"/>
-      <c r="F67" s="131"/>
-      <c r="G67" s="131"/>
-      <c r="H67" s="131"/>
+      <c r="B67" s="119"/>
+      <c r="C67" s="157"/>
+      <c r="D67" s="157"/>
+      <c r="E67" s="157"/>
+      <c r="F67" s="157"/>
+      <c r="G67" s="157"/>
+      <c r="H67" s="157"/>
     </row>
     <row r="68" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="65"/>
-      <c r="B68" s="171" t="s">
+      <c r="B68" s="116" t="s">
         <v>118</v>
       </c>
-      <c r="C68" s="169"/>
-      <c r="D68" s="169"/>
-      <c r="E68" s="169"/>
-      <c r="F68" s="169"/>
-      <c r="G68" s="169"/>
-      <c r="H68" s="169"/>
+      <c r="C68" s="117"/>
+      <c r="D68" s="117"/>
+      <c r="E68" s="117"/>
+      <c r="F68" s="117"/>
+      <c r="G68" s="117"/>
+      <c r="H68" s="117"/>
     </row>
     <row r="69" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="68"/>
@@ -8810,12 +8806,12 @@
       <c r="D69" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="E69" s="100" t="s">
+      <c r="E69" s="114" t="s">
         <v>73</v>
       </c>
-      <c r="F69" s="101"/>
-      <c r="G69" s="101"/>
-      <c r="H69" s="101"/>
+      <c r="F69" s="115"/>
+      <c r="G69" s="115"/>
+      <c r="H69" s="115"/>
     </row>
     <row r="70" spans="1:8" ht="14" x14ac:dyDescent="0.15">
       <c r="A70" s="59"/>
@@ -8828,12 +8824,12 @@
       <c r="D70" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="E70" s="146" t="s">
-        <v>74</v>
-      </c>
-      <c r="F70" s="95"/>
-      <c r="G70" s="95"/>
-      <c r="H70" s="95"/>
+      <c r="E70" s="175" t="s">
+        <v>74</v>
+      </c>
+      <c r="F70" s="108"/>
+      <c r="G70" s="108"/>
+      <c r="H70" s="108"/>
     </row>
     <row r="71" spans="1:8" ht="14" x14ac:dyDescent="0.15">
       <c r="A71" s="59"/>
@@ -8846,12 +8842,12 @@
       <c r="D71" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="E71" s="146" t="s">
-        <v>74</v>
-      </c>
-      <c r="F71" s="95"/>
-      <c r="G71" s="95"/>
-      <c r="H71" s="95"/>
+      <c r="E71" s="175" t="s">
+        <v>74</v>
+      </c>
+      <c r="F71" s="108"/>
+      <c r="G71" s="108"/>
+      <c r="H71" s="108"/>
     </row>
     <row r="72" spans="1:8" ht="14" x14ac:dyDescent="0.15">
       <c r="A72" s="59"/>
@@ -8864,10 +8860,10 @@
       <c r="D72" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="E72" s="94"/>
-      <c r="F72" s="95"/>
-      <c r="G72" s="95"/>
-      <c r="H72" s="95"/>
+      <c r="E72" s="107"/>
+      <c r="F72" s="108"/>
+      <c r="G72" s="108"/>
+      <c r="H72" s="108"/>
     </row>
     <row r="73" spans="1:8" ht="28" x14ac:dyDescent="0.15">
       <c r="A73" s="59"/>
@@ -8880,12 +8876,12 @@
       <c r="D73" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="E73" s="146" t="s">
-        <v>74</v>
-      </c>
-      <c r="F73" s="95"/>
-      <c r="G73" s="95"/>
-      <c r="H73" s="95"/>
+      <c r="E73" s="175" t="s">
+        <v>74</v>
+      </c>
+      <c r="F73" s="108"/>
+      <c r="G73" s="108"/>
+      <c r="H73" s="108"/>
     </row>
     <row r="74" spans="1:8" ht="14" x14ac:dyDescent="0.15">
       <c r="A74" s="59"/>
@@ -8898,12 +8894,12 @@
       <c r="D74" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="E74" s="146" t="s">
-        <v>74</v>
-      </c>
-      <c r="F74" s="95"/>
-      <c r="G74" s="95"/>
-      <c r="H74" s="95"/>
+      <c r="E74" s="175" t="s">
+        <v>74</v>
+      </c>
+      <c r="F74" s="108"/>
+      <c r="G74" s="108"/>
+      <c r="H74" s="108"/>
     </row>
     <row r="75" spans="1:8" ht="14" x14ac:dyDescent="0.15">
       <c r="A75" s="59"/>
@@ -8916,12 +8912,12 @@
       <c r="D75" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="E75" s="146" t="s">
-        <v>74</v>
-      </c>
-      <c r="F75" s="95"/>
-      <c r="G75" s="95"/>
-      <c r="H75" s="95"/>
+      <c r="E75" s="175" t="s">
+        <v>74</v>
+      </c>
+      <c r="F75" s="108"/>
+      <c r="G75" s="108"/>
+      <c r="H75" s="108"/>
     </row>
     <row r="76" spans="1:8" ht="14" x14ac:dyDescent="0.15">
       <c r="A76" s="59"/>
@@ -8934,12 +8930,12 @@
       <c r="D76" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="E76" s="146" t="s">
-        <v>74</v>
-      </c>
-      <c r="F76" s="95"/>
-      <c r="G76" s="95"/>
-      <c r="H76" s="95"/>
+      <c r="E76" s="175" t="s">
+        <v>74</v>
+      </c>
+      <c r="F76" s="108"/>
+      <c r="G76" s="108"/>
+      <c r="H76" s="108"/>
     </row>
     <row r="77" spans="1:8" ht="56" x14ac:dyDescent="0.15">
       <c r="A77" s="59"/>
@@ -8952,12 +8948,12 @@
       <c r="D77" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="E77" s="97" t="s">
+      <c r="E77" s="112" t="s">
         <v>169</v>
       </c>
-      <c r="F77" s="98"/>
-      <c r="G77" s="98"/>
-      <c r="H77" s="98"/>
+      <c r="F77" s="111"/>
+      <c r="G77" s="111"/>
+      <c r="H77" s="111"/>
     </row>
     <row r="78" spans="1:8" ht="14" x14ac:dyDescent="0.15">
       <c r="A78" s="59"/>
@@ -8970,40 +8966,40 @@
       <c r="D78" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="E78" s="146" t="s">
-        <v>74</v>
-      </c>
-      <c r="F78" s="95"/>
-      <c r="G78" s="95"/>
-      <c r="H78" s="95"/>
+      <c r="E78" s="175" t="s">
+        <v>74</v>
+      </c>
+      <c r="F78" s="108"/>
+      <c r="G78" s="108"/>
+      <c r="H78" s="108"/>
     </row>
     <row r="79" spans="1:8" ht="140.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A79" s="59"/>
-      <c r="B79" s="96">
-        <v>10</v>
-      </c>
-      <c r="C79" s="94" t="s">
+      <c r="B79" s="109">
+        <v>10</v>
+      </c>
+      <c r="C79" s="107" t="s">
         <v>153</v>
       </c>
-      <c r="D79" s="96" t="s">
-        <v>10</v>
-      </c>
-      <c r="E79" s="97" t="s">
+      <c r="D79" s="109" t="s">
+        <v>10</v>
+      </c>
+      <c r="E79" s="112" t="s">
         <v>171</v>
       </c>
-      <c r="F79" s="98"/>
-      <c r="G79" s="98"/>
-      <c r="H79" s="98"/>
+      <c r="F79" s="111"/>
+      <c r="G79" s="111"/>
+      <c r="H79" s="111"/>
     </row>
     <row r="80" spans="1:8" ht="174" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="59"/>
-      <c r="B80" s="95"/>
-      <c r="C80" s="95"/>
-      <c r="D80" s="95"/>
-      <c r="E80" s="98"/>
-      <c r="F80" s="98"/>
-      <c r="G80" s="98"/>
-      <c r="H80" s="98"/>
+      <c r="B80" s="108"/>
+      <c r="C80" s="108"/>
+      <c r="D80" s="108"/>
+      <c r="E80" s="111"/>
+      <c r="F80" s="111"/>
+      <c r="G80" s="111"/>
+      <c r="H80" s="111"/>
     </row>
     <row r="81" spans="1:8" ht="14" x14ac:dyDescent="0.15">
       <c r="A81" s="59"/>
@@ -9016,10 +9012,10 @@
       <c r="D81" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="E81" s="94"/>
-      <c r="F81" s="95"/>
-      <c r="G81" s="95"/>
-      <c r="H81" s="95"/>
+      <c r="E81" s="107"/>
+      <c r="F81" s="108"/>
+      <c r="G81" s="108"/>
+      <c r="H81" s="108"/>
     </row>
     <row r="82" spans="1:8" ht="14" x14ac:dyDescent="0.15">
       <c r="A82" s="59"/>
@@ -9032,12 +9028,12 @@
       <c r="D82" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="E82" s="146" t="s">
-        <v>74</v>
-      </c>
-      <c r="F82" s="95"/>
-      <c r="G82" s="95"/>
-      <c r="H82" s="95"/>
+      <c r="E82" s="175" t="s">
+        <v>74</v>
+      </c>
+      <c r="F82" s="108"/>
+      <c r="G82" s="108"/>
+      <c r="H82" s="108"/>
     </row>
     <row r="83" spans="1:8" ht="95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A83" s="59"/>
@@ -9050,78 +9046,78 @@
       <c r="D83" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="E83" s="147" t="s">
+      <c r="E83" s="110" t="s">
         <v>214</v>
       </c>
-      <c r="F83" s="98"/>
-      <c r="G83" s="98"/>
-      <c r="H83" s="98"/>
+      <c r="F83" s="111"/>
+      <c r="G83" s="111"/>
+      <c r="H83" s="111"/>
     </row>
     <row r="84" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A84" s="72"/>
-      <c r="B84" s="126" t="s">
+      <c r="B84" s="152" t="s">
         <v>71</v>
       </c>
-      <c r="C84" s="101"/>
-      <c r="D84" s="101"/>
-      <c r="E84" s="101"/>
-      <c r="F84" s="101"/>
-      <c r="G84" s="101"/>
-      <c r="H84" s="101"/>
+      <c r="C84" s="115"/>
+      <c r="D84" s="115"/>
+      <c r="E84" s="115"/>
+      <c r="F84" s="115"/>
+      <c r="G84" s="115"/>
+      <c r="H84" s="115"/>
     </row>
     <row r="85" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A85" s="59"/>
-      <c r="B85" s="104" t="s">
+      <c r="B85" s="122" t="s">
         <v>81</v>
       </c>
-      <c r="C85" s="105"/>
-      <c r="D85" s="105"/>
-      <c r="E85" s="105"/>
-      <c r="F85" s="105"/>
-      <c r="G85" s="105"/>
-      <c r="H85" s="106"/>
+      <c r="C85" s="123"/>
+      <c r="D85" s="123"/>
+      <c r="E85" s="123"/>
+      <c r="F85" s="123"/>
+      <c r="G85" s="123"/>
+      <c r="H85" s="124"/>
     </row>
     <row r="86" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A86" s="59"/>
-      <c r="B86" s="107"/>
-      <c r="C86" s="101"/>
-      <c r="D86" s="101"/>
-      <c r="E86" s="101"/>
-      <c r="F86" s="101"/>
-      <c r="G86" s="101"/>
-      <c r="H86" s="108"/>
+      <c r="B86" s="125"/>
+      <c r="C86" s="115"/>
+      <c r="D86" s="115"/>
+      <c r="E86" s="115"/>
+      <c r="F86" s="115"/>
+      <c r="G86" s="115"/>
+      <c r="H86" s="126"/>
     </row>
     <row r="87" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A87" s="59"/>
-      <c r="B87" s="109"/>
-      <c r="C87" s="110"/>
-      <c r="D87" s="110"/>
-      <c r="E87" s="110"/>
-      <c r="F87" s="110"/>
-      <c r="G87" s="110"/>
-      <c r="H87" s="111"/>
+      <c r="B87" s="127"/>
+      <c r="C87" s="128"/>
+      <c r="D87" s="128"/>
+      <c r="E87" s="128"/>
+      <c r="F87" s="128"/>
+      <c r="G87" s="128"/>
+      <c r="H87" s="129"/>
     </row>
     <row r="88" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A88" s="40"/>
-      <c r="B88" s="102"/>
-      <c r="C88" s="131"/>
-      <c r="D88" s="131"/>
-      <c r="E88" s="131"/>
-      <c r="F88" s="131"/>
-      <c r="G88" s="131"/>
-      <c r="H88" s="131"/>
+      <c r="B88" s="119"/>
+      <c r="C88" s="157"/>
+      <c r="D88" s="157"/>
+      <c r="E88" s="157"/>
+      <c r="F88" s="157"/>
+      <c r="G88" s="157"/>
+      <c r="H88" s="157"/>
     </row>
     <row r="89" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A89" s="65"/>
-      <c r="B89" s="171" t="s">
+      <c r="B89" s="116" t="s">
         <v>82</v>
       </c>
-      <c r="C89" s="169"/>
-      <c r="D89" s="169"/>
-      <c r="E89" s="169"/>
-      <c r="F89" s="169"/>
-      <c r="G89" s="169"/>
-      <c r="H89" s="169"/>
+      <c r="C89" s="117"/>
+      <c r="D89" s="117"/>
+      <c r="E89" s="117"/>
+      <c r="F89" s="117"/>
+      <c r="G89" s="117"/>
+      <c r="H89" s="117"/>
     </row>
     <row r="90" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A90" s="68"/>
@@ -9134,12 +9130,12 @@
       <c r="D90" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="E90" s="100" t="s">
+      <c r="E90" s="114" t="s">
         <v>73</v>
       </c>
-      <c r="F90" s="101"/>
-      <c r="G90" s="101"/>
-      <c r="H90" s="101"/>
+      <c r="F90" s="115"/>
+      <c r="G90" s="115"/>
+      <c r="H90" s="115"/>
     </row>
     <row r="91" spans="1:8" ht="14" x14ac:dyDescent="0.15">
       <c r="A91" s="57"/>
@@ -9152,12 +9148,12 @@
       <c r="D91" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="E91" s="94" t="s">
-        <v>74</v>
-      </c>
-      <c r="F91" s="95"/>
-      <c r="G91" s="95"/>
-      <c r="H91" s="95"/>
+      <c r="E91" s="107" t="s">
+        <v>74</v>
+      </c>
+      <c r="F91" s="108"/>
+      <c r="G91" s="108"/>
+      <c r="H91" s="108"/>
     </row>
     <row r="92" spans="1:8" ht="14" x14ac:dyDescent="0.15">
       <c r="A92" s="57"/>
@@ -9170,12 +9166,12 @@
       <c r="D92" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="E92" s="94" t="s">
-        <v>74</v>
-      </c>
-      <c r="F92" s="95"/>
-      <c r="G92" s="95"/>
-      <c r="H92" s="95"/>
+      <c r="E92" s="107" t="s">
+        <v>74</v>
+      </c>
+      <c r="F92" s="108"/>
+      <c r="G92" s="108"/>
+      <c r="H92" s="108"/>
     </row>
     <row r="93" spans="1:8" ht="14" x14ac:dyDescent="0.15">
       <c r="A93" s="57"/>
@@ -9188,12 +9184,12 @@
       <c r="D93" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="E93" s="94" t="s">
-        <v>74</v>
-      </c>
-      <c r="F93" s="95"/>
-      <c r="G93" s="95"/>
-      <c r="H93" s="95"/>
+      <c r="E93" s="107" t="s">
+        <v>74</v>
+      </c>
+      <c r="F93" s="108"/>
+      <c r="G93" s="108"/>
+      <c r="H93" s="108"/>
     </row>
     <row r="94" spans="1:8" ht="28" x14ac:dyDescent="0.15">
       <c r="A94" s="57"/>
@@ -9206,12 +9202,12 @@
       <c r="D94" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="E94" s="94" t="s">
-        <v>74</v>
-      </c>
-      <c r="F94" s="95"/>
-      <c r="G94" s="95"/>
-      <c r="H94" s="95"/>
+      <c r="E94" s="107" t="s">
+        <v>74</v>
+      </c>
+      <c r="F94" s="108"/>
+      <c r="G94" s="108"/>
+      <c r="H94" s="108"/>
     </row>
     <row r="95" spans="1:8" ht="14" x14ac:dyDescent="0.15">
       <c r="A95" s="57"/>
@@ -9224,12 +9220,12 @@
       <c r="D95" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="E95" s="140" t="s">
-        <v>74</v>
-      </c>
-      <c r="F95" s="95"/>
-      <c r="G95" s="95"/>
-      <c r="H95" s="95"/>
+      <c r="E95" s="118" t="s">
+        <v>74</v>
+      </c>
+      <c r="F95" s="108"/>
+      <c r="G95" s="108"/>
+      <c r="H95" s="108"/>
     </row>
     <row r="96" spans="1:8" ht="28" x14ac:dyDescent="0.15">
       <c r="A96" s="57"/>
@@ -9242,76 +9238,76 @@
       <c r="D96" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="E96" s="94" t="s">
-        <v>74</v>
-      </c>
-      <c r="F96" s="95"/>
-      <c r="G96" s="95"/>
-      <c r="H96" s="95"/>
+      <c r="E96" s="107" t="s">
+        <v>74</v>
+      </c>
+      <c r="F96" s="108"/>
+      <c r="G96" s="108"/>
+      <c r="H96" s="108"/>
     </row>
     <row r="97" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A97" s="72"/>
-      <c r="B97" s="126" t="s">
+      <c r="B97" s="152" t="s">
         <v>71</v>
       </c>
-      <c r="C97" s="101"/>
-      <c r="D97" s="101"/>
-      <c r="E97" s="101"/>
-      <c r="F97" s="101"/>
-      <c r="G97" s="101"/>
-      <c r="H97" s="101"/>
+      <c r="C97" s="115"/>
+      <c r="D97" s="115"/>
+      <c r="E97" s="115"/>
+      <c r="F97" s="115"/>
+      <c r="G97" s="115"/>
+      <c r="H97" s="115"/>
     </row>
     <row r="98" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A98" s="2"/>
-      <c r="B98" s="136"/>
-      <c r="C98" s="105"/>
-      <c r="D98" s="105"/>
-      <c r="E98" s="105"/>
-      <c r="F98" s="105"/>
-      <c r="G98" s="105"/>
-      <c r="H98" s="106"/>
+      <c r="B98" s="162"/>
+      <c r="C98" s="123"/>
+      <c r="D98" s="123"/>
+      <c r="E98" s="123"/>
+      <c r="F98" s="123"/>
+      <c r="G98" s="123"/>
+      <c r="H98" s="124"/>
     </row>
     <row r="99" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A99" s="2"/>
-      <c r="B99" s="107"/>
-      <c r="C99" s="101"/>
-      <c r="D99" s="101"/>
-      <c r="E99" s="101"/>
-      <c r="F99" s="101"/>
-      <c r="G99" s="101"/>
-      <c r="H99" s="108"/>
+      <c r="B99" s="125"/>
+      <c r="C99" s="115"/>
+      <c r="D99" s="115"/>
+      <c r="E99" s="115"/>
+      <c r="F99" s="115"/>
+      <c r="G99" s="115"/>
+      <c r="H99" s="126"/>
     </row>
     <row r="100" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A100" s="2"/>
-      <c r="B100" s="109"/>
-      <c r="C100" s="110"/>
-      <c r="D100" s="110"/>
-      <c r="E100" s="110"/>
-      <c r="F100" s="110"/>
-      <c r="G100" s="110"/>
-      <c r="H100" s="111"/>
+      <c r="B100" s="127"/>
+      <c r="C100" s="128"/>
+      <c r="D100" s="128"/>
+      <c r="E100" s="128"/>
+      <c r="F100" s="128"/>
+      <c r="G100" s="128"/>
+      <c r="H100" s="129"/>
     </row>
     <row r="101" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A101" s="40"/>
-      <c r="B101" s="102"/>
-      <c r="C101" s="131"/>
-      <c r="D101" s="131"/>
-      <c r="E101" s="131"/>
-      <c r="F101" s="131"/>
-      <c r="G101" s="131"/>
-      <c r="H101" s="131"/>
+      <c r="B101" s="119"/>
+      <c r="C101" s="157"/>
+      <c r="D101" s="157"/>
+      <c r="E101" s="157"/>
+      <c r="F101" s="157"/>
+      <c r="G101" s="157"/>
+      <c r="H101" s="157"/>
     </row>
     <row r="102" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A102" s="65"/>
-      <c r="B102" s="171" t="s">
+      <c r="B102" s="116" t="s">
         <v>89</v>
       </c>
-      <c r="C102" s="169"/>
-      <c r="D102" s="169"/>
-      <c r="E102" s="169"/>
-      <c r="F102" s="169"/>
-      <c r="G102" s="169"/>
-      <c r="H102" s="169"/>
+      <c r="C102" s="117"/>
+      <c r="D102" s="117"/>
+      <c r="E102" s="117"/>
+      <c r="F102" s="117"/>
+      <c r="G102" s="117"/>
+      <c r="H102" s="117"/>
     </row>
     <row r="103" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A103" s="77"/>
@@ -9324,12 +9320,12 @@
       <c r="D103" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="E103" s="100" t="s">
+      <c r="E103" s="114" t="s">
         <v>73</v>
       </c>
-      <c r="F103" s="101"/>
-      <c r="G103" s="101"/>
-      <c r="H103" s="101"/>
+      <c r="F103" s="115"/>
+      <c r="G103" s="115"/>
+      <c r="H103" s="115"/>
     </row>
     <row r="104" spans="1:8" ht="14" x14ac:dyDescent="0.15">
       <c r="A104" s="57"/>
@@ -9342,12 +9338,12 @@
       <c r="D104" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="E104" s="94" t="s">
-        <v>74</v>
-      </c>
-      <c r="F104" s="95"/>
-      <c r="G104" s="95"/>
-      <c r="H104" s="95"/>
+      <c r="E104" s="107" t="s">
+        <v>74</v>
+      </c>
+      <c r="F104" s="108"/>
+      <c r="G104" s="108"/>
+      <c r="H104" s="108"/>
     </row>
     <row r="105" spans="1:8" ht="14" x14ac:dyDescent="0.15">
       <c r="A105" s="57"/>
@@ -9360,12 +9356,12 @@
       <c r="D105" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="E105" s="94" t="s">
-        <v>74</v>
-      </c>
-      <c r="F105" s="95"/>
-      <c r="G105" s="95"/>
-      <c r="H105" s="95"/>
+      <c r="E105" s="107" t="s">
+        <v>74</v>
+      </c>
+      <c r="F105" s="108"/>
+      <c r="G105" s="108"/>
+      <c r="H105" s="108"/>
     </row>
     <row r="106" spans="1:8" ht="28" x14ac:dyDescent="0.15">
       <c r="A106" s="57"/>
@@ -9378,12 +9374,12 @@
       <c r="D106" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="E106" s="94" t="s">
-        <v>74</v>
-      </c>
-      <c r="F106" s="95"/>
-      <c r="G106" s="95"/>
-      <c r="H106" s="95"/>
+      <c r="E106" s="107" t="s">
+        <v>74</v>
+      </c>
+      <c r="F106" s="108"/>
+      <c r="G106" s="108"/>
+      <c r="H106" s="108"/>
     </row>
     <row r="107" spans="1:8" ht="28" x14ac:dyDescent="0.15">
       <c r="A107" s="57"/>
@@ -9396,12 +9392,12 @@
       <c r="D107" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="E107" s="94" t="s">
-        <v>74</v>
-      </c>
-      <c r="F107" s="95"/>
-      <c r="G107" s="95"/>
-      <c r="H107" s="95"/>
+      <c r="E107" s="107" t="s">
+        <v>74</v>
+      </c>
+      <c r="F107" s="108"/>
+      <c r="G107" s="108"/>
+      <c r="H107" s="108"/>
     </row>
     <row r="108" spans="1:8" ht="42" x14ac:dyDescent="0.15">
       <c r="A108" s="57"/>
@@ -9414,12 +9410,12 @@
       <c r="D108" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="E108" s="94" t="s">
-        <v>74</v>
-      </c>
-      <c r="F108" s="95"/>
-      <c r="G108" s="95"/>
-      <c r="H108" s="95"/>
+      <c r="E108" s="107" t="s">
+        <v>74</v>
+      </c>
+      <c r="F108" s="108"/>
+      <c r="G108" s="108"/>
+      <c r="H108" s="108"/>
     </row>
     <row r="109" spans="1:8" ht="14" x14ac:dyDescent="0.15">
       <c r="A109" s="57"/>
@@ -9432,12 +9428,12 @@
       <c r="D109" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="E109" s="94" t="s">
-        <v>74</v>
-      </c>
-      <c r="F109" s="95"/>
-      <c r="G109" s="95"/>
-      <c r="H109" s="95"/>
+      <c r="E109" s="107" t="s">
+        <v>74</v>
+      </c>
+      <c r="F109" s="108"/>
+      <c r="G109" s="108"/>
+      <c r="H109" s="108"/>
     </row>
     <row r="110" spans="1:8" ht="28" x14ac:dyDescent="0.15">
       <c r="A110" s="57"/>
@@ -9450,12 +9446,12 @@
       <c r="D110" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="E110" s="94" t="s">
-        <v>74</v>
-      </c>
-      <c r="F110" s="95"/>
-      <c r="G110" s="95"/>
-      <c r="H110" s="95"/>
+      <c r="E110" s="107" t="s">
+        <v>74</v>
+      </c>
+      <c r="F110" s="108"/>
+      <c r="G110" s="108"/>
+      <c r="H110" s="108"/>
     </row>
     <row r="111" spans="1:8" ht="14" x14ac:dyDescent="0.15">
       <c r="A111" s="57"/>
@@ -9468,12 +9464,12 @@
       <c r="D111" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="E111" s="94" t="s">
-        <v>74</v>
-      </c>
-      <c r="F111" s="95"/>
-      <c r="G111" s="95"/>
-      <c r="H111" s="95"/>
+      <c r="E111" s="107" t="s">
+        <v>74</v>
+      </c>
+      <c r="F111" s="108"/>
+      <c r="G111" s="108"/>
+      <c r="H111" s="108"/>
     </row>
     <row r="112" spans="1:8" ht="28" x14ac:dyDescent="0.15">
       <c r="A112" s="57"/>
@@ -9486,12 +9482,12 @@
       <c r="D112" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="E112" s="94" t="s">
-        <v>74</v>
-      </c>
-      <c r="F112" s="95"/>
-      <c r="G112" s="95"/>
-      <c r="H112" s="95"/>
+      <c r="E112" s="107" t="s">
+        <v>74</v>
+      </c>
+      <c r="F112" s="108"/>
+      <c r="G112" s="108"/>
+      <c r="H112" s="108"/>
     </row>
     <row r="113" spans="1:8" ht="28" x14ac:dyDescent="0.15">
       <c r="A113" s="57"/>
@@ -9504,12 +9500,12 @@
       <c r="D113" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="E113" s="94" t="s">
-        <v>74</v>
-      </c>
-      <c r="F113" s="95"/>
-      <c r="G113" s="95"/>
-      <c r="H113" s="95"/>
+      <c r="E113" s="107" t="s">
+        <v>74</v>
+      </c>
+      <c r="F113" s="108"/>
+      <c r="G113" s="108"/>
+      <c r="H113" s="108"/>
     </row>
     <row r="114" spans="1:8" ht="28" x14ac:dyDescent="0.15">
       <c r="A114" s="57"/>
@@ -9522,12 +9518,12 @@
       <c r="D114" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="E114" s="94" t="s">
-        <v>74</v>
-      </c>
-      <c r="F114" s="95"/>
-      <c r="G114" s="95"/>
-      <c r="H114" s="95"/>
+      <c r="E114" s="107" t="s">
+        <v>74</v>
+      </c>
+      <c r="F114" s="108"/>
+      <c r="G114" s="108"/>
+      <c r="H114" s="108"/>
     </row>
     <row r="115" spans="1:8" ht="14" x14ac:dyDescent="0.15">
       <c r="A115" s="57"/>
@@ -9540,12 +9536,12 @@
       <c r="D115" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="E115" s="94" t="s">
-        <v>74</v>
-      </c>
-      <c r="F115" s="95"/>
-      <c r="G115" s="95"/>
-      <c r="H115" s="95"/>
+      <c r="E115" s="107" t="s">
+        <v>74</v>
+      </c>
+      <c r="F115" s="108"/>
+      <c r="G115" s="108"/>
+      <c r="H115" s="108"/>
     </row>
     <row r="116" spans="1:8" ht="157" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A116" s="58"/>
@@ -9558,78 +9554,78 @@
       <c r="D116" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="E116" s="94" t="s">
+      <c r="E116" s="107" t="s">
         <v>254</v>
       </c>
-      <c r="F116" s="95"/>
-      <c r="G116" s="95"/>
-      <c r="H116" s="95"/>
+      <c r="F116" s="108"/>
+      <c r="G116" s="108"/>
+      <c r="H116" s="108"/>
     </row>
     <row r="117" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A117" s="67"/>
-      <c r="B117" s="126" t="s">
+      <c r="B117" s="152" t="s">
         <v>71</v>
       </c>
-      <c r="C117" s="101"/>
-      <c r="D117" s="101"/>
-      <c r="E117" s="101"/>
-      <c r="F117" s="101"/>
-      <c r="G117" s="101"/>
-      <c r="H117" s="101"/>
+      <c r="C117" s="115"/>
+      <c r="D117" s="115"/>
+      <c r="E117" s="115"/>
+      <c r="F117" s="115"/>
+      <c r="G117" s="115"/>
+      <c r="H117" s="115"/>
     </row>
     <row r="118" spans="1:8" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A118" s="59"/>
-      <c r="B118" s="104" t="s">
+      <c r="B118" s="122" t="s">
         <v>205</v>
       </c>
-      <c r="C118" s="105"/>
-      <c r="D118" s="105"/>
-      <c r="E118" s="105"/>
-      <c r="F118" s="105"/>
-      <c r="G118" s="105"/>
-      <c r="H118" s="106"/>
+      <c r="C118" s="123"/>
+      <c r="D118" s="123"/>
+      <c r="E118" s="123"/>
+      <c r="F118" s="123"/>
+      <c r="G118" s="123"/>
+      <c r="H118" s="124"/>
     </row>
     <row r="119" spans="1:8" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A119" s="59"/>
-      <c r="B119" s="107"/>
-      <c r="C119" s="101"/>
-      <c r="D119" s="101"/>
-      <c r="E119" s="101"/>
-      <c r="F119" s="101"/>
-      <c r="G119" s="101"/>
-      <c r="H119" s="108"/>
+      <c r="B119" s="125"/>
+      <c r="C119" s="115"/>
+      <c r="D119" s="115"/>
+      <c r="E119" s="115"/>
+      <c r="F119" s="115"/>
+      <c r="G119" s="115"/>
+      <c r="H119" s="126"/>
     </row>
     <row r="120" spans="1:8" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A120" s="59"/>
-      <c r="B120" s="109"/>
-      <c r="C120" s="110"/>
-      <c r="D120" s="110"/>
-      <c r="E120" s="110"/>
-      <c r="F120" s="110"/>
-      <c r="G120" s="110"/>
-      <c r="H120" s="111"/>
+      <c r="B120" s="127"/>
+      <c r="C120" s="128"/>
+      <c r="D120" s="128"/>
+      <c r="E120" s="128"/>
+      <c r="F120" s="128"/>
+      <c r="G120" s="128"/>
+      <c r="H120" s="129"/>
     </row>
     <row r="121" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A121" s="40"/>
-      <c r="B121" s="102"/>
-      <c r="C121" s="131"/>
-      <c r="D121" s="131"/>
-      <c r="E121" s="131"/>
-      <c r="F121" s="131"/>
-      <c r="G121" s="131"/>
-      <c r="H121" s="131"/>
+      <c r="B121" s="119"/>
+      <c r="C121" s="157"/>
+      <c r="D121" s="157"/>
+      <c r="E121" s="157"/>
+      <c r="F121" s="157"/>
+      <c r="G121" s="157"/>
+      <c r="H121" s="157"/>
     </row>
     <row r="122" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A122" s="65"/>
-      <c r="B122" s="171" t="s">
+      <c r="B122" s="116" t="s">
         <v>104</v>
       </c>
-      <c r="C122" s="169"/>
-      <c r="D122" s="169"/>
-      <c r="E122" s="169"/>
-      <c r="F122" s="169"/>
-      <c r="G122" s="169"/>
-      <c r="H122" s="169"/>
+      <c r="C122" s="117"/>
+      <c r="D122" s="117"/>
+      <c r="E122" s="117"/>
+      <c r="F122" s="117"/>
+      <c r="G122" s="117"/>
+      <c r="H122" s="117"/>
     </row>
     <row r="123" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A123" s="77"/>
@@ -9642,12 +9638,12 @@
       <c r="D123" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="E123" s="100" t="s">
+      <c r="E123" s="114" t="s">
         <v>73</v>
       </c>
-      <c r="F123" s="101"/>
-      <c r="G123" s="101"/>
-      <c r="H123" s="101"/>
+      <c r="F123" s="115"/>
+      <c r="G123" s="115"/>
+      <c r="H123" s="115"/>
     </row>
     <row r="124" spans="1:8" ht="42" x14ac:dyDescent="0.15">
       <c r="A124" s="57"/>
@@ -9660,12 +9656,12 @@
       <c r="D124" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="E124" s="94" t="s">
-        <v>74</v>
-      </c>
-      <c r="F124" s="125"/>
-      <c r="G124" s="125"/>
-      <c r="H124" s="125"/>
+      <c r="E124" s="107" t="s">
+        <v>74</v>
+      </c>
+      <c r="F124" s="151"/>
+      <c r="G124" s="151"/>
+      <c r="H124" s="151"/>
     </row>
     <row r="125" spans="1:8" ht="42" x14ac:dyDescent="0.15">
       <c r="A125" s="57"/>
@@ -9678,12 +9674,12 @@
       <c r="D125" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="E125" s="94" t="s">
-        <v>74</v>
-      </c>
-      <c r="F125" s="125"/>
-      <c r="G125" s="125"/>
-      <c r="H125" s="125"/>
+      <c r="E125" s="107" t="s">
+        <v>74</v>
+      </c>
+      <c r="F125" s="151"/>
+      <c r="G125" s="151"/>
+      <c r="H125" s="151"/>
     </row>
     <row r="126" spans="1:8" ht="56" x14ac:dyDescent="0.15">
       <c r="A126" s="57"/>
@@ -9696,12 +9692,12 @@
       <c r="D126" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="E126" s="94" t="s">
-        <v>74</v>
-      </c>
-      <c r="F126" s="125"/>
-      <c r="G126" s="125"/>
-      <c r="H126" s="125"/>
+      <c r="E126" s="107" t="s">
+        <v>74</v>
+      </c>
+      <c r="F126" s="151"/>
+      <c r="G126" s="151"/>
+      <c r="H126" s="151"/>
     </row>
     <row r="127" spans="1:8" ht="56" x14ac:dyDescent="0.15">
       <c r="A127" s="57"/>
@@ -9714,12 +9710,12 @@
       <c r="D127" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="E127" s="94" t="s">
-        <v>74</v>
-      </c>
-      <c r="F127" s="125"/>
-      <c r="G127" s="125"/>
-      <c r="H127" s="125"/>
+      <c r="E127" s="107" t="s">
+        <v>74</v>
+      </c>
+      <c r="F127" s="151"/>
+      <c r="G127" s="151"/>
+      <c r="H127" s="151"/>
     </row>
     <row r="128" spans="1:8" ht="62" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A128" s="57"/>
@@ -9732,12 +9728,12 @@
       <c r="D128" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="E128" s="99" t="s">
+      <c r="E128" s="113" t="s">
         <v>206</v>
       </c>
-      <c r="F128" s="125"/>
-      <c r="G128" s="125"/>
-      <c r="H128" s="125"/>
+      <c r="F128" s="151"/>
+      <c r="G128" s="151"/>
+      <c r="H128" s="151"/>
     </row>
     <row r="129" spans="1:8" ht="70" x14ac:dyDescent="0.15">
       <c r="A129" s="57"/>
@@ -9750,68 +9746,68 @@
       <c r="D129" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="E129" s="94" t="s">
-        <v>74</v>
-      </c>
-      <c r="F129" s="125"/>
-      <c r="G129" s="125"/>
-      <c r="H129" s="125"/>
+      <c r="E129" s="107" t="s">
+        <v>74</v>
+      </c>
+      <c r="F129" s="151"/>
+      <c r="G129" s="151"/>
+      <c r="H129" s="151"/>
     </row>
     <row r="130" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A130" s="67"/>
-      <c r="B130" s="126" t="s">
+      <c r="B130" s="152" t="s">
         <v>71</v>
       </c>
-      <c r="C130" s="101"/>
-      <c r="D130" s="101"/>
-      <c r="E130" s="101"/>
-      <c r="F130" s="101"/>
-      <c r="G130" s="101"/>
-      <c r="H130" s="101"/>
+      <c r="C130" s="115"/>
+      <c r="D130" s="115"/>
+      <c r="E130" s="115"/>
+      <c r="F130" s="115"/>
+      <c r="G130" s="115"/>
+      <c r="H130" s="115"/>
     </row>
     <row r="131" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A131" s="59"/>
-      <c r="B131" s="104" t="s">
+      <c r="B131" s="122" t="s">
         <v>115</v>
       </c>
-      <c r="C131" s="105"/>
-      <c r="D131" s="105"/>
-      <c r="E131" s="105"/>
-      <c r="F131" s="105"/>
-      <c r="G131" s="105"/>
-      <c r="H131" s="106"/>
+      <c r="C131" s="123"/>
+      <c r="D131" s="123"/>
+      <c r="E131" s="123"/>
+      <c r="F131" s="123"/>
+      <c r="G131" s="123"/>
+      <c r="H131" s="124"/>
     </row>
     <row r="132" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A132" s="59"/>
-      <c r="B132" s="107"/>
-      <c r="C132" s="101"/>
-      <c r="D132" s="101"/>
-      <c r="E132" s="101"/>
-      <c r="F132" s="101"/>
-      <c r="G132" s="101"/>
-      <c r="H132" s="108"/>
+      <c r="B132" s="125"/>
+      <c r="C132" s="115"/>
+      <c r="D132" s="115"/>
+      <c r="E132" s="115"/>
+      <c r="F132" s="115"/>
+      <c r="G132" s="115"/>
+      <c r="H132" s="126"/>
     </row>
     <row r="133" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A133" s="59"/>
-      <c r="B133" s="109"/>
-      <c r="C133" s="110"/>
-      <c r="D133" s="110"/>
-      <c r="E133" s="110"/>
-      <c r="F133" s="110"/>
-      <c r="G133" s="110"/>
-      <c r="H133" s="111"/>
+      <c r="B133" s="127"/>
+      <c r="C133" s="128"/>
+      <c r="D133" s="128"/>
+      <c r="E133" s="128"/>
+      <c r="F133" s="128"/>
+      <c r="G133" s="128"/>
+      <c r="H133" s="129"/>
     </row>
     <row r="134" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A134" s="78"/>
-      <c r="B134" s="148" t="s">
+      <c r="B134" s="176" t="s">
         <v>119</v>
       </c>
-      <c r="C134" s="103"/>
-      <c r="D134" s="103"/>
-      <c r="E134" s="103"/>
-      <c r="F134" s="103"/>
-      <c r="G134" s="103"/>
-      <c r="H134" s="103"/>
+      <c r="C134" s="120"/>
+      <c r="D134" s="120"/>
+      <c r="E134" s="120"/>
+      <c r="F134" s="120"/>
+      <c r="G134" s="120"/>
+      <c r="H134" s="120"/>
     </row>
   </sheetData>
   <mergeCells count="107">
@@ -9957,249 +9953,249 @@
   <sheetData>
     <row r="1" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="79"/>
-      <c r="B1" s="157" t="s">
+      <c r="B1" s="185" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="131"/>
-      <c r="D1" s="131"/>
-      <c r="E1" s="131"/>
-      <c r="F1" s="131"/>
-      <c r="G1" s="131"/>
-      <c r="H1" s="131"/>
+      <c r="C1" s="157"/>
+      <c r="D1" s="157"/>
+      <c r="E1" s="157"/>
+      <c r="F1" s="157"/>
+      <c r="G1" s="157"/>
+      <c r="H1" s="157"/>
     </row>
     <row r="2" spans="1:8" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="80"/>
-      <c r="B2" s="173" t="s">
+      <c r="B2" s="145" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="174"/>
-      <c r="D2" s="174"/>
-      <c r="E2" s="174"/>
-      <c r="F2" s="174"/>
-      <c r="G2" s="174"/>
-      <c r="H2" s="175" t="s">
+      <c r="C2" s="146"/>
+      <c r="D2" s="146"/>
+      <c r="E2" s="146"/>
+      <c r="F2" s="146"/>
+      <c r="G2" s="146"/>
+      <c r="H2" s="95" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="81"/>
-      <c r="B3" s="176" t="s">
+      <c r="B3" s="140" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="177"/>
-      <c r="D3" s="197" t="s">
+      <c r="C3" s="117"/>
+      <c r="D3" s="186" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="198"/>
-      <c r="F3" s="198"/>
-      <c r="G3" s="198"/>
-      <c r="H3" s="118"/>
+      <c r="E3" s="157"/>
+      <c r="F3" s="157"/>
+      <c r="G3" s="157"/>
+      <c r="H3" s="136"/>
     </row>
     <row r="4" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="81"/>
-      <c r="B4" s="199" t="s">
+      <c r="B4" s="187" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="177"/>
-      <c r="D4" s="197" t="s">
+      <c r="C4" s="117"/>
+      <c r="D4" s="186" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="200"/>
-      <c r="F4" s="200"/>
-      <c r="G4" s="180" t="s">
+      <c r="E4" s="120"/>
+      <c r="F4" s="120"/>
+      <c r="G4" s="96" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="201" t="s">
+      <c r="H4" s="105" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="81"/>
-      <c r="B5" s="176" t="s">
+      <c r="B5" s="140" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="177"/>
-      <c r="D5" s="197" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="200"/>
-      <c r="F5" s="200"/>
-      <c r="G5" s="180" t="s">
+      <c r="C5" s="117"/>
+      <c r="D5" s="186" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="120"/>
+      <c r="F5" s="120"/>
+      <c r="G5" s="96" t="s">
         <v>11</v>
       </c>
-      <c r="H5" s="201" t="s">
+      <c r="H5" s="105" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="81"/>
-      <c r="B6" s="176" t="s">
+      <c r="B6" s="140" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="177"/>
-      <c r="D6" s="202" t="s">
+      <c r="C6" s="117"/>
+      <c r="D6" s="188" t="s">
         <v>120</v>
       </c>
-      <c r="E6" s="200"/>
-      <c r="F6" s="200"/>
-      <c r="G6" s="200"/>
-      <c r="H6" s="118"/>
+      <c r="E6" s="120"/>
+      <c r="F6" s="120"/>
+      <c r="G6" s="120"/>
+      <c r="H6" s="136"/>
     </row>
     <row r="7" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="81"/>
-      <c r="B7" s="183" t="s">
+      <c r="B7" s="141" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="184"/>
-      <c r="D7" s="203" t="s">
+      <c r="C7" s="142"/>
+      <c r="D7" s="189" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="120"/>
-      <c r="F7" s="120"/>
-      <c r="G7" s="196" t="s">
+      <c r="E7" s="138"/>
+      <c r="F7" s="138"/>
+      <c r="G7" s="104" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="204" t="s">
+      <c r="H7" s="106" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="40"/>
-      <c r="B8" s="141"/>
-      <c r="C8" s="131"/>
-      <c r="D8" s="131"/>
-      <c r="E8" s="131"/>
-      <c r="F8" s="131"/>
-      <c r="G8" s="131"/>
-      <c r="H8" s="131"/>
+      <c r="B8" s="166"/>
+      <c r="C8" s="157"/>
+      <c r="D8" s="157"/>
+      <c r="E8" s="157"/>
+      <c r="F8" s="157"/>
+      <c r="G8" s="157"/>
+      <c r="H8" s="157"/>
     </row>
     <row r="9" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="82"/>
-      <c r="B9" s="170" t="s">
+      <c r="B9" s="121" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="169"/>
-      <c r="D9" s="169"/>
-      <c r="E9" s="169"/>
-      <c r="F9" s="169"/>
-      <c r="G9" s="169"/>
-      <c r="H9" s="169"/>
+      <c r="C9" s="117"/>
+      <c r="D9" s="117"/>
+      <c r="E9" s="117"/>
+      <c r="F9" s="117"/>
+      <c r="G9" s="117"/>
+      <c r="H9" s="117"/>
     </row>
     <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="83"/>
-      <c r="B10" s="156"/>
-      <c r="C10" s="150"/>
-      <c r="D10" s="150"/>
-      <c r="E10" s="150"/>
-      <c r="F10" s="150"/>
-      <c r="G10" s="150"/>
-      <c r="H10" s="116"/>
+      <c r="B10" s="184"/>
+      <c r="C10" s="178"/>
+      <c r="D10" s="178"/>
+      <c r="E10" s="178"/>
+      <c r="F10" s="178"/>
+      <c r="G10" s="178"/>
+      <c r="H10" s="134"/>
     </row>
     <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="83"/>
-      <c r="B11" s="117"/>
-      <c r="C11" s="103"/>
-      <c r="D11" s="103"/>
-      <c r="E11" s="103"/>
-      <c r="F11" s="103"/>
-      <c r="G11" s="103"/>
-      <c r="H11" s="118"/>
+      <c r="B11" s="135"/>
+      <c r="C11" s="120"/>
+      <c r="D11" s="120"/>
+      <c r="E11" s="120"/>
+      <c r="F11" s="120"/>
+      <c r="G11" s="120"/>
+      <c r="H11" s="136"/>
     </row>
     <row r="12" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="83"/>
-      <c r="B12" s="117"/>
-      <c r="C12" s="103"/>
-      <c r="D12" s="103"/>
-      <c r="E12" s="103"/>
-      <c r="F12" s="103"/>
-      <c r="G12" s="103"/>
-      <c r="H12" s="118"/>
+      <c r="B12" s="135"/>
+      <c r="C12" s="120"/>
+      <c r="D12" s="120"/>
+      <c r="E12" s="120"/>
+      <c r="F12" s="120"/>
+      <c r="G12" s="120"/>
+      <c r="H12" s="136"/>
     </row>
     <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="83"/>
-      <c r="B13" s="117"/>
-      <c r="C13" s="103"/>
-      <c r="D13" s="103"/>
-      <c r="E13" s="103"/>
-      <c r="F13" s="103"/>
-      <c r="G13" s="103"/>
-      <c r="H13" s="118"/>
+      <c r="B13" s="135"/>
+      <c r="C13" s="120"/>
+      <c r="D13" s="120"/>
+      <c r="E13" s="120"/>
+      <c r="F13" s="120"/>
+      <c r="G13" s="120"/>
+      <c r="H13" s="136"/>
     </row>
     <row r="14" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="83"/>
-      <c r="B14" s="117"/>
-      <c r="C14" s="103"/>
-      <c r="D14" s="103"/>
-      <c r="E14" s="103"/>
-      <c r="F14" s="103"/>
-      <c r="G14" s="103"/>
-      <c r="H14" s="118"/>
+      <c r="B14" s="135"/>
+      <c r="C14" s="120"/>
+      <c r="D14" s="120"/>
+      <c r="E14" s="120"/>
+      <c r="F14" s="120"/>
+      <c r="G14" s="120"/>
+      <c r="H14" s="136"/>
     </row>
     <row r="15" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="83"/>
-      <c r="B15" s="117"/>
-      <c r="C15" s="103"/>
-      <c r="D15" s="103"/>
-      <c r="E15" s="103"/>
-      <c r="F15" s="103"/>
-      <c r="G15" s="103"/>
-      <c r="H15" s="118"/>
+      <c r="B15" s="135"/>
+      <c r="C15" s="120"/>
+      <c r="D15" s="120"/>
+      <c r="E15" s="120"/>
+      <c r="F15" s="120"/>
+      <c r="G15" s="120"/>
+      <c r="H15" s="136"/>
     </row>
     <row r="16" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="83"/>
-      <c r="B16" s="117"/>
-      <c r="C16" s="103"/>
-      <c r="D16" s="103"/>
-      <c r="E16" s="103"/>
-      <c r="F16" s="103"/>
-      <c r="G16" s="103"/>
-      <c r="H16" s="118"/>
+      <c r="B16" s="135"/>
+      <c r="C16" s="120"/>
+      <c r="D16" s="120"/>
+      <c r="E16" s="120"/>
+      <c r="F16" s="120"/>
+      <c r="G16" s="120"/>
+      <c r="H16" s="136"/>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="83"/>
-      <c r="B17" s="119"/>
-      <c r="C17" s="120"/>
-      <c r="D17" s="120"/>
-      <c r="E17" s="120"/>
-      <c r="F17" s="120"/>
-      <c r="G17" s="120"/>
-      <c r="H17" s="121"/>
+      <c r="B17" s="137"/>
+      <c r="C17" s="138"/>
+      <c r="D17" s="138"/>
+      <c r="E17" s="138"/>
+      <c r="F17" s="138"/>
+      <c r="G17" s="138"/>
+      <c r="H17" s="139"/>
     </row>
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="40"/>
-      <c r="B18" s="102"/>
-      <c r="C18" s="131"/>
-      <c r="D18" s="131"/>
-      <c r="E18" s="131"/>
-      <c r="F18" s="131"/>
-      <c r="G18" s="131"/>
-      <c r="H18" s="131"/>
+      <c r="B18" s="119"/>
+      <c r="C18" s="157"/>
+      <c r="D18" s="157"/>
+      <c r="E18" s="157"/>
+      <c r="F18" s="157"/>
+      <c r="G18" s="157"/>
+      <c r="H18" s="157"/>
     </row>
     <row r="19" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="84"/>
       <c r="B19" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="112" t="s">
+      <c r="C19" s="130" t="s">
         <v>20</v>
       </c>
-      <c r="D19" s="101"/>
-      <c r="E19" s="101"/>
-      <c r="F19" s="101"/>
-      <c r="G19" s="101"/>
-      <c r="H19" s="101"/>
+      <c r="D19" s="115"/>
+      <c r="E19" s="115"/>
+      <c r="F19" s="115"/>
+      <c r="G19" s="115"/>
+      <c r="H19" s="115"/>
     </row>
     <row r="20" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="82"/>
-      <c r="B20" s="170" t="s">
+      <c r="B20" s="121" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="169"/>
-      <c r="D20" s="169"/>
-      <c r="E20" s="169"/>
-      <c r="F20" s="169"/>
-      <c r="G20" s="169"/>
-      <c r="H20" s="169"/>
+      <c r="C20" s="117"/>
+      <c r="D20" s="117"/>
+      <c r="E20" s="117"/>
+      <c r="F20" s="117"/>
+      <c r="G20" s="117"/>
+      <c r="H20" s="117"/>
     </row>
     <row r="21" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="51"/>
@@ -10212,12 +10208,12 @@
       <c r="D21" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="E21" s="155" t="s">
+      <c r="E21" s="183" t="s">
         <v>73</v>
       </c>
-      <c r="F21" s="101"/>
-      <c r="G21" s="101"/>
-      <c r="H21" s="101"/>
+      <c r="F21" s="115"/>
+      <c r="G21" s="115"/>
+      <c r="H21" s="115"/>
     </row>
     <row r="22" spans="1:8" ht="14" x14ac:dyDescent="0.15">
       <c r="A22" s="85"/>
@@ -10230,10 +10226,10 @@
       <c r="D22" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="E22" s="95"/>
-      <c r="F22" s="95"/>
-      <c r="G22" s="95"/>
-      <c r="H22" s="95"/>
+      <c r="E22" s="108"/>
+      <c r="F22" s="108"/>
+      <c r="G22" s="108"/>
+      <c r="H22" s="108"/>
     </row>
     <row r="23" spans="1:8" ht="14" x14ac:dyDescent="0.15">
       <c r="A23" s="86"/>
@@ -10246,10 +10242,10 @@
       <c r="D23" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="E23" s="95"/>
-      <c r="F23" s="95"/>
-      <c r="G23" s="95"/>
-      <c r="H23" s="95"/>
+      <c r="E23" s="108"/>
+      <c r="F23" s="108"/>
+      <c r="G23" s="108"/>
+      <c r="H23" s="108"/>
     </row>
     <row r="24" spans="1:8" ht="14" x14ac:dyDescent="0.15">
       <c r="A24" s="86"/>
@@ -10262,10 +10258,10 @@
       <c r="D24" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="E24" s="95"/>
-      <c r="F24" s="95"/>
-      <c r="G24" s="95"/>
-      <c r="H24" s="95"/>
+      <c r="E24" s="108"/>
+      <c r="F24" s="108"/>
+      <c r="G24" s="108"/>
+      <c r="H24" s="108"/>
     </row>
     <row r="25" spans="1:8" ht="14" x14ac:dyDescent="0.15">
       <c r="A25" s="85"/>
@@ -10278,10 +10274,10 @@
       <c r="D25" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="E25" s="95"/>
-      <c r="F25" s="95"/>
-      <c r="G25" s="95"/>
-      <c r="H25" s="95"/>
+      <c r="E25" s="108"/>
+      <c r="F25" s="108"/>
+      <c r="G25" s="108"/>
+      <c r="H25" s="108"/>
     </row>
     <row r="26" spans="1:8" ht="28" x14ac:dyDescent="0.15">
       <c r="A26" s="85"/>
@@ -10294,10 +10290,10 @@
       <c r="D26" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="E26" s="95"/>
-      <c r="F26" s="95"/>
-      <c r="G26" s="95"/>
-      <c r="H26" s="95"/>
+      <c r="E26" s="108"/>
+      <c r="F26" s="108"/>
+      <c r="G26" s="108"/>
+      <c r="H26" s="108"/>
     </row>
     <row r="27" spans="1:8" ht="14" x14ac:dyDescent="0.15">
       <c r="A27" s="85"/>
@@ -10310,10 +10306,10 @@
       <c r="D27" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="E27" s="95"/>
-      <c r="F27" s="95"/>
-      <c r="G27" s="95"/>
-      <c r="H27" s="95"/>
+      <c r="E27" s="108"/>
+      <c r="F27" s="108"/>
+      <c r="G27" s="108"/>
+      <c r="H27" s="108"/>
     </row>
     <row r="28" spans="1:8" ht="14" x14ac:dyDescent="0.15">
       <c r="A28" s="85"/>
@@ -10326,10 +10322,10 @@
       <c r="D28" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="E28" s="95"/>
-      <c r="F28" s="95"/>
-      <c r="G28" s="95"/>
-      <c r="H28" s="95"/>
+      <c r="E28" s="108"/>
+      <c r="F28" s="108"/>
+      <c r="G28" s="108"/>
+      <c r="H28" s="108"/>
     </row>
     <row r="29" spans="1:8" ht="14" x14ac:dyDescent="0.15">
       <c r="A29" s="85"/>
@@ -10342,10 +10338,10 @@
       <c r="D29" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="E29" s="95"/>
-      <c r="F29" s="95"/>
-      <c r="G29" s="95"/>
-      <c r="H29" s="95"/>
+      <c r="E29" s="108"/>
+      <c r="F29" s="108"/>
+      <c r="G29" s="108"/>
+      <c r="H29" s="108"/>
     </row>
     <row r="30" spans="1:8" ht="14" x14ac:dyDescent="0.15">
       <c r="A30" s="85"/>
@@ -10358,10 +10354,10 @@
       <c r="D30" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="E30" s="95"/>
-      <c r="F30" s="95"/>
-      <c r="G30" s="95"/>
-      <c r="H30" s="95"/>
+      <c r="E30" s="108"/>
+      <c r="F30" s="108"/>
+      <c r="G30" s="108"/>
+      <c r="H30" s="108"/>
     </row>
     <row r="31" spans="1:8" ht="14" x14ac:dyDescent="0.15">
       <c r="A31" s="85"/>
@@ -10374,10 +10370,10 @@
       <c r="D31" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="E31" s="95"/>
-      <c r="F31" s="95"/>
-      <c r="G31" s="95"/>
-      <c r="H31" s="95"/>
+      <c r="E31" s="108"/>
+      <c r="F31" s="108"/>
+      <c r="G31" s="108"/>
+      <c r="H31" s="108"/>
     </row>
     <row r="32" spans="1:8" ht="14" x14ac:dyDescent="0.15">
       <c r="A32" s="85"/>
@@ -10390,76 +10386,76 @@
       <c r="D32" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="E32" s="95"/>
-      <c r="F32" s="95"/>
-      <c r="G32" s="95"/>
-      <c r="H32" s="95"/>
+      <c r="E32" s="108"/>
+      <c r="F32" s="108"/>
+      <c r="G32" s="108"/>
+      <c r="H32" s="108"/>
     </row>
     <row r="33" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="52"/>
-      <c r="B33" s="113" t="s">
+      <c r="B33" s="131" t="s">
         <v>71</v>
       </c>
-      <c r="C33" s="101"/>
-      <c r="D33" s="101"/>
-      <c r="E33" s="101"/>
-      <c r="F33" s="101"/>
-      <c r="G33" s="101"/>
-      <c r="H33" s="101"/>
+      <c r="C33" s="115"/>
+      <c r="D33" s="115"/>
+      <c r="E33" s="115"/>
+      <c r="F33" s="115"/>
+      <c r="G33" s="115"/>
+      <c r="H33" s="115"/>
     </row>
     <row r="34" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="59"/>
-      <c r="B34" s="104" t="s">
+      <c r="B34" s="122" t="s">
         <v>256</v>
       </c>
-      <c r="C34" s="105"/>
-      <c r="D34" s="105"/>
-      <c r="E34" s="105"/>
-      <c r="F34" s="105"/>
-      <c r="G34" s="105"/>
-      <c r="H34" s="106"/>
+      <c r="C34" s="123"/>
+      <c r="D34" s="123"/>
+      <c r="E34" s="123"/>
+      <c r="F34" s="123"/>
+      <c r="G34" s="123"/>
+      <c r="H34" s="124"/>
     </row>
     <row r="35" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="59"/>
-      <c r="B35" s="107"/>
-      <c r="C35" s="101"/>
-      <c r="D35" s="101"/>
-      <c r="E35" s="101"/>
-      <c r="F35" s="101"/>
-      <c r="G35" s="101"/>
-      <c r="H35" s="108"/>
+      <c r="B35" s="125"/>
+      <c r="C35" s="115"/>
+      <c r="D35" s="115"/>
+      <c r="E35" s="115"/>
+      <c r="F35" s="115"/>
+      <c r="G35" s="115"/>
+      <c r="H35" s="126"/>
     </row>
     <row r="36" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="59"/>
-      <c r="B36" s="109"/>
-      <c r="C36" s="110"/>
-      <c r="D36" s="110"/>
-      <c r="E36" s="110"/>
-      <c r="F36" s="110"/>
-      <c r="G36" s="110"/>
-      <c r="H36" s="111"/>
+      <c r="B36" s="127"/>
+      <c r="C36" s="128"/>
+      <c r="D36" s="128"/>
+      <c r="E36" s="128"/>
+      <c r="F36" s="128"/>
+      <c r="G36" s="128"/>
+      <c r="H36" s="129"/>
     </row>
     <row r="37" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A37" s="40"/>
-      <c r="B37" s="102"/>
-      <c r="C37" s="131"/>
-      <c r="D37" s="131"/>
-      <c r="E37" s="131"/>
-      <c r="F37" s="131"/>
-      <c r="G37" s="131"/>
-      <c r="H37" s="131"/>
+      <c r="B37" s="119"/>
+      <c r="C37" s="157"/>
+      <c r="D37" s="157"/>
+      <c r="E37" s="157"/>
+      <c r="F37" s="157"/>
+      <c r="G37" s="157"/>
+      <c r="H37" s="157"/>
     </row>
     <row r="38" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="65"/>
-      <c r="B38" s="171" t="s">
+      <c r="B38" s="116" t="s">
         <v>72</v>
       </c>
-      <c r="C38" s="169"/>
-      <c r="D38" s="169"/>
-      <c r="E38" s="169"/>
-      <c r="F38" s="169"/>
-      <c r="G38" s="169"/>
-      <c r="H38" s="169"/>
+      <c r="C38" s="117"/>
+      <c r="D38" s="117"/>
+      <c r="E38" s="117"/>
+      <c r="F38" s="117"/>
+      <c r="G38" s="117"/>
+      <c r="H38" s="117"/>
     </row>
     <row r="39" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="68"/>
@@ -10472,12 +10468,12 @@
       <c r="D39" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="E39" s="100" t="s">
+      <c r="E39" s="114" t="s">
         <v>73</v>
       </c>
-      <c r="F39" s="101"/>
-      <c r="G39" s="101"/>
-      <c r="H39" s="101"/>
+      <c r="F39" s="115"/>
+      <c r="G39" s="115"/>
+      <c r="H39" s="115"/>
     </row>
     <row r="40" spans="1:8" ht="14" x14ac:dyDescent="0.15">
       <c r="A40" s="57"/>
@@ -10490,10 +10486,10 @@
       <c r="D40" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="E40" s="95"/>
-      <c r="F40" s="95"/>
-      <c r="G40" s="95"/>
-      <c r="H40" s="95"/>
+      <c r="E40" s="108"/>
+      <c r="F40" s="108"/>
+      <c r="G40" s="108"/>
+      <c r="H40" s="108"/>
     </row>
     <row r="41" spans="1:8" ht="28" x14ac:dyDescent="0.15">
       <c r="A41" s="57"/>
@@ -10506,10 +10502,10 @@
       <c r="D41" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="E41" s="95"/>
-      <c r="F41" s="95"/>
-      <c r="G41" s="95"/>
-      <c r="H41" s="95"/>
+      <c r="E41" s="108"/>
+      <c r="F41" s="108"/>
+      <c r="G41" s="108"/>
+      <c r="H41" s="108"/>
     </row>
     <row r="42" spans="1:8" ht="28" x14ac:dyDescent="0.15">
       <c r="A42" s="57"/>
@@ -10522,10 +10518,10 @@
       <c r="D42" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="E42" s="95"/>
-      <c r="F42" s="95"/>
-      <c r="G42" s="95"/>
-      <c r="H42" s="95"/>
+      <c r="E42" s="108"/>
+      <c r="F42" s="108"/>
+      <c r="G42" s="108"/>
+      <c r="H42" s="108"/>
     </row>
     <row r="43" spans="1:8" ht="28" x14ac:dyDescent="0.15">
       <c r="A43" s="58"/>
@@ -10538,10 +10534,10 @@
       <c r="D43" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="E43" s="95"/>
-      <c r="F43" s="95"/>
-      <c r="G43" s="95"/>
-      <c r="H43" s="95"/>
+      <c r="E43" s="108"/>
+      <c r="F43" s="108"/>
+      <c r="G43" s="108"/>
+      <c r="H43" s="108"/>
     </row>
     <row r="44" spans="1:8" ht="28" x14ac:dyDescent="0.15">
       <c r="A44" s="57"/>
@@ -10554,10 +10550,10 @@
       <c r="D44" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="E44" s="95"/>
-      <c r="F44" s="95"/>
-      <c r="G44" s="95"/>
-      <c r="H44" s="95"/>
+      <c r="E44" s="108"/>
+      <c r="F44" s="108"/>
+      <c r="G44" s="108"/>
+      <c r="H44" s="108"/>
     </row>
     <row r="45" spans="1:8" ht="42" x14ac:dyDescent="0.15">
       <c r="A45" s="57"/>
@@ -10570,10 +10566,10 @@
       <c r="D45" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="E45" s="95"/>
-      <c r="F45" s="95"/>
-      <c r="G45" s="95"/>
-      <c r="H45" s="95"/>
+      <c r="E45" s="108"/>
+      <c r="F45" s="108"/>
+      <c r="G45" s="108"/>
+      <c r="H45" s="108"/>
     </row>
     <row r="46" spans="1:8" ht="14" x14ac:dyDescent="0.15">
       <c r="A46" s="57"/>
@@ -10586,10 +10582,10 @@
       <c r="D46" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="E46" s="95"/>
-      <c r="F46" s="95"/>
-      <c r="G46" s="95"/>
-      <c r="H46" s="95"/>
+      <c r="E46" s="108"/>
+      <c r="F46" s="108"/>
+      <c r="G46" s="108"/>
+      <c r="H46" s="108"/>
     </row>
     <row r="47" spans="1:8" ht="14" x14ac:dyDescent="0.15">
       <c r="A47" s="57"/>
@@ -10602,10 +10598,10 @@
       <c r="D47" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="E47" s="95"/>
-      <c r="F47" s="95"/>
-      <c r="G47" s="95"/>
-      <c r="H47" s="95"/>
+      <c r="E47" s="108"/>
+      <c r="F47" s="108"/>
+      <c r="G47" s="108"/>
+      <c r="H47" s="108"/>
     </row>
     <row r="48" spans="1:8" ht="28" x14ac:dyDescent="0.15">
       <c r="A48" s="57"/>
@@ -10618,10 +10614,10 @@
       <c r="D48" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="E48" s="95"/>
-      <c r="F48" s="95"/>
-      <c r="G48" s="95"/>
-      <c r="H48" s="95"/>
+      <c r="E48" s="108"/>
+      <c r="F48" s="108"/>
+      <c r="G48" s="108"/>
+      <c r="H48" s="108"/>
     </row>
     <row r="49" spans="1:8" ht="28" x14ac:dyDescent="0.15">
       <c r="A49" s="57"/>
@@ -10634,10 +10630,10 @@
       <c r="D49" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="E49" s="95"/>
-      <c r="F49" s="95"/>
-      <c r="G49" s="95"/>
-      <c r="H49" s="95"/>
+      <c r="E49" s="108"/>
+      <c r="F49" s="108"/>
+      <c r="G49" s="108"/>
+      <c r="H49" s="108"/>
     </row>
     <row r="50" spans="1:8" ht="14" x14ac:dyDescent="0.15">
       <c r="A50" s="57"/>
@@ -10650,10 +10646,10 @@
       <c r="D50" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="E50" s="95"/>
-      <c r="F50" s="95"/>
-      <c r="G50" s="95"/>
-      <c r="H50" s="95"/>
+      <c r="E50" s="108"/>
+      <c r="F50" s="108"/>
+      <c r="G50" s="108"/>
+      <c r="H50" s="108"/>
     </row>
     <row r="51" spans="1:8" ht="14" x14ac:dyDescent="0.15">
       <c r="A51" s="57"/>
@@ -10666,10 +10662,10 @@
       <c r="D51" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="E51" s="95"/>
-      <c r="F51" s="95"/>
-      <c r="G51" s="95"/>
-      <c r="H51" s="95"/>
+      <c r="E51" s="108"/>
+      <c r="F51" s="108"/>
+      <c r="G51" s="108"/>
+      <c r="H51" s="108"/>
     </row>
     <row r="52" spans="1:8" ht="42" x14ac:dyDescent="0.15">
       <c r="A52" s="57"/>
@@ -10682,10 +10678,10 @@
       <c r="D52" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="E52" s="95"/>
-      <c r="F52" s="95"/>
-      <c r="G52" s="95"/>
-      <c r="H52" s="95"/>
+      <c r="E52" s="108"/>
+      <c r="F52" s="108"/>
+      <c r="G52" s="108"/>
+      <c r="H52" s="108"/>
     </row>
     <row r="53" spans="1:8" ht="14" x14ac:dyDescent="0.15">
       <c r="A53" s="57"/>
@@ -10698,10 +10694,10 @@
       <c r="D53" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="E53" s="95"/>
-      <c r="F53" s="95"/>
-      <c r="G53" s="95"/>
-      <c r="H53" s="95"/>
+      <c r="E53" s="108"/>
+      <c r="F53" s="108"/>
+      <c r="G53" s="108"/>
+      <c r="H53" s="108"/>
     </row>
     <row r="54" spans="1:8" ht="14" x14ac:dyDescent="0.15">
       <c r="A54" s="57"/>
@@ -10714,10 +10710,10 @@
       <c r="D54" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="E54" s="95"/>
-      <c r="F54" s="95"/>
-      <c r="G54" s="95"/>
-      <c r="H54" s="95"/>
+      <c r="E54" s="108"/>
+      <c r="F54" s="108"/>
+      <c r="G54" s="108"/>
+      <c r="H54" s="108"/>
     </row>
     <row r="55" spans="1:8" ht="14" x14ac:dyDescent="0.15">
       <c r="A55" s="57"/>
@@ -10730,260 +10726,260 @@
       <c r="D55" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="E55" s="95"/>
-      <c r="F55" s="95"/>
-      <c r="G55" s="95"/>
-      <c r="H55" s="95"/>
+      <c r="E55" s="108"/>
+      <c r="F55" s="108"/>
+      <c r="G55" s="108"/>
+      <c r="H55" s="108"/>
     </row>
     <row r="56" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="67"/>
-      <c r="B56" s="126" t="s">
+      <c r="B56" s="152" t="s">
         <v>71</v>
       </c>
-      <c r="C56" s="101"/>
-      <c r="D56" s="101"/>
-      <c r="E56" s="101"/>
-      <c r="F56" s="101"/>
-      <c r="G56" s="101"/>
-      <c r="H56" s="101"/>
+      <c r="C56" s="115"/>
+      <c r="D56" s="115"/>
+      <c r="E56" s="115"/>
+      <c r="F56" s="115"/>
+      <c r="G56" s="115"/>
+      <c r="H56" s="115"/>
     </row>
     <row r="57" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="2"/>
-      <c r="B57" s="136" t="s">
+      <c r="B57" s="162" t="s">
         <v>76</v>
       </c>
-      <c r="C57" s="105"/>
-      <c r="D57" s="105"/>
-      <c r="E57" s="105"/>
-      <c r="F57" s="105"/>
-      <c r="G57" s="105"/>
-      <c r="H57" s="106"/>
+      <c r="C57" s="123"/>
+      <c r="D57" s="123"/>
+      <c r="E57" s="123"/>
+      <c r="F57" s="123"/>
+      <c r="G57" s="123"/>
+      <c r="H57" s="124"/>
     </row>
     <row r="58" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="2"/>
-      <c r="B58" s="107"/>
-      <c r="C58" s="101"/>
-      <c r="D58" s="101"/>
-      <c r="E58" s="101"/>
-      <c r="F58" s="101"/>
-      <c r="G58" s="101"/>
-      <c r="H58" s="108"/>
+      <c r="B58" s="125"/>
+      <c r="C58" s="115"/>
+      <c r="D58" s="115"/>
+      <c r="E58" s="115"/>
+      <c r="F58" s="115"/>
+      <c r="G58" s="115"/>
+      <c r="H58" s="126"/>
     </row>
     <row r="59" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="2"/>
-      <c r="B59" s="109"/>
-      <c r="C59" s="110"/>
-      <c r="D59" s="110"/>
-      <c r="E59" s="110"/>
-      <c r="F59" s="110"/>
-      <c r="G59" s="110"/>
-      <c r="H59" s="111"/>
+      <c r="B59" s="127"/>
+      <c r="C59" s="128"/>
+      <c r="D59" s="128"/>
+      <c r="E59" s="128"/>
+      <c r="F59" s="128"/>
+      <c r="G59" s="128"/>
+      <c r="H59" s="129"/>
     </row>
     <row r="60" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A60" s="2"/>
-      <c r="B60" s="137"/>
-      <c r="C60" s="103"/>
-      <c r="D60" s="103"/>
-      <c r="E60" s="103"/>
-      <c r="F60" s="103"/>
-      <c r="G60" s="103"/>
-      <c r="H60" s="103"/>
+      <c r="B60" s="163"/>
+      <c r="C60" s="120"/>
+      <c r="D60" s="120"/>
+      <c r="E60" s="120"/>
+      <c r="F60" s="120"/>
+      <c r="G60" s="120"/>
+      <c r="H60" s="120"/>
     </row>
     <row r="61" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="65"/>
-      <c r="B61" s="171" t="s">
+      <c r="B61" s="116" t="s">
         <v>77</v>
       </c>
-      <c r="C61" s="169"/>
-      <c r="D61" s="169"/>
-      <c r="E61" s="169"/>
-      <c r="F61" s="169"/>
-      <c r="G61" s="169"/>
-      <c r="H61" s="169"/>
+      <c r="C61" s="117"/>
+      <c r="D61" s="117"/>
+      <c r="E61" s="117"/>
+      <c r="F61" s="117"/>
+      <c r="G61" s="117"/>
+      <c r="H61" s="117"/>
     </row>
     <row r="62" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="68"/>
       <c r="B62" s="27" t="s">
         <v>78</v>
       </c>
-      <c r="C62" s="100" t="s">
+      <c r="C62" s="114" t="s">
         <v>123</v>
       </c>
-      <c r="D62" s="101"/>
-      <c r="E62" s="100" t="s">
+      <c r="D62" s="115"/>
+      <c r="E62" s="114" t="s">
         <v>73</v>
       </c>
-      <c r="F62" s="101"/>
-      <c r="G62" s="101"/>
-      <c r="H62" s="101"/>
+      <c r="F62" s="115"/>
+      <c r="G62" s="115"/>
+      <c r="H62" s="115"/>
     </row>
     <row r="63" spans="1:8" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="87"/>
       <c r="B63" s="24"/>
-      <c r="C63" s="94" t="s">
+      <c r="C63" s="107" t="s">
         <v>124</v>
       </c>
-      <c r="D63" s="95"/>
-      <c r="E63" s="140"/>
-      <c r="F63" s="95"/>
-      <c r="G63" s="95"/>
-      <c r="H63" s="95"/>
+      <c r="D63" s="108"/>
+      <c r="E63" s="118"/>
+      <c r="F63" s="108"/>
+      <c r="G63" s="108"/>
+      <c r="H63" s="108"/>
     </row>
     <row r="64" spans="1:8" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="87"/>
       <c r="B64" s="24"/>
-      <c r="C64" s="94" t="s">
+      <c r="C64" s="107" t="s">
         <v>124</v>
       </c>
-      <c r="D64" s="95"/>
-      <c r="E64" s="146"/>
-      <c r="F64" s="95"/>
-      <c r="G64" s="95"/>
-      <c r="H64" s="95"/>
+      <c r="D64" s="108"/>
+      <c r="E64" s="175"/>
+      <c r="F64" s="108"/>
+      <c r="G64" s="108"/>
+      <c r="H64" s="108"/>
     </row>
     <row r="65" spans="1:8" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="88"/>
       <c r="B65" s="25"/>
-      <c r="C65" s="95"/>
-      <c r="D65" s="95"/>
-      <c r="E65" s="95"/>
-      <c r="F65" s="95"/>
-      <c r="G65" s="95"/>
-      <c r="H65" s="95"/>
+      <c r="C65" s="108"/>
+      <c r="D65" s="108"/>
+      <c r="E65" s="108"/>
+      <c r="F65" s="108"/>
+      <c r="G65" s="108"/>
+      <c r="H65" s="108"/>
     </row>
     <row r="66" spans="1:8" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="88"/>
       <c r="B66" s="25"/>
-      <c r="C66" s="95"/>
-      <c r="D66" s="95"/>
-      <c r="E66" s="95"/>
-      <c r="F66" s="95"/>
-      <c r="G66" s="95"/>
-      <c r="H66" s="95"/>
+      <c r="C66" s="108"/>
+      <c r="D66" s="108"/>
+      <c r="E66" s="108"/>
+      <c r="F66" s="108"/>
+      <c r="G66" s="108"/>
+      <c r="H66" s="108"/>
     </row>
     <row r="67" spans="1:8" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="88"/>
       <c r="B67" s="25"/>
-      <c r="C67" s="95"/>
-      <c r="D67" s="95"/>
-      <c r="E67" s="95"/>
-      <c r="F67" s="95"/>
-      <c r="G67" s="95"/>
-      <c r="H67" s="95"/>
+      <c r="C67" s="108"/>
+      <c r="D67" s="108"/>
+      <c r="E67" s="108"/>
+      <c r="F67" s="108"/>
+      <c r="G67" s="108"/>
+      <c r="H67" s="108"/>
     </row>
     <row r="68" spans="1:8" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="88"/>
       <c r="B68" s="25"/>
-      <c r="C68" s="95"/>
-      <c r="D68" s="95"/>
-      <c r="E68" s="95"/>
-      <c r="F68" s="95"/>
-      <c r="G68" s="95"/>
-      <c r="H68" s="95"/>
+      <c r="C68" s="108"/>
+      <c r="D68" s="108"/>
+      <c r="E68" s="108"/>
+      <c r="F68" s="108"/>
+      <c r="G68" s="108"/>
+      <c r="H68" s="108"/>
     </row>
     <row r="69" spans="1:8" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="88"/>
       <c r="B69" s="25"/>
-      <c r="C69" s="95"/>
-      <c r="D69" s="95"/>
-      <c r="E69" s="95"/>
-      <c r="F69" s="95"/>
-      <c r="G69" s="95"/>
-      <c r="H69" s="95"/>
+      <c r="C69" s="108"/>
+      <c r="D69" s="108"/>
+      <c r="E69" s="108"/>
+      <c r="F69" s="108"/>
+      <c r="G69" s="108"/>
+      <c r="H69" s="108"/>
     </row>
     <row r="70" spans="1:8" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" s="88"/>
       <c r="B70" s="25"/>
-      <c r="C70" s="95"/>
-      <c r="D70" s="95"/>
-      <c r="E70" s="95"/>
-      <c r="F70" s="95"/>
-      <c r="G70" s="95"/>
-      <c r="H70" s="95"/>
+      <c r="C70" s="108"/>
+      <c r="D70" s="108"/>
+      <c r="E70" s="108"/>
+      <c r="F70" s="108"/>
+      <c r="G70" s="108"/>
+      <c r="H70" s="108"/>
     </row>
     <row r="71" spans="1:8" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A71" s="88"/>
       <c r="B71" s="25"/>
-      <c r="C71" s="95"/>
-      <c r="D71" s="95"/>
-      <c r="E71" s="95"/>
-      <c r="F71" s="95"/>
-      <c r="G71" s="95"/>
-      <c r="H71" s="95"/>
+      <c r="C71" s="108"/>
+      <c r="D71" s="108"/>
+      <c r="E71" s="108"/>
+      <c r="F71" s="108"/>
+      <c r="G71" s="108"/>
+      <c r="H71" s="108"/>
     </row>
     <row r="72" spans="1:8" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="88"/>
       <c r="B72" s="25"/>
-      <c r="C72" s="95"/>
-      <c r="D72" s="95"/>
-      <c r="E72" s="95"/>
-      <c r="F72" s="95"/>
-      <c r="G72" s="95"/>
-      <c r="H72" s="95"/>
+      <c r="C72" s="108"/>
+      <c r="D72" s="108"/>
+      <c r="E72" s="108"/>
+      <c r="F72" s="108"/>
+      <c r="G72" s="108"/>
+      <c r="H72" s="108"/>
     </row>
     <row r="73" spans="1:8" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="88"/>
       <c r="B73" s="25"/>
-      <c r="C73" s="95"/>
-      <c r="D73" s="95"/>
-      <c r="E73" s="95"/>
-      <c r="F73" s="95"/>
-      <c r="G73" s="95"/>
-      <c r="H73" s="95"/>
+      <c r="C73" s="108"/>
+      <c r="D73" s="108"/>
+      <c r="E73" s="108"/>
+      <c r="F73" s="108"/>
+      <c r="G73" s="108"/>
+      <c r="H73" s="108"/>
     </row>
     <row r="74" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="67"/>
-      <c r="B74" s="153" t="s">
+      <c r="B74" s="181" t="s">
         <v>71</v>
       </c>
-      <c r="C74" s="131"/>
-      <c r="D74" s="131"/>
-      <c r="E74" s="131"/>
-      <c r="F74" s="131"/>
-      <c r="G74" s="131"/>
-      <c r="H74" s="131"/>
+      <c r="C74" s="157"/>
+      <c r="D74" s="157"/>
+      <c r="E74" s="157"/>
+      <c r="F74" s="157"/>
+      <c r="G74" s="157"/>
+      <c r="H74" s="157"/>
     </row>
     <row r="75" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="2"/>
-      <c r="B75" s="158"/>
-      <c r="C75" s="159"/>
-      <c r="D75" s="159"/>
-      <c r="E75" s="159"/>
-      <c r="F75" s="159"/>
-      <c r="G75" s="159"/>
-      <c r="H75" s="160"/>
+      <c r="B75" s="190"/>
+      <c r="C75" s="191"/>
+      <c r="D75" s="191"/>
+      <c r="E75" s="191"/>
+      <c r="F75" s="191"/>
+      <c r="G75" s="191"/>
+      <c r="H75" s="192"/>
     </row>
     <row r="76" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A76" s="39"/>
-      <c r="B76" s="161"/>
-      <c r="C76" s="162"/>
-      <c r="D76" s="162"/>
-      <c r="E76" s="162"/>
-      <c r="F76" s="162"/>
-      <c r="G76" s="162"/>
-      <c r="H76" s="163"/>
+      <c r="B76" s="193"/>
+      <c r="C76" s="194"/>
+      <c r="D76" s="194"/>
+      <c r="E76" s="194"/>
+      <c r="F76" s="194"/>
+      <c r="G76" s="194"/>
+      <c r="H76" s="195"/>
     </row>
     <row r="77" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A77" s="39"/>
-      <c r="B77" s="164"/>
-      <c r="C77" s="165"/>
-      <c r="D77" s="165"/>
-      <c r="E77" s="165"/>
-      <c r="F77" s="165"/>
-      <c r="G77" s="165"/>
-      <c r="H77" s="166"/>
+      <c r="B77" s="196"/>
+      <c r="C77" s="197"/>
+      <c r="D77" s="197"/>
+      <c r="E77" s="197"/>
+      <c r="F77" s="197"/>
+      <c r="G77" s="197"/>
+      <c r="H77" s="198"/>
     </row>
     <row r="78" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A78" s="39"/>
-      <c r="B78" s="148" t="s">
+      <c r="B78" s="176" t="s">
         <v>125</v>
       </c>
-      <c r="C78" s="103"/>
-      <c r="D78" s="103"/>
-      <c r="E78" s="103"/>
-      <c r="F78" s="103"/>
-      <c r="G78" s="103"/>
-      <c r="H78" s="103"/>
+      <c r="C78" s="120"/>
+      <c r="D78" s="120"/>
+      <c r="E78" s="120"/>
+      <c r="F78" s="120"/>
+      <c r="G78" s="120"/>
+      <c r="H78" s="120"/>
     </row>
   </sheetData>
   <mergeCells count="82">
@@ -11094,30 +11090,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16" x14ac:dyDescent="0.15">
-      <c r="A1" s="167" t="s">
+      <c r="A1" s="199" t="s">
         <v>242</v>
       </c>
-      <c r="B1" s="168"/>
-      <c r="C1" s="168"/>
-      <c r="D1" s="168"/>
+      <c r="B1" s="200"/>
+      <c r="C1" s="200"/>
+      <c r="D1" s="200"/>
     </row>
     <row r="2" spans="1:4" ht="17" x14ac:dyDescent="0.15">
-      <c r="A2" s="172" t="s">
+      <c r="A2" s="94" t="s">
         <v>243</v>
       </c>
-      <c r="B2" s="172" t="s">
+      <c r="B2" s="94" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="172" t="s">
+      <c r="C2" s="94" t="s">
         <v>244</v>
       </c>
-      <c r="D2" s="172" t="s">
+      <c r="D2" s="94" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="28" x14ac:dyDescent="0.15">
       <c r="A3" s="41">
-        <v>45490</v>
+        <v>45512</v>
       </c>
       <c r="B3" s="42" t="s">
         <v>257</v>
